--- a/Filtered_By_Region/Region VII/Region VII_QRF.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_QRF.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT111"/>
+  <dimension ref="A1:AU111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -729,23 +735,19 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>44914</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>44727</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>44783</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>44792</v>
       </c>
       <c r="Y2" t="inlineStr">
@@ -753,7 +755,6 @@
           <t>Per Construction and Supply</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -790,7 +791,7 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AM2" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="AN2" t="inlineStr">
@@ -798,10 +799,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -873,23 +870,19 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>44722</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>44728</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>44740</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>44749</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="3" t="n">
         <v>44782</v>
       </c>
       <c r="Y3" t="inlineStr">
@@ -897,7 +890,6 @@
           <t>RISM Builders</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -934,16 +926,11 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1015,24 +1002,18 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>45082</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -1074,16 +1055,12 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" s="2" t="n">
+      <c r="AM4" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN4" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1155,24 +1132,18 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>45073</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -1214,16 +1185,12 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" s="2" t="n">
+      <c r="AM5" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN5" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1267,7 +1234,6 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>4</v>
       </c>
@@ -1295,24 +1261,18 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="3" t="n">
         <v>45073</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -1354,16 +1314,12 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" s="2" t="n">
+      <c r="AM6" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN6" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1435,27 +1391,21 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="3" t="n">
         <v>45074</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="3" t="n">
         <v>45120</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1492,16 +1442,12 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" s="2" t="n">
+      <c r="AM7" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN7" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1573,26 +1519,21 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="3" t="n">
         <v>45092</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -1634,16 +1575,12 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" s="2" t="n">
+      <c r="AM8" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN8" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1687,7 +1624,6 @@
       <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>2</v>
       </c>
@@ -1715,26 +1651,21 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="3" t="n">
         <v>45092</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -1776,16 +1707,12 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="2" t="n">
+      <c r="AM9" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN9" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1846,7 +1773,6 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1855,26 +1781,21 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>45087</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>45064</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -1916,16 +1837,12 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" s="2" t="n">
+      <c r="AM10" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN10" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1997,24 +1914,18 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="3" t="n">
         <v>45082</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -2056,16 +1967,12 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" s="2" t="n">
+      <c r="AM11" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN11" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2137,26 +2044,21 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>45072</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="Q12" s="3" t="n">
         <v>373821</v>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -2198,16 +2100,12 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" s="2" t="n">
+      <c r="AM12" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN12" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2279,26 +2177,21 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="3" t="n">
         <v>45080</v>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -2340,16 +2233,12 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" s="2" t="n">
+      <c r="AM13" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN13" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2410,7 +2299,6 @@
       <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2419,26 +2307,21 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>45074</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="3" t="n">
         <v>45082</v>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -2480,16 +2363,12 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" s="2" t="n">
+      <c r="AM14" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN14" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2550,7 +2429,6 @@
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2559,25 +2437,18 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>45072</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2614,16 +2485,12 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" s="2" t="n">
+      <c r="AM15" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN15" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2684,7 +2551,6 @@
       <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2693,27 +2559,21 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>45192</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="3" t="n">
         <v>45184</v>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2750,16 +2610,12 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" s="2" t="n">
+      <c r="AM16" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN16" t="n">
         <v>3.23</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2803,7 +2659,6 @@
       <c r="G17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>6</v>
       </c>
@@ -2831,26 +2686,21 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>45192</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="3" t="n">
         <v>45184</v>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
           <t>realigned scope of works same school</t>
@@ -2892,13 +2742,12 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" s="2" t="n">
+      <c r="AM17" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN17" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="n">
         <v>1</v>
       </c>
@@ -2979,26 +2828,21 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>45090</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="3" t="n">
         <v>45086</v>
       </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>realigned from cansibuan ps</t>
@@ -3040,13 +2884,12 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" s="2" t="n">
+      <c r="AM18" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN18" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="n">
         <v>1</v>
       </c>
@@ -3127,25 +2970,18 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -3182,16 +3018,12 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" s="2" t="n">
+      <c r="AM19" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN19" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3265,24 +3097,18 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
           <t>realigned scope of works same school</t>
@@ -3324,13 +3150,12 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" s="2" t="n">
+      <c r="AM20" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN20" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="n">
         <v>1</v>
       </c>
@@ -3411,25 +3236,18 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>45171</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -3466,16 +3284,12 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" s="2" t="n">
+      <c r="AM21" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN21" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3547,24 +3361,18 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>45157</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
           <t>60 DAYS EXT(WARNING FOR TERMINATION)</t>
@@ -3606,16 +3414,12 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" s="2" t="n">
+      <c r="AM22" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN22" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3659,7 +3463,6 @@
       <c r="G23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
         <v>3</v>
       </c>
@@ -3687,24 +3490,18 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>45157</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
           <t>60 DAYS EXT(WARNING FOR TERMINATION)</t>
@@ -3746,16 +3543,12 @@
       <c r="AL23" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" s="2" t="n">
+      <c r="AM23" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN23" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -3816,7 +3609,6 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3825,26 +3617,21 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>45082</v>
       </c>
-      <c r="Q24" s="2" t="n">
+      <c r="Q24" s="3" t="n">
         <v>45070</v>
       </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -3886,16 +3673,12 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" s="2" t="n">
+      <c r="AM24" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN24" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3939,7 +3722,6 @@
       <c r="G25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
         <v>1</v>
       </c>
@@ -3965,26 +3747,21 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>45082</v>
       </c>
-      <c r="Q25" s="2" t="n">
+      <c r="Q25" s="3" t="n">
         <v>45070</v>
       </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -4026,16 +3803,12 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" s="2" t="n">
+      <c r="AM25" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN25" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -4096,7 +3869,6 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4105,24 +3877,18 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" s="2" t="n">
+      <c r="Q26" s="3" t="n">
         <v>45013</v>
       </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -4164,16 +3930,12 @@
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" s="2" t="n">
+      <c r="AM26" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN26" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4234,7 +3996,6 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4243,26 +4004,21 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="Q27" s="3" t="n">
         <v>46840</v>
       </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -4304,16 +4060,12 @@
       <c r="AL27" t="n">
         <v>0</v>
       </c>
-      <c r="AM27" s="2" t="n">
+      <c r="AM27" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN27" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4374,7 +4126,6 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4383,24 +4134,18 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -4442,16 +4187,12 @@
       <c r="AL28" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" s="2" t="n">
+      <c r="AM28" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN28" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4523,24 +4264,18 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
           <t>FOR PUCNHLISTING</t>
@@ -4582,16 +4317,12 @@
       <c r="AL29" t="n">
         <v>0</v>
       </c>
-      <c r="AM29" s="2" t="n">
+      <c r="AM29" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN29" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4663,25 +4394,18 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>45087</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -4718,16 +4442,12 @@
       <c r="AL30" t="n">
         <v>0</v>
       </c>
-      <c r="AM30" s="2" t="n">
+      <c r="AM30" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN30" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4788,7 +4508,6 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4797,26 +4516,21 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>45087</v>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="Q31" s="3" t="n">
         <v>45063</v>
       </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -4858,16 +4572,12 @@
       <c r="AL31" t="n">
         <v>0</v>
       </c>
-      <c r="AM31" s="2" t="n">
+      <c r="AM31" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN31" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4939,25 +4649,18 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -4994,16 +4697,12 @@
       <c r="AL32" t="n">
         <v>0</v>
       </c>
-      <c r="AM32" s="2" t="n">
+      <c r="AM32" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN32" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5047,7 +4746,6 @@
       <c r="G33" t="n">
         <v>3</v>
       </c>
-      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
         <v>1</v>
       </c>
@@ -5075,25 +4773,18 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -5130,16 +4821,12 @@
       <c r="AL33" t="n">
         <v>0</v>
       </c>
-      <c r="AM33" s="2" t="n">
+      <c r="AM33" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN33" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -5211,27 +4898,21 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="Q34" s="2" t="n">
+      <c r="Q34" s="3" t="n">
         <v>45128</v>
       </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -5268,16 +4949,12 @@
       <c r="AL34" t="n">
         <v>0</v>
       </c>
-      <c r="AM34" s="2" t="n">
+      <c r="AM34" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN34" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5349,25 +5026,18 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="P35" s="3" t="n">
         <v>45243</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -5404,16 +5074,12 @@
       <c r="AL35" t="n">
         <v>0</v>
       </c>
-      <c r="AM35" s="2" t="n">
+      <c r="AM35" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN35" t="n">
         <v>12.23</v>
       </c>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5457,7 +5123,6 @@
       <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>9</v>
       </c>
@@ -5485,25 +5150,18 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="3" t="n">
         <v>45243</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -5540,13 +5198,12 @@
       <c r="AL36" t="n">
         <v>0</v>
       </c>
-      <c r="AM36" s="2" t="n">
+      <c r="AM36" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN36" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="n">
         <v>1</v>
       </c>
@@ -5627,29 +5284,24 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="Q37" s="2" t="n">
+      <c r="Q37" s="3" t="n">
         <v>45142</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -5686,16 +5338,12 @@
       <c r="AL37" t="n">
         <v>0</v>
       </c>
-      <c r="AM37" s="2" t="n">
+      <c r="AM37" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN37" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5767,29 +5415,24 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="Q38" s="2" t="n">
+      <c r="Q38" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -5826,16 +5469,12 @@
       <c r="AL38" t="n">
         <v>0</v>
       </c>
-      <c r="AM38" s="2" t="n">
+      <c r="AM38" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN38" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5907,29 +5546,24 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="Q39" s="2" t="n">
+      <c r="Q39" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -5966,16 +5600,12 @@
       <c r="AL39" t="n">
         <v>0</v>
       </c>
-      <c r="AM39" s="2" t="n">
+      <c r="AM39" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN39" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6047,28 +5677,24 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="Q40" s="2" t="n">
+      <c r="Q40" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" s="2" t="n">
+      <c r="T40" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="U40" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="V40" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -6110,16 +5736,12 @@
       <c r="AL40" t="n">
         <v>0</v>
       </c>
-      <c r="AM40" s="2" t="n">
+      <c r="AM40" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN40" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6180,7 +5802,6 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6189,24 +5810,18 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
         <v>0</v>
       </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" s="2" t="n">
+      <c r="T41" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U41" s="2" t="n">
+      <c r="U41" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="V41" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -6248,16 +5863,12 @@
       <c r="AL41" t="n">
         <v>0</v>
       </c>
-      <c r="AM41" s="2" t="n">
+      <c r="AM41" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN41" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6301,7 +5912,6 @@
       <c r="G42" t="n">
         <v>3</v>
       </c>
-      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
         <v>8</v>
       </c>
@@ -6329,26 +5939,21 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="P42" s="3" t="n">
         <v>45200</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
         <v>0</v>
       </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" s="2" t="n">
+      <c r="T42" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U42" s="2" t="n">
+      <c r="U42" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="V42" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
           <t>60 DAYS EXT</t>
@@ -6390,16 +5995,12 @@
       <c r="AL42" t="n">
         <v>0</v>
       </c>
-      <c r="AM42" s="2" t="n">
+      <c r="AM42" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN42" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6471,29 +6072,24 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="Q43" s="2" t="n">
+      <c r="Q43" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" s="2" t="n">
+      <c r="T43" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U43" s="2" t="n">
+      <c r="U43" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="V43" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -6530,16 +6126,12 @@
       <c r="AL43" t="n">
         <v>0</v>
       </c>
-      <c r="AM43" s="2" t="n">
+      <c r="AM43" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN43" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6583,7 +6175,6 @@
       <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
         <v>3</v>
       </c>
@@ -6611,29 +6202,24 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="3" t="n">
         <v>45140</v>
       </c>
-      <c r="Q44" s="2" t="n">
+      <c r="Q44" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" s="2" t="n">
+      <c r="T44" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U44" s="2" t="n">
+      <c r="U44" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V44" s="2" t="n">
+      <c r="V44" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -6670,16 +6256,12 @@
       <c r="AL44" t="n">
         <v>0</v>
       </c>
-      <c r="AM44" s="2" t="n">
+      <c r="AM44" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN44" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -6751,28 +6333,24 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" s="2" t="n">
+      <c r="P45" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="Q45" s="2" t="n">
+      <c r="Q45" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" s="2" t="n">
+      <c r="T45" s="3" t="n">
         <v>44785</v>
       </c>
-      <c r="U45" s="2" t="n">
+      <c r="U45" s="3" t="n">
         <v>44795</v>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="3" t="n">
         <v>44810</v>
       </c>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
           <t>ONGOING POST QUA</t>
@@ -6814,16 +6392,12 @@
       <c r="AL45" t="n">
         <v>0</v>
       </c>
-      <c r="AM45" s="2" t="n">
+      <c r="AM45" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN45" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO45" t="inlineStr"/>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6895,19 +6469,9 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
         <v>0</v>
       </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
@@ -6944,7 +6508,7 @@
       <c r="AL46" t="n">
         <v>0</v>
       </c>
-      <c r="AM46" s="2" t="n">
+      <c r="AM46" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="AN46" t="inlineStr">
@@ -6952,10 +6516,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr"/>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7027,10 +6587,9 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" s="2" t="n">
+      <c r="P47" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -7061,7 +6620,7 @@
           <t>AUGUST 29, 2023</t>
         </is>
       </c>
-      <c r="X47" s="2" t="n">
+      <c r="X47" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y47" t="inlineStr">
@@ -7069,7 +6628,6 @@
           <t>RT CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
@@ -7106,13 +6664,12 @@
       <c r="AL47" t="n">
         <v>0</v>
       </c>
-      <c r="AM47" s="2" t="n">
+      <c r="AM47" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN47" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="n">
         <v>1</v>
       </c>
@@ -7165,7 +6722,6 @@
       <c r="G48" t="n">
         <v>3</v>
       </c>
-      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
         <v>2</v>
       </c>
@@ -7191,10 +6747,9 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" s="2" t="n">
+      <c r="P48" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -7225,7 +6780,7 @@
           <t>AUGUST 29, 2023</t>
         </is>
       </c>
-      <c r="X48" s="2" t="n">
+      <c r="X48" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y48" t="inlineStr">
@@ -7233,7 +6788,6 @@
           <t>RT CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
@@ -7270,14 +6824,12 @@
       <c r="AL48" t="n">
         <v>0</v>
       </c>
-      <c r="AM48" s="2" t="n">
+      <c r="AM48" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN48" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="n">
         <v>1</v>
       </c>
@@ -7355,10 +6907,9 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" s="2" t="n">
+      <c r="P49" s="3" t="n">
         <v>45248</v>
       </c>
-      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -7389,7 +6940,7 @@
           <t>AUGUST 29, 2023</t>
         </is>
       </c>
-      <c r="X49" s="2" t="n">
+      <c r="X49" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y49" t="inlineStr">
@@ -7397,7 +6948,6 @@
           <t>AL SHER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
@@ -7434,13 +6984,12 @@
       <c r="AL49" t="n">
         <v>0</v>
       </c>
-      <c r="AM49" s="2" t="n">
+      <c r="AM49" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN49" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="n">
         <v>1</v>
       </c>
@@ -7521,10 +7070,9 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" s="2" t="n">
+      <c r="P50" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -7555,7 +7103,7 @@
           <t>AUGUST 29, 2023</t>
         </is>
       </c>
-      <c r="X50" s="2" t="n">
+      <c r="X50" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y50" t="inlineStr">
@@ -7563,7 +7111,6 @@
           <t>HERO CONSTRUCTION AND DEV. CORP.</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
@@ -7600,13 +7147,12 @@
       <c r="AL50" t="n">
         <v>0</v>
       </c>
-      <c r="AM50" s="2" t="n">
+      <c r="AM50" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN50" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="n">
         <v>0</v>
       </c>
@@ -7687,10 +7233,9 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" s="2" t="n">
+      <c r="P51" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -7721,7 +7266,7 @@
           <t>AUGUST 29, 2023</t>
         </is>
       </c>
-      <c r="X51" s="2" t="n">
+      <c r="X51" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y51" t="inlineStr">
@@ -7729,7 +7274,6 @@
           <t>MANINGO ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
@@ -7766,13 +7310,12 @@
       <c r="AL51" t="n">
         <v>0</v>
       </c>
-      <c r="AM51" s="2" t="n">
+      <c r="AM51" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN51" t="n">
         <v>8.24</v>
       </c>
-      <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="n">
         <v>1</v>
       </c>
@@ -7825,7 +7368,6 @@
       <c r="G52" t="n">
         <v>5</v>
       </c>
-      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
         <v>2</v>
       </c>
@@ -7851,10 +7393,9 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" s="2" t="n">
+      <c r="P52" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -7885,7 +7426,7 @@
           <t>AUGUST 29, 2023</t>
         </is>
       </c>
-      <c r="X52" s="2" t="n">
+      <c r="X52" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y52" t="inlineStr">
@@ -7893,7 +7434,6 @@
           <t>MANINGO ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
@@ -7930,14 +7470,12 @@
       <c r="AL52" t="n">
         <v>0</v>
       </c>
-      <c r="AM52" s="2" t="n">
+      <c r="AM52" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN52" t="n">
         <v>8.24</v>
       </c>
-      <c r="AO52" t="inlineStr"/>
-      <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="n">
         <v>2</v>
       </c>
@@ -8015,10 +7553,9 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" s="2" t="n">
+      <c r="P53" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -8049,7 +7586,7 @@
           <t>AUGUST 29, 2023</t>
         </is>
       </c>
-      <c r="X53" s="2" t="n">
+      <c r="X53" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y53" t="inlineStr">
@@ -8057,7 +7594,6 @@
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
@@ -8094,13 +7630,12 @@
       <c r="AL53" t="n">
         <v>0</v>
       </c>
-      <c r="AM53" s="2" t="n">
+      <c r="AM53" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN53" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="n">
         <v>1</v>
       </c>
@@ -8181,19 +7716,9 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
         <v>0</v>
       </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
@@ -8230,13 +7755,12 @@
       <c r="AL54" t="n">
         <v>0</v>
       </c>
-      <c r="AM54" s="2" t="n">
+      <c r="AM54" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN54" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="n">
         <v>1</v>
       </c>
@@ -8317,10 +7841,9 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" s="2" t="n">
+      <c r="P55" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -8351,7 +7874,7 @@
           <t>AUGUST 29, 2024</t>
         </is>
       </c>
-      <c r="X55" s="2" t="n">
+      <c r="X55" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y55" t="inlineStr">
@@ -8359,7 +7882,6 @@
           <t>SB &amp; T CONSTRUCTION OPC</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="n">
         <v>0</v>
       </c>
@@ -8396,20 +7918,18 @@
       <c r="AL55" t="n">
         <v>0</v>
       </c>
-      <c r="AM55" s="2" t="n">
+      <c r="AM55" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN55" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="n">
         <v>0</v>
       </c>
       <c r="AQ55" t="n">
         <v>0</v>
       </c>
-      <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8481,10 +8001,9 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" s="2" t="n">
+      <c r="P56" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -8515,7 +8034,7 @@
           <t>AUGUST 29, 2023</t>
         </is>
       </c>
-      <c r="X56" s="2" t="n">
+      <c r="X56" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y56" t="inlineStr">
@@ -8523,7 +8042,6 @@
           <t>RT CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
@@ -8560,13 +8078,12 @@
       <c r="AL56" t="n">
         <v>0</v>
       </c>
-      <c r="AM56" s="2" t="n">
+      <c r="AM56" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN56" t="n">
         <v>8.24</v>
       </c>
-      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="n">
         <v>1</v>
       </c>
@@ -8647,10 +8164,9 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>45233</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -8681,7 +8197,7 @@
           <t>AUGUST 29, 2023</t>
         </is>
       </c>
-      <c r="X57" s="2" t="n">
+      <c r="X57" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y57" t="inlineStr">
@@ -8689,7 +8205,6 @@
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
@@ -8726,13 +8241,12 @@
       <c r="AL57" t="n">
         <v>0</v>
       </c>
-      <c r="AM57" s="2" t="n">
+      <c r="AM57" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN57" t="n">
         <v>1.24</v>
       </c>
-      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="n">
         <v>1</v>
       </c>
@@ -8813,10 +8327,9 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" s="2" t="n">
+      <c r="P58" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
           <t>CY 2022 QRF DEPED</t>
@@ -8847,7 +8360,7 @@
           <t>AUGUST 29, 2023</t>
         </is>
       </c>
-      <c r="X58" s="2" t="n">
+      <c r="X58" s="3" t="n">
         <v>45180</v>
       </c>
       <c r="Y58" t="inlineStr">
@@ -8855,7 +8368,6 @@
           <t>MP SORELA CONSTRUCTION AND SUPPLY AND MARINE SERVICES</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
@@ -8892,13 +8404,12 @@
       <c r="AL58" t="n">
         <v>0</v>
       </c>
-      <c r="AM58" s="2" t="n">
+      <c r="AM58" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN58" t="n">
         <v>6.24</v>
       </c>
-      <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="n">
         <v>1</v>
       </c>
@@ -8979,10 +8490,9 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" s="2" t="n">
+      <c r="P59" s="3" t="n">
         <v>44939</v>
       </c>
-      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
           <t>DepEd CCD 2022 - 11</t>
@@ -8993,16 +8503,16 @@
           <t>DepEd CCD 2022 - 27</t>
         </is>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="T59" s="3" t="n">
         <v>44751</v>
       </c>
-      <c r="U59" s="2" t="n">
+      <c r="U59" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="V59" s="2" t="n">
+      <c r="V59" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="W59" s="2" t="n">
+      <c r="W59" s="3" t="n">
         <v>44785</v>
       </c>
       <c r="X59" t="inlineStr">
@@ -9015,7 +8525,6 @@
           <t>JAJ &amp; L CONST. &amp; ENG'G sERVICES</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
@@ -9052,16 +8561,11 @@
       <c r="AL59" t="n">
         <v>0</v>
       </c>
-      <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO59" t="inlineStr"/>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9133,10 +8637,9 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" s="2" t="n">
+      <c r="P60" s="3" t="n">
         <v>44879</v>
       </c>
-      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
           <t>DepEd CCD 2022 - 12</t>
@@ -9147,16 +8650,16 @@
           <t>DepEd CCD 2022 - 28</t>
         </is>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="T60" s="3" t="n">
         <v>44751</v>
       </c>
-      <c r="U60" s="2" t="n">
+      <c r="U60" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="V60" s="2" t="n">
+      <c r="V60" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="W60" s="2" t="n">
+      <c r="W60" s="3" t="n">
         <v>44785</v>
       </c>
       <c r="X60" t="inlineStr">
@@ -9169,7 +8672,6 @@
           <t>JAJ &amp; L CONST. &amp; ENG'G sERVICES</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="n">
         <v>0</v>
       </c>
@@ -9206,16 +8708,11 @@
       <c r="AL60" t="n">
         <v>0</v>
       </c>
-      <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO60" t="inlineStr"/>
-      <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9287,10 +8784,9 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" s="2" t="n">
+      <c r="P61" s="3" t="n">
         <v>44951</v>
       </c>
-      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
           <t>DepEd CCD 2022 - 13</t>
@@ -9301,16 +8797,16 @@
           <t>DepEd CCD 2022 - 29</t>
         </is>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="T61" s="3" t="n">
         <v>44751</v>
       </c>
-      <c r="U61" s="2" t="n">
+      <c r="U61" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="V61" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="W61" s="2" t="n">
+      <c r="W61" s="3" t="n">
         <v>44785</v>
       </c>
       <c r="X61" t="inlineStr">
@@ -9323,7 +8819,6 @@
           <t>ANIELTHON CONST. &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
@@ -9360,16 +8855,11 @@
       <c r="AL61" t="n">
         <v>0</v>
       </c>
-      <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO61" t="inlineStr"/>
-      <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9441,29 +8931,27 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" s="2" t="n">
+      <c r="P62" s="3" t="n">
         <v>44859</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
           <t>cityofnaga2022-001</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" s="2" t="n">
+      <c r="T62" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U62" s="2" t="n">
+      <c r="U62" s="3" t="n">
         <v>44670</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="V62" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="W62" s="2" t="n">
+      <c r="W62" s="3" t="n">
         <v>44706</v>
       </c>
-      <c r="X62" s="2" t="n">
+      <c r="X62" s="3" t="n">
         <v>44732</v>
       </c>
       <c r="Y62" t="inlineStr">
@@ -9512,16 +9000,11 @@
       <c r="AL62" t="n">
         <v>0</v>
       </c>
-      <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO62" t="inlineStr"/>
-      <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9593,29 +9076,27 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" s="2" t="n">
+      <c r="P63" s="3" t="n">
         <v>44859</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
           <t>cityofnaga2022-001</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" s="2" t="n">
+      <c r="T63" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U63" s="2" t="n">
+      <c r="U63" s="3" t="n">
         <v>44670</v>
       </c>
-      <c r="V63" s="2" t="n">
+      <c r="V63" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="W63" s="2" t="n">
+      <c r="W63" s="3" t="n">
         <v>44706</v>
       </c>
-      <c r="X63" s="2" t="n">
+      <c r="X63" s="3" t="n">
         <v>44732</v>
       </c>
       <c r="Y63" t="inlineStr">
@@ -9664,16 +9145,11 @@
       <c r="AL63" t="n">
         <v>0</v>
       </c>
-      <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO63" t="inlineStr"/>
-      <c r="AP63" t="inlineStr"/>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9745,29 +9221,27 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" s="2" t="n">
+      <c r="P64" s="3" t="n">
         <v>44859</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
           <t>cityofnaga2022-001</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" s="2" t="n">
+      <c r="T64" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U64" s="2" t="n">
+      <c r="U64" s="3" t="n">
         <v>44670</v>
       </c>
-      <c r="V64" s="2" t="n">
+      <c r="V64" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="W64" s="2" t="n">
+      <c r="W64" s="3" t="n">
         <v>44706</v>
       </c>
-      <c r="X64" s="2" t="n">
+      <c r="X64" s="3" t="n">
         <v>44732</v>
       </c>
       <c r="Y64" t="inlineStr">
@@ -9816,16 +9290,11 @@
       <c r="AL64" t="n">
         <v>0</v>
       </c>
-      <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO64" t="inlineStr"/>
-      <c r="AP64" t="inlineStr"/>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9897,29 +9366,27 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" s="2" t="n">
+      <c r="P65" s="3" t="n">
         <v>44859</v>
       </c>
-      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
           <t>cityofnaga2022-001</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" s="2" t="n">
+      <c r="T65" s="3" t="n">
         <v>44663</v>
       </c>
-      <c r="U65" s="2" t="n">
+      <c r="U65" s="3" t="n">
         <v>44670</v>
       </c>
-      <c r="V65" s="2" t="n">
+      <c r="V65" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="W65" s="2" t="n">
+      <c r="W65" s="3" t="n">
         <v>44706</v>
       </c>
-      <c r="X65" s="2" t="n">
+      <c r="X65" s="3" t="n">
         <v>44732</v>
       </c>
       <c r="Y65" t="inlineStr">
@@ -9968,16 +9435,11 @@
       <c r="AL65" t="n">
         <v>0</v>
       </c>
-      <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO65" t="inlineStr"/>
-      <c r="AP65" t="inlineStr"/>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10038,7 +9500,6 @@
       <c r="L66" t="n">
         <v>1</v>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>completed</t>
@@ -10047,18 +9508,9 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
         <v>0</v>
       </c>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
           <t>realigned same school change target and scope</t>
@@ -10100,13 +9552,12 @@
       <c r="AL66" t="n">
         <v>0</v>
       </c>
-      <c r="AM66" s="2" t="n">
+      <c r="AM66" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN66" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="n">
         <v>1</v>
       </c>
@@ -10176,7 +9627,6 @@
       <c r="L67" t="n">
         <v>1</v>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>completed</t>
@@ -10190,13 +9640,11 @@
           <t>January 26, 2023</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
           <t>2022-Infra-001</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
           <t>June 22, 2022</t>
@@ -10268,13 +9716,12 @@
       <c r="AL67" t="n">
         <v>0</v>
       </c>
-      <c r="AM67" s="2" t="n">
+      <c r="AM67" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN67" t="n">
         <v>12.24</v>
       </c>
-      <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="n">
         <v>1</v>
       </c>
@@ -10327,7 +9774,6 @@
       <c r="G68" t="n">
         <v>6</v>
       </c>
-      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
         <v>8</v>
       </c>
@@ -10342,7 +9788,6 @@
       <c r="L68" t="n">
         <v>1</v>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10356,13 +9801,11 @@
           <t>January 26, 2023</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
           <t>2022-Infra-001</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
           <t>June 22, 2022</t>
@@ -10434,14 +9877,12 @@
       <c r="AL68" t="n">
         <v>0</v>
       </c>
-      <c r="AM68" s="2" t="n">
+      <c r="AM68" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN68" t="n">
         <v>12.24</v>
       </c>
-      <c r="AO68" t="inlineStr"/>
-      <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="n">
         <v>11</v>
       </c>
@@ -10519,10 +9960,9 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" s="2" t="n">
+      <c r="P69" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
           <t>ITB 2022-04-023</t>
@@ -10533,19 +9973,19 @@
           <t>QRF202209011</t>
         </is>
       </c>
-      <c r="T69" s="2" t="n">
+      <c r="T69" s="3" t="n">
         <v>44677</v>
       </c>
-      <c r="U69" s="2" t="n">
+      <c r="U69" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="V69" s="2" t="n">
+      <c r="V69" s="3" t="n">
         <v>44697</v>
       </c>
-      <c r="W69" s="2" t="n">
+      <c r="W69" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="X69" s="2" t="n">
+      <c r="X69" s="3" t="n">
         <v>44830</v>
       </c>
       <c r="Y69" t="inlineStr">
@@ -10553,7 +9993,6 @@
           <t>TRIBATA CONSTRUCTION AND DEVELOPMENT</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
         <v>0</v>
       </c>
@@ -10590,16 +10029,12 @@
       <c r="AL69" t="n">
         <v>0</v>
       </c>
-      <c r="AM69" s="2" t="n">
+      <c r="AM69" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN69" t="n">
         <v>3.23</v>
       </c>
-      <c r="AO69" t="inlineStr"/>
-      <c r="AP69" t="inlineStr"/>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10671,10 +10106,9 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" s="2" t="n">
+      <c r="P70" s="3" t="n">
         <v>44991</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
           <t>ITB 2022-04-024</t>
@@ -10685,19 +10119,19 @@
           <t>QRF202209012</t>
         </is>
       </c>
-      <c r="T70" s="2" t="n">
+      <c r="T70" s="3" t="n">
         <v>44677</v>
       </c>
-      <c r="U70" s="2" t="n">
+      <c r="U70" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="V70" s="2" t="n">
+      <c r="V70" s="3" t="n">
         <v>44697</v>
       </c>
-      <c r="W70" s="2" t="n">
+      <c r="W70" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="X70" s="2" t="n">
+      <c r="X70" s="3" t="n">
         <v>44830</v>
       </c>
       <c r="Y70" t="inlineStr">
@@ -10705,7 +10139,6 @@
           <t>PAR BUILDERS ELECTRICAL &amp; CONSTRUCTION SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="n">
         <v>0</v>
       </c>
@@ -10742,16 +10175,12 @@
       <c r="AL70" t="n">
         <v>0</v>
       </c>
-      <c r="AM70" s="2" t="n">
+      <c r="AM70" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN70" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO70" t="inlineStr"/>
-      <c r="AP70" t="inlineStr"/>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10823,10 +10252,9 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" s="2" t="n">
+      <c r="P71" s="3" t="n">
         <v>44991</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
           <t>ITB 2022-04-026</t>
@@ -10837,19 +10265,19 @@
           <t>QRF202209014</t>
         </is>
       </c>
-      <c r="T71" s="2" t="n">
+      <c r="T71" s="3" t="n">
         <v>44677</v>
       </c>
-      <c r="U71" s="2" t="n">
+      <c r="U71" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="V71" s="2" t="n">
+      <c r="V71" s="3" t="n">
         <v>44697</v>
       </c>
-      <c r="W71" s="2" t="n">
+      <c r="W71" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="X71" s="2" t="n">
+      <c r="X71" s="3" t="n">
         <v>44830</v>
       </c>
       <c r="Y71" t="inlineStr">
@@ -10857,7 +10285,6 @@
           <t>PAR BUILDERS ELECTRICAL &amp; CONSTRUCTION SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
         <v>0</v>
       </c>
@@ -10894,16 +10321,12 @@
       <c r="AL71" t="n">
         <v>0</v>
       </c>
-      <c r="AM71" s="2" t="n">
+      <c r="AM71" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN71" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO71" t="inlineStr"/>
-      <c r="AP71" t="inlineStr"/>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10975,10 +10398,9 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" s="2" t="n">
+      <c r="P72" s="3" t="n">
         <v>44961</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
           <t>ITB 2022-04-025</t>
@@ -10989,19 +10411,19 @@
           <t>QRF202209013</t>
         </is>
       </c>
-      <c r="T72" s="2" t="n">
+      <c r="T72" s="3" t="n">
         <v>44677</v>
       </c>
-      <c r="U72" s="2" t="n">
+      <c r="U72" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="V72" s="2" t="n">
+      <c r="V72" s="3" t="n">
         <v>44697</v>
       </c>
-      <c r="W72" s="2" t="n">
+      <c r="W72" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="X72" s="2" t="n">
+      <c r="X72" s="3" t="n">
         <v>44830</v>
       </c>
       <c r="Y72" t="inlineStr">
@@ -11009,7 +10431,6 @@
           <t>PAR BUILDERS ELECTRICAL &amp; CONSTRUCTION SUPPLY CORP.</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="n">
         <v>0</v>
       </c>
@@ -11046,16 +10467,12 @@
       <c r="AL72" t="n">
         <v>0</v>
       </c>
-      <c r="AM72" s="2" t="n">
+      <c r="AM72" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN72" t="n">
         <v>2.23</v>
       </c>
-      <c r="AO72" t="inlineStr"/>
-      <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11127,10 +10544,9 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" s="2" t="n">
+      <c r="P73" s="3" t="n">
         <v>44894</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
           <t>ITB 2022-04-021</t>
@@ -11141,19 +10557,19 @@
           <t>QRF202209009</t>
         </is>
       </c>
-      <c r="T73" s="2" t="n">
+      <c r="T73" s="3" t="n">
         <v>44677</v>
       </c>
-      <c r="U73" s="2" t="n">
+      <c r="U73" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="V73" s="2" t="n">
+      <c r="V73" s="3" t="n">
         <v>44697</v>
       </c>
-      <c r="W73" s="2" t="n">
+      <c r="W73" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="X73" s="2" t="n">
+      <c r="X73" s="3" t="n">
         <v>44833</v>
       </c>
       <c r="Y73" t="inlineStr">
@@ -11161,7 +10577,6 @@
           <t>MDBD CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="n">
         <v>0</v>
       </c>
@@ -11198,7 +10613,7 @@
       <c r="AL73" t="n">
         <v>0</v>
       </c>
-      <c r="AM73" s="2" t="n">
+      <c r="AM73" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="AN73" t="inlineStr">
@@ -11206,10 +10621,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO73" t="inlineStr"/>
-      <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11281,10 +10692,9 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" s="2" t="n">
+      <c r="P74" s="3" t="n">
         <v>44964</v>
       </c>
-      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
           <t>ITB 2022-04-022</t>
@@ -11295,19 +10705,19 @@
           <t>QRF202209010</t>
         </is>
       </c>
-      <c r="T74" s="2" t="n">
+      <c r="T74" s="3" t="n">
         <v>44677</v>
       </c>
-      <c r="U74" s="2" t="n">
+      <c r="U74" s="3" t="n">
         <v>44685</v>
       </c>
-      <c r="V74" s="2" t="n">
+      <c r="V74" s="3" t="n">
         <v>44697</v>
       </c>
-      <c r="W74" s="2" t="n">
+      <c r="W74" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="X74" s="2" t="n">
+      <c r="X74" s="3" t="n">
         <v>44833</v>
       </c>
       <c r="Y74" t="inlineStr">
@@ -11315,7 +10725,6 @@
           <t>MDBD CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="n">
         <v>0</v>
       </c>
@@ -11352,16 +10761,12 @@
       <c r="AL74" t="n">
         <v>0</v>
       </c>
-      <c r="AM74" s="2" t="n">
+      <c r="AM74" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN74" t="n">
         <v>6.23</v>
       </c>
-      <c r="AO74" t="inlineStr"/>
-      <c r="AP74" t="inlineStr"/>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11422,7 +10827,6 @@
       <c r="L75" t="n">
         <v>1</v>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>completed</t>
@@ -11431,19 +10835,9 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
         <v>0</v>
       </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
         <v>0</v>
       </c>
@@ -11480,16 +10874,12 @@
       <c r="AL75" t="n">
         <v>0</v>
       </c>
-      <c r="AM75" s="2" t="n">
+      <c r="AM75" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="AN75" t="n">
         <v>1.23</v>
       </c>
-      <c r="AO75" t="inlineStr"/>
-      <c r="AP75" t="inlineStr"/>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11550,7 +10940,6 @@
       <c r="L76" t="n">
         <v>1</v>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>completed</t>
@@ -11559,19 +10948,9 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="n">
         <v>0</v>
       </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="n">
         <v>0</v>
       </c>
@@ -11608,16 +10987,11 @@
       <c r="AL76" t="n">
         <v>0</v>
       </c>
-      <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO76" t="inlineStr"/>
-      <c r="AP76" t="inlineStr"/>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11678,7 +11052,6 @@
       <c r="L77" t="n">
         <v>1</v>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>completed</t>
@@ -11687,19 +11060,9 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
       <c r="R77" t="n">
         <v>0</v>
       </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="n">
         <v>0</v>
       </c>
@@ -11736,7 +11099,7 @@
       <c r="AL77" t="n">
         <v>0</v>
       </c>
-      <c r="AM77" s="2" t="n">
+      <c r="AM77" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="AN77" t="inlineStr">
@@ -11744,10 +11107,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO77" t="inlineStr"/>
-      <c r="AP77" t="inlineStr"/>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11791,7 +11150,6 @@
       <c r="G78" t="n">
         <v>1</v>
       </c>
-      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
         <v>12</v>
       </c>
@@ -11806,7 +11164,6 @@
       <c r="L78" t="n">
         <v>1</v>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>completed</t>
@@ -11815,19 +11172,9 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="n">
         <v>0</v>
       </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="n">
         <v>0</v>
       </c>
@@ -11864,16 +11211,12 @@
       <c r="AL78" t="n">
         <v>0</v>
       </c>
-      <c r="AM78" s="2" t="n">
+      <c r="AM78" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="AN78" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO78" t="inlineStr"/>
-      <c r="AP78" t="inlineStr"/>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -11934,7 +11277,6 @@
       <c r="L79" t="n">
         <v>1</v>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>completed</t>
@@ -11943,19 +11285,9 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="n">
         <v>0</v>
       </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
         <v>0</v>
       </c>
@@ -11992,16 +11324,12 @@
       <c r="AL79" t="n">
         <v>0</v>
       </c>
-      <c r="AM79" s="2" t="n">
+      <c r="AM79" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="AN79" t="n">
         <v>3.23</v>
       </c>
-      <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12064,7 +11392,6 @@
       <c r="L80" t="n">
         <v>1</v>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>completed</t>
@@ -12073,21 +11400,12 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" s="2" t="n">
+      <c r="P80" s="3" t="n">
         <v>45154</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
       <c r="R80" t="n">
         <v>0</v>
       </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="n">
         <v>0</v>
       </c>
@@ -12124,14 +11442,9 @@
       <c r="AL80" t="n">
         <v>0</v>
       </c>
-      <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO80" t="inlineStr"/>
-      <c r="AP80" t="inlineStr"/>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12194,7 +11507,6 @@
       <c r="L81" t="n">
         <v>1</v>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>completed</t>
@@ -12203,21 +11515,12 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" s="2" t="n">
+      <c r="P81" s="3" t="n">
         <v>45204</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="n">
         <v>0</v>
       </c>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="n">
         <v>0</v>
       </c>
@@ -12254,14 +11557,9 @@
       <c r="AL81" t="n">
         <v>0</v>
       </c>
-      <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="n">
         <v>1.24</v>
       </c>
-      <c r="AO81" t="inlineStr"/>
-      <c r="AP81" t="inlineStr"/>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12324,7 +11622,6 @@
       <c r="L82" t="n">
         <v>1</v>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>completed</t>
@@ -12333,21 +11630,12 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" s="2" t="n">
+      <c r="P82" s="3" t="n">
         <v>45199</v>
       </c>
-      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="n">
         <v>0</v>
       </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="n">
         <v>0</v>
       </c>
@@ -12384,14 +11672,9 @@
       <c r="AL82" t="n">
         <v>0</v>
       </c>
-      <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO82" t="inlineStr"/>
-      <c r="AP82" t="inlineStr"/>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -12454,7 +11737,6 @@
       <c r="L83" t="n">
         <v>1</v>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>completed</t>
@@ -12463,21 +11745,12 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" s="2" t="n">
+      <c r="P83" s="3" t="n">
         <v>45198</v>
       </c>
-      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="n">
         <v>0</v>
       </c>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="n">
         <v>0</v>
       </c>
@@ -12514,14 +11787,9 @@
       <c r="AL83" t="n">
         <v>0</v>
       </c>
-      <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO83" t="inlineStr"/>
-      <c r="AP83" t="inlineStr"/>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12584,7 +11852,6 @@
       <c r="L84" t="n">
         <v>1</v>
       </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>completed</t>
@@ -12593,21 +11860,12 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" s="2" t="n">
+      <c r="P84" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="n">
         <v>0</v>
       </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="n">
         <v>0</v>
       </c>
@@ -12644,14 +11902,9 @@
       <c r="AL84" t="n">
         <v>0</v>
       </c>
-      <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO84" t="inlineStr"/>
-      <c r="AP84" t="inlineStr"/>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -12714,7 +11967,6 @@
       <c r="L85" t="n">
         <v>1</v>
       </c>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
           <t>completed</t>
@@ -12723,21 +11975,12 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" s="2" t="n">
+      <c r="P85" s="3" t="n">
         <v>45144</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="n">
         <v>0</v>
       </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="n">
         <v>0</v>
       </c>
@@ -12774,14 +12017,9 @@
       <c r="AL85" t="n">
         <v>0</v>
       </c>
-      <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO85" t="inlineStr"/>
-      <c r="AP85" t="inlineStr"/>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12844,7 +12082,6 @@
       <c r="L86" t="n">
         <v>1</v>
       </c>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
           <t>completed</t>
@@ -12853,21 +12090,12 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" s="2" t="n">
+      <c r="P86" s="3" t="n">
         <v>45229</v>
       </c>
-      <c r="Q86" t="inlineStr"/>
       <c r="R86" t="n">
         <v>0</v>
       </c>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="n">
         <v>0</v>
       </c>
@@ -12904,14 +12132,9 @@
       <c r="AL86" t="n">
         <v>0</v>
       </c>
-      <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO86" t="inlineStr"/>
-      <c r="AP86" t="inlineStr"/>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12974,7 +12197,6 @@
       <c r="L87" t="n">
         <v>1</v>
       </c>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
           <t>completed</t>
@@ -12983,21 +12205,12 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" s="2" t="n">
+      <c r="P87" s="3" t="n">
         <v>45228</v>
       </c>
-      <c r="Q87" t="inlineStr"/>
       <c r="R87" t="n">
         <v>0</v>
       </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="n">
         <v>0</v>
       </c>
@@ -13034,14 +12247,9 @@
       <c r="AL87" t="n">
         <v>0</v>
       </c>
-      <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="n">
         <v>1.24</v>
       </c>
-      <c r="AO87" t="inlineStr"/>
-      <c r="AP87" t="inlineStr"/>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13104,7 +12312,6 @@
       <c r="L88" t="n">
         <v>1</v>
       </c>
-      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
           <t>completed</t>
@@ -13113,21 +12320,12 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" s="2" t="n">
+      <c r="P88" s="3" t="n">
         <v>45240</v>
       </c>
-      <c r="Q88" t="inlineStr"/>
       <c r="R88" t="n">
         <v>0</v>
       </c>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="n">
         <v>0</v>
       </c>
@@ -13164,14 +12362,9 @@
       <c r="AL88" t="n">
         <v>0</v>
       </c>
-      <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO88" t="inlineStr"/>
-      <c r="AP88" t="inlineStr"/>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
       <c r="AS88" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13234,7 +12427,6 @@
       <c r="L89" t="n">
         <v>1</v>
       </c>
-      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
           <t>completed</t>
@@ -13243,21 +12435,12 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" s="2" t="n">
+      <c r="P89" s="3" t="n">
         <v>45240</v>
       </c>
-      <c r="Q89" t="inlineStr"/>
       <c r="R89" t="n">
         <v>0</v>
       </c>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
         <v>0</v>
       </c>
@@ -13294,14 +12477,9 @@
       <c r="AL89" t="n">
         <v>0</v>
       </c>
-      <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO89" t="inlineStr"/>
-      <c r="AP89" t="inlineStr"/>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13364,7 +12542,6 @@
       <c r="L90" t="n">
         <v>1</v>
       </c>
-      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
           <t>completed</t>
@@ -13373,21 +12550,12 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" s="2" t="n">
+      <c r="P90" s="3" t="n">
         <v>45229</v>
       </c>
-      <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
         <v>0</v>
       </c>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="n">
         <v>0</v>
       </c>
@@ -13424,14 +12592,9 @@
       <c r="AL90" t="n">
         <v>0</v>
       </c>
-      <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO90" t="inlineStr"/>
-      <c r="AP90" t="inlineStr"/>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13494,7 +12657,6 @@
       <c r="L91" t="n">
         <v>1</v>
       </c>
-      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
           <t>completed</t>
@@ -13503,21 +12665,12 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" s="2" t="n">
+      <c r="P91" s="3" t="n">
         <v>45228</v>
       </c>
-      <c r="Q91" t="inlineStr"/>
       <c r="R91" t="n">
         <v>0</v>
       </c>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="n">
         <v>0</v>
       </c>
@@ -13554,14 +12707,9 @@
       <c r="AL91" t="n">
         <v>0</v>
       </c>
-      <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO91" t="inlineStr"/>
-      <c r="AP91" t="inlineStr"/>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
       <c r="AS91" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13624,7 +12772,6 @@
       <c r="L92" t="n">
         <v>1</v>
       </c>
-      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
           <t>completed</t>
@@ -13633,21 +12780,12 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" s="2" t="n">
+      <c r="P92" s="3" t="n">
         <v>45204</v>
       </c>
-      <c r="Q92" t="inlineStr"/>
       <c r="R92" t="n">
         <v>0</v>
       </c>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="n">
         <v>0</v>
       </c>
@@ -13684,14 +12822,9 @@
       <c r="AL92" t="n">
         <v>0</v>
       </c>
-      <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO92" t="inlineStr"/>
-      <c r="AP92" t="inlineStr"/>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13765,10 +12898,9 @@
       <c r="O93" t="n">
         <v>0</v>
       </c>
-      <c r="P93" s="2" t="n">
+      <c r="P93" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
           <t>CY 2022 QRF BATCH 2</t>
@@ -13779,17 +12911,16 @@
           <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-03</t>
         </is>
       </c>
-      <c r="T93" s="2" t="n">
+      <c r="T93" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="U93" s="2" t="n">
+      <c r="U93" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="V93" s="2" t="n">
+      <c r="V93" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" s="2" t="n">
+      <c r="X93" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="Y93" t="inlineStr">
@@ -13797,7 +12928,6 @@
           <t>GELA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="n">
         <v>1</v>
       </c>
@@ -13834,12 +12964,6 @@
       <c r="AL93" t="n">
         <v>0</v>
       </c>
-      <c r="AM93" t="inlineStr"/>
-      <c r="AN93" t="inlineStr"/>
-      <c r="AO93" t="inlineStr"/>
-      <c r="AP93" t="inlineStr"/>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13913,10 +13037,9 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" s="2" t="n">
+      <c r="P94" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
         <is>
           <t>CY 2022 QRF BATCH 2</t>
@@ -13927,17 +13050,16 @@
           <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-02</t>
         </is>
       </c>
-      <c r="T94" s="2" t="n">
+      <c r="T94" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="U94" s="2" t="n">
+      <c r="U94" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="V94" s="2" t="n">
+      <c r="V94" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" s="2" t="n">
+      <c r="X94" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="Y94" t="inlineStr">
@@ -13945,7 +13067,6 @@
           <t>ANIELTHON CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="n">
         <v>0</v>
       </c>
@@ -13982,14 +13103,9 @@
       <c r="AL94" t="n">
         <v>0</v>
       </c>
-      <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO94" t="inlineStr"/>
-      <c r="AP94" t="inlineStr"/>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14063,10 +13179,9 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" s="2" t="n">
+      <c r="P95" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
         <is>
           <t>CY 2022 QRF BATCH 2</t>
@@ -14077,17 +13192,16 @@
           <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-01</t>
         </is>
       </c>
-      <c r="T95" s="2" t="n">
+      <c r="T95" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="U95" s="2" t="n">
+      <c r="U95" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="V95" s="2" t="n">
+      <c r="V95" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" s="2" t="n">
+      <c r="X95" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="Y95" t="inlineStr">
@@ -14095,7 +13209,6 @@
           <t>GELA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="n">
         <v>0</v>
       </c>
@@ -14132,14 +13245,9 @@
       <c r="AL95" t="n">
         <v>0</v>
       </c>
-      <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO95" t="inlineStr"/>
-      <c r="AP95" t="inlineStr"/>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14213,10 +13321,9 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" s="2" t="n">
+      <c r="P96" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr">
         <is>
           <t>CY 2022 QRF BATCH 2</t>
@@ -14227,17 +13334,16 @@
           <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-04</t>
         </is>
       </c>
-      <c r="T96" s="2" t="n">
+      <c r="T96" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="U96" s="2" t="n">
+      <c r="U96" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="V96" s="2" t="n">
+      <c r="V96" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" s="2" t="n">
+      <c r="X96" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="Y96" t="inlineStr">
@@ -14245,7 +13351,6 @@
           <t>SB &amp; T CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="n">
         <v>0</v>
       </c>
@@ -14282,14 +13387,9 @@
       <c r="AL96" t="n">
         <v>0</v>
       </c>
-      <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO96" t="inlineStr"/>
-      <c r="AP96" t="inlineStr"/>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14363,10 +13463,9 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" s="2" t="n">
+      <c r="P97" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr">
         <is>
           <t>CY 2022 QRF BATCH 2</t>
@@ -14377,17 +13476,16 @@
           <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-05</t>
         </is>
       </c>
-      <c r="T97" s="2" t="n">
+      <c r="T97" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="U97" s="2" t="n">
+      <c r="U97" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="V97" s="2" t="n">
+      <c r="V97" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" s="2" t="n">
+      <c r="X97" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="Y97" t="inlineStr">
@@ -14395,7 +13493,6 @@
           <t>HERO CONTRUCTION AND DEVELOPMENT CORP.</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="n">
         <v>0</v>
       </c>
@@ -14432,14 +13529,9 @@
       <c r="AL97" t="n">
         <v>0</v>
       </c>
-      <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO97" t="inlineStr"/>
-      <c r="AP97" t="inlineStr"/>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14513,10 +13605,9 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" s="2" t="n">
+      <c r="P98" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
           <t>CY 2022 QRF BATCH 2</t>
@@ -14527,17 +13618,16 @@
           <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-04</t>
         </is>
       </c>
-      <c r="T98" s="2" t="n">
+      <c r="T98" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="U98" s="2" t="n">
+      <c r="U98" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="V98" s="2" t="n">
+      <c r="V98" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" s="2" t="n">
+      <c r="X98" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="Y98" t="inlineStr">
@@ -14586,14 +13676,9 @@
       <c r="AL98" t="n">
         <v>0</v>
       </c>
-      <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="n">
         <v>11.23</v>
       </c>
-      <c r="AO98" t="inlineStr"/>
-      <c r="AP98" t="inlineStr"/>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14667,10 +13752,9 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" s="2" t="n">
+      <c r="P99" s="3" t="n">
         <v>45175</v>
       </c>
-      <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr">
         <is>
           <t>CY 2022 QRF BATCH 2</t>
@@ -14681,17 +13765,16 @@
           <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-01</t>
         </is>
       </c>
-      <c r="T99" s="2" t="n">
+      <c r="T99" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="U99" s="2" t="n">
+      <c r="U99" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="V99" s="2" t="n">
+      <c r="V99" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" s="2" t="n">
+      <c r="X99" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="Y99" t="inlineStr">
@@ -14699,7 +13782,6 @@
           <t>GELA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="n">
         <v>0</v>
       </c>
@@ -14736,14 +13818,9 @@
       <c r="AL99" t="n">
         <v>0</v>
       </c>
-      <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="n">
         <v>1.24</v>
       </c>
-      <c r="AO99" t="inlineStr"/>
-      <c r="AP99" t="inlineStr"/>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
       <c r="AS99" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14819,10 +13896,9 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" s="2" t="n">
+      <c r="P100" s="3" t="n">
         <v>45160</v>
       </c>
-      <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
         <is>
           <t>CY 2022 QRF BATCH 2</t>
@@ -14833,19 +13909,19 @@
           <t>ITB 2023-002</t>
         </is>
       </c>
-      <c r="T100" s="2" t="n">
+      <c r="T100" s="3" t="n">
         <v>44988</v>
       </c>
-      <c r="U100" s="2" t="n">
+      <c r="U100" s="3" t="n">
         <v>44995</v>
       </c>
-      <c r="V100" s="2" t="n">
+      <c r="V100" s="3" t="n">
         <v>45007</v>
       </c>
-      <c r="W100" s="2" t="n">
+      <c r="W100" s="3" t="n">
         <v>45030</v>
       </c>
-      <c r="X100" s="2" t="n">
+      <c r="X100" s="3" t="n">
         <v>45035</v>
       </c>
       <c r="Y100" t="inlineStr">
@@ -14853,7 +13929,6 @@
           <t>TRIPLE JO CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="n">
         <v>0</v>
       </c>
@@ -14890,14 +13965,9 @@
       <c r="AL100" t="n">
         <v>0</v>
       </c>
-      <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="n">
         <v>2.24</v>
       </c>
-      <c r="AO100" t="inlineStr"/>
-      <c r="AP100" t="inlineStr"/>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
       <c r="AS100" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14973,10 +14043,9 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" s="2" t="n">
+      <c r="P101" s="3" t="n">
         <v>45201</v>
       </c>
-      <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr">
         <is>
           <t>ITB-2023-02-018</t>
@@ -14987,19 +14056,19 @@
           <t>QRF202304018</t>
         </is>
       </c>
-      <c r="T101" s="2" t="n">
+      <c r="T101" s="3" t="n">
         <v>44974</v>
       </c>
-      <c r="U101" s="2" t="n">
+      <c r="U101" s="3" t="n">
         <v>44984</v>
       </c>
-      <c r="V101" s="2" t="n">
+      <c r="V101" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W101" s="2" t="n">
+      <c r="W101" s="3" t="n">
         <v>45021</v>
       </c>
-      <c r="X101" s="2" t="n">
+      <c r="X101" s="3" t="n">
         <v>45040</v>
       </c>
       <c r="Y101" t="inlineStr">
@@ -15007,7 +14076,6 @@
           <t>TRIBATA Construction</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="n">
         <v>0</v>
       </c>
@@ -15044,14 +14112,9 @@
       <c r="AL101" t="n">
         <v>0</v>
       </c>
-      <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="n">
         <v>1.24</v>
       </c>
-      <c r="AO101" t="inlineStr"/>
-      <c r="AP101" t="inlineStr"/>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
       <c r="AS101" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -15125,10 +14188,9 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" s="2" t="n">
+      <c r="P102" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr">
         <is>
           <t>ITB-2023-02-025</t>
@@ -15139,19 +14201,19 @@
           <t>QRF202304021</t>
         </is>
       </c>
-      <c r="T102" s="2" t="n">
+      <c r="T102" s="3" t="n">
         <v>44980</v>
       </c>
-      <c r="U102" s="2" t="n">
+      <c r="U102" s="3" t="n">
         <v>44988</v>
       </c>
-      <c r="V102" s="2" t="n">
+      <c r="V102" s="3" t="n">
         <v>45000</v>
       </c>
-      <c r="W102" s="2" t="n">
+      <c r="W102" s="3" t="n">
         <v>45021</v>
       </c>
-      <c r="X102" s="2" t="n">
+      <c r="X102" s="3" t="n">
         <v>45036</v>
       </c>
       <c r="Y102" t="inlineStr">
@@ -15159,7 +14221,6 @@
           <t>PAR Builders, Elecrical and Construction Supply Corp.</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="n">
         <v>0</v>
       </c>
@@ -15196,14 +14257,9 @@
       <c r="AL102" t="n">
         <v>0</v>
       </c>
-      <c r="AM102" t="inlineStr"/>
       <c r="AN102" t="n">
         <v>1.24</v>
       </c>
-      <c r="AO102" t="inlineStr"/>
-      <c r="AP102" t="inlineStr"/>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
       <c r="AS102" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -15277,10 +14333,9 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" s="2" t="n">
+      <c r="P103" s="3" t="n">
         <v>45231</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
         <is>
           <t>ITB-2023-02-019</t>
@@ -15291,19 +14346,19 @@
           <t>QRF202304019</t>
         </is>
       </c>
-      <c r="T103" s="2" t="n">
+      <c r="T103" s="3" t="n">
         <v>44974</v>
       </c>
-      <c r="U103" s="2" t="n">
+      <c r="U103" s="3" t="n">
         <v>44984</v>
       </c>
-      <c r="V103" s="2" t="n">
+      <c r="V103" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W103" s="2" t="n">
+      <c r="W103" s="3" t="n">
         <v>45021</v>
       </c>
-      <c r="X103" s="2" t="n">
+      <c r="X103" s="3" t="n">
         <v>45040</v>
       </c>
       <c r="Y103" t="inlineStr">
@@ -15311,7 +14366,6 @@
           <t>Micro Asia Builders Corporation</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="n">
         <v>0</v>
       </c>
@@ -15348,14 +14402,9 @@
       <c r="AL103" t="n">
         <v>0</v>
       </c>
-      <c r="AM103" t="inlineStr"/>
       <c r="AN103" t="n">
         <v>10.23</v>
       </c>
-      <c r="AO103" t="inlineStr"/>
-      <c r="AP103" t="inlineStr"/>
-      <c r="AQ103" t="inlineStr"/>
-      <c r="AR103" t="inlineStr"/>
       <c r="AS103" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -15429,7 +14478,7 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" s="2" t="n">
+      <c r="P104" s="3" t="n">
         <v>45261</v>
       </c>
       <c r="Q104" t="inlineStr">
@@ -15447,19 +14496,19 @@
           <t>QRF202304022</t>
         </is>
       </c>
-      <c r="T104" s="2" t="n">
+      <c r="T104" s="3" t="n">
         <v>44980</v>
       </c>
-      <c r="U104" s="2" t="n">
+      <c r="U104" s="3" t="n">
         <v>44988</v>
       </c>
-      <c r="V104" s="2" t="n">
+      <c r="V104" s="3" t="n">
         <v>45000</v>
       </c>
-      <c r="W104" s="2" t="n">
+      <c r="W104" s="3" t="n">
         <v>45021</v>
       </c>
-      <c r="X104" s="2" t="n">
+      <c r="X104" s="3" t="n">
         <v>45036</v>
       </c>
       <c r="Y104" t="inlineStr">
@@ -15467,7 +14516,6 @@
           <t>PAR Builders, Elecrical and Construction Supply Corp.</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="n">
         <v>0</v>
       </c>
@@ -15504,14 +14552,9 @@
       <c r="AL104" t="n">
         <v>0</v>
       </c>
-      <c r="AM104" t="inlineStr"/>
       <c r="AN104" t="n">
         <v>1.24</v>
       </c>
-      <c r="AO104" t="inlineStr"/>
-      <c r="AP104" t="inlineStr"/>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
       <c r="AS104" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -15585,7 +14628,7 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" s="2" t="n">
+      <c r="P105" s="3" t="n">
         <v>45301</v>
       </c>
       <c r="Q105" t="inlineStr">
@@ -15603,19 +14646,19 @@
           <t>QRF202304020</t>
         </is>
       </c>
-      <c r="T105" s="2" t="n">
+      <c r="T105" s="3" t="n">
         <v>44974</v>
       </c>
-      <c r="U105" s="2" t="n">
+      <c r="U105" s="3" t="n">
         <v>44984</v>
       </c>
-      <c r="V105" s="2" t="n">
+      <c r="V105" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="W105" s="2" t="n">
+      <c r="W105" s="3" t="n">
         <v>45021</v>
       </c>
-      <c r="X105" s="2" t="n">
+      <c r="X105" s="3" t="n">
         <v>45040</v>
       </c>
       <c r="Y105" t="inlineStr">
@@ -15623,7 +14666,6 @@
           <t>TRINITYCAD Corporation</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="n">
         <v>0</v>
       </c>
@@ -15660,14 +14702,9 @@
       <c r="AL105" t="n">
         <v>0</v>
       </c>
-      <c r="AM105" t="inlineStr"/>
       <c r="AN105" t="n">
         <v>1.24</v>
       </c>
-      <c r="AO105" t="inlineStr"/>
-      <c r="AP105" t="inlineStr"/>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -15741,7 +14778,7 @@
       <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P106" s="2" t="n">
+      <c r="P106" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="Q106" t="inlineStr">
@@ -15754,18 +14791,16 @@
           <t>2023-003-Infra</t>
         </is>
       </c>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" s="2" t="n">
+      <c r="T106" s="3" t="n">
         <v>44995</v>
       </c>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" s="2" t="n">
+      <c r="V106" s="3" t="n">
         <v>45016</v>
       </c>
-      <c r="W106" s="2" t="n">
+      <c r="W106" s="3" t="n">
         <v>45021</v>
       </c>
-      <c r="X106" s="2" t="n">
+      <c r="X106" s="3" t="n">
         <v>45036</v>
       </c>
       <c r="Y106" t="inlineStr">
@@ -15773,7 +14808,6 @@
           <t>DOLCI Construction and General Merchandise</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="n">
         <v>0</v>
       </c>
@@ -15810,14 +14844,9 @@
       <c r="AL106" t="n">
         <v>0</v>
       </c>
-      <c r="AM106" t="inlineStr"/>
       <c r="AN106" t="n">
         <v>2.24</v>
       </c>
-      <c r="AO106" t="inlineStr"/>
-      <c r="AP106" t="inlineStr"/>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
       <c r="AS106" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -15891,10 +14920,10 @@
       <c r="O107" t="n">
         <v>1</v>
       </c>
-      <c r="P107" s="2" t="n">
+      <c r="P107" s="3" t="n">
         <v>45111</v>
       </c>
-      <c r="Q107" s="2" t="n">
+      <c r="Q107" s="3" t="n">
         <v>45071</v>
       </c>
       <c r="R107" t="inlineStr">
@@ -15902,18 +14931,16 @@
           <t>2023-001-Infra</t>
         </is>
       </c>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" s="2" t="n">
+      <c r="T107" s="3" t="n">
         <v>44981</v>
       </c>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" s="2" t="n">
+      <c r="V107" s="3" t="n">
         <v>45002</v>
       </c>
-      <c r="W107" s="2" t="n">
+      <c r="W107" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="X107" s="2" t="n">
+      <c r="X107" s="3" t="n">
         <v>45019</v>
       </c>
       <c r="Y107" t="inlineStr">
@@ -15921,7 +14948,6 @@
           <t>C.Jansen Construction and General Merchandise</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="n">
         <v>0</v>
       </c>
@@ -15958,14 +14984,9 @@
       <c r="AL107" t="n">
         <v>0</v>
       </c>
-      <c r="AM107" t="inlineStr"/>
       <c r="AN107" t="n">
         <v>7.23</v>
       </c>
-      <c r="AO107" t="inlineStr"/>
-      <c r="AP107" t="inlineStr"/>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -16028,7 +15049,6 @@
       <c r="L108" t="n">
         <v>1</v>
       </c>
-      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
           <t>completed</t>
@@ -16037,10 +15057,10 @@
       <c r="O108" t="n">
         <v>1</v>
       </c>
-      <c r="P108" s="2" t="n">
+      <c r="P108" s="3" t="n">
         <v>45111</v>
       </c>
-      <c r="Q108" s="2" t="n">
+      <c r="Q108" s="3" t="n">
         <v>45071</v>
       </c>
       <c r="R108" t="inlineStr">
@@ -16048,18 +15068,16 @@
           <t>2023-002-Infra</t>
         </is>
       </c>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" s="2" t="n">
+      <c r="T108" s="3" t="n">
         <v>44981</v>
       </c>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" s="2" t="n">
+      <c r="V108" s="3" t="n">
         <v>45002</v>
       </c>
-      <c r="W108" s="2" t="n">
+      <c r="W108" s="3" t="n">
         <v>45006</v>
       </c>
-      <c r="X108" s="2" t="n">
+      <c r="X108" s="3" t="n">
         <v>45019</v>
       </c>
       <c r="Y108" t="inlineStr">
@@ -16067,7 +15085,6 @@
           <t>C.Jansen Construction and General Merchandise</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="n">
         <v>0</v>
       </c>
@@ -16104,14 +15121,9 @@
       <c r="AL108" t="n">
         <v>0</v>
       </c>
-      <c r="AM108" t="inlineStr"/>
       <c r="AN108" t="n">
         <v>5.23</v>
       </c>
-      <c r="AO108" t="inlineStr"/>
-      <c r="AP108" t="inlineStr"/>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -16174,7 +15186,6 @@
       <c r="L109" t="n">
         <v>1</v>
       </c>
-      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
           <t>completed</t>
@@ -16183,19 +15194,9 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
       <c r="R109" t="n">
         <v>0</v>
       </c>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="n">
         <v>0</v>
       </c>
@@ -16232,14 +15233,9 @@
       <c r="AL109" t="n">
         <v>0</v>
       </c>
-      <c r="AM109" t="inlineStr"/>
       <c r="AN109" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO109" t="inlineStr"/>
-      <c r="AP109" t="inlineStr"/>
-      <c r="AQ109" t="inlineStr"/>
-      <c r="AR109" t="inlineStr"/>
       <c r="AS109" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -16320,7 +15316,6 @@
           <t>February 15,2026</t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr">
         <is>
           <t>ITB2024-07-143</t>
@@ -16361,7 +15356,6 @@
           <t>TrinityCAD Corporation</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="n">
         <v>0</v>
       </c>
@@ -16398,16 +15392,11 @@
       <c r="AL110" t="n">
         <v>0.04999999999999999</v>
       </c>
-      <c r="AM110" t="inlineStr"/>
-      <c r="AN110" t="inlineStr"/>
       <c r="AO110" t="inlineStr">
         <is>
           <t>Fire</t>
         </is>
       </c>
-      <c r="AP110" t="inlineStr"/>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -16488,7 +15477,6 @@
           <t>December 21, 2024</t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr">
         <is>
           <t>ITB2024-07-144</t>
@@ -16529,7 +15517,6 @@
           <t>MCS-9 Construction</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="n">
         <v>0</v>
       </c>
@@ -16566,7 +15553,6 @@
       <c r="AL111" t="n">
         <v>0</v>
       </c>
-      <c r="AM111" t="inlineStr"/>
       <c r="AN111" t="n">
         <v>1.25</v>
       </c>
@@ -16575,9 +15561,6 @@
           <t>TD KABAYAN</t>
         </is>
       </c>
-      <c r="AP111" t="inlineStr"/>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -16586,6 +15569,79 @@
       <c r="AT111" t="inlineStr">
         <is>
           <t>Completed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU111" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region VII/Region VII_QRF.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_QRF.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -462,7 +462,7 @@
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="36" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="19" customWidth="1" min="13" max="13"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -6627,20 +6627,20 @@
       </c>
       <c r="C69" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Talisay City</t>
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>120171</v>
+        <v>322203</v>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>Bindoy Central Elementary School</t>
+          <t>Manipis National High School</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
         <is>
-          <t>BINDOY (PAYABON)</t>
+          <t>CITY OF TALISAY</t>
         </is>
       </c>
       <c r="G69" s="5" t="n">
@@ -6650,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69" s="5" t="inlineStr">
         <is>
@@ -6658,14 +6658,12 @@
         </is>
       </c>
       <c r="K69" s="5" t="n">
-        <v>6064404.082326669</v>
+        <v>1926214.113590364</v>
       </c>
       <c r="L69" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M69" s="5" t="n">
-        <v>4807442.21</v>
-      </c>
+      <c r="M69" s="5" t="inlineStr"/>
       <c r="N69" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6674,40 +6672,18 @@
       <c r="O69" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P69" s="6" t="n">
-        <v>44961</v>
-      </c>
+      <c r="P69" s="5" t="inlineStr"/>
       <c r="Q69" s="5" t="inlineStr"/>
-      <c r="R69" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2022-04-023</t>
-        </is>
-      </c>
-      <c r="S69" s="5" t="inlineStr">
-        <is>
-          <t>QRF202209011</t>
-        </is>
-      </c>
-      <c r="T69" s="6" t="n">
-        <v>44677</v>
-      </c>
-      <c r="U69" s="6" t="n">
-        <v>44685</v>
-      </c>
-      <c r="V69" s="6" t="n">
-        <v>44697</v>
-      </c>
-      <c r="W69" s="6" t="n">
-        <v>44726</v>
-      </c>
-      <c r="X69" s="6" t="n">
-        <v>44830</v>
-      </c>
-      <c r="Y69" s="5" t="inlineStr">
-        <is>
-          <t>TRIBATA CONSTRUCTION AND DEVELOPMENT</t>
-        </is>
-      </c>
+      <c r="R69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="5" t="inlineStr"/>
+      <c r="T69" s="5" t="inlineStr"/>
+      <c r="U69" s="5" t="inlineStr"/>
+      <c r="V69" s="5" t="inlineStr"/>
+      <c r="W69" s="5" t="inlineStr"/>
+      <c r="X69" s="5" t="inlineStr"/>
+      <c r="Y69" s="5" t="inlineStr"/>
       <c r="Z69" s="5" t="inlineStr"/>
       <c r="AA69" s="7" t="n"/>
     </row>
@@ -6724,20 +6700,20 @@
       </c>
       <c r="C70" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Talisay City</t>
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>120320</v>
+        <v>119803</v>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>La Libertad CES</t>
+          <t>Tabunoc Central  School</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>CITY OF TALISAY</t>
         </is>
       </c>
       <c r="G70" s="5" t="n">
@@ -6747,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J70" s="5" t="inlineStr">
         <is>
@@ -6755,14 +6731,12 @@
         </is>
       </c>
       <c r="K70" s="5" t="n">
-        <v>11136631.28143216</v>
+        <v>1869425.397330974</v>
       </c>
       <c r="L70" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M70" s="5" t="n">
-        <v>11129033.97</v>
-      </c>
+      <c r="M70" s="5" t="inlineStr"/>
       <c r="N70" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6771,40 +6745,18 @@
       <c r="O70" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P70" s="6" t="n">
-        <v>44991</v>
-      </c>
+      <c r="P70" s="5" t="inlineStr"/>
       <c r="Q70" s="5" t="inlineStr"/>
-      <c r="R70" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2022-04-024</t>
-        </is>
-      </c>
-      <c r="S70" s="5" t="inlineStr">
-        <is>
-          <t>QRF202209012</t>
-        </is>
-      </c>
-      <c r="T70" s="6" t="n">
-        <v>44677</v>
-      </c>
-      <c r="U70" s="6" t="n">
-        <v>44685</v>
-      </c>
-      <c r="V70" s="6" t="n">
-        <v>44697</v>
-      </c>
-      <c r="W70" s="6" t="n">
-        <v>44729</v>
-      </c>
-      <c r="X70" s="6" t="n">
-        <v>44830</v>
-      </c>
-      <c r="Y70" s="5" t="inlineStr">
-        <is>
-          <t>PAR BUILDERS ELECTRICAL &amp; CONSTRUCTION SUPPLY CORP.</t>
-        </is>
-      </c>
+      <c r="R70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" s="5" t="inlineStr"/>
+      <c r="T70" s="5" t="inlineStr"/>
+      <c r="U70" s="5" t="inlineStr"/>
+      <c r="V70" s="5" t="inlineStr"/>
+      <c r="W70" s="5" t="inlineStr"/>
+      <c r="X70" s="5" t="inlineStr"/>
+      <c r="Y70" s="5" t="inlineStr"/>
       <c r="Z70" s="5" t="inlineStr"/>
       <c r="AA70" s="7" t="n"/>
     </row>
@@ -6821,20 +6773,20 @@
       </c>
       <c r="C71" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Talisay City</t>
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>120604</v>
+        <v>119791</v>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>Tayasan CES</t>
+          <t>Talisay City CES</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>TAYASAN</t>
+          <t>CITY OF TALISAY</t>
         </is>
       </c>
       <c r="G71" s="5" t="n">
@@ -6844,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="5" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J71" s="5" t="inlineStr">
         <is>
@@ -6852,14 +6804,12 @@
         </is>
       </c>
       <c r="K71" s="5" t="n">
-        <v>9524722.231070595</v>
+        <v>7433950.412653901</v>
       </c>
       <c r="L71" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M71" s="5" t="n">
-        <v>9519067.279999999</v>
-      </c>
+      <c r="M71" s="5" t="inlineStr"/>
       <c r="N71" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6868,40 +6818,18 @@
       <c r="O71" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P71" s="6" t="n">
-        <v>44991</v>
-      </c>
+      <c r="P71" s="5" t="inlineStr"/>
       <c r="Q71" s="5" t="inlineStr"/>
-      <c r="R71" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2022-04-026</t>
-        </is>
-      </c>
-      <c r="S71" s="5" t="inlineStr">
-        <is>
-          <t>QRF202209014</t>
-        </is>
-      </c>
-      <c r="T71" s="6" t="n">
-        <v>44677</v>
-      </c>
-      <c r="U71" s="6" t="n">
-        <v>44685</v>
-      </c>
-      <c r="V71" s="6" t="n">
-        <v>44697</v>
-      </c>
-      <c r="W71" s="6" t="n">
-        <v>44729</v>
-      </c>
-      <c r="X71" s="6" t="n">
-        <v>44830</v>
-      </c>
-      <c r="Y71" s="5" t="inlineStr">
-        <is>
-          <t>PAR BUILDERS ELECTRICAL &amp; CONSTRUCTION SUPPLY CORP.</t>
-        </is>
-      </c>
+      <c r="R71" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" s="5" t="inlineStr"/>
+      <c r="T71" s="5" t="inlineStr"/>
+      <c r="U71" s="5" t="inlineStr"/>
+      <c r="V71" s="5" t="inlineStr"/>
+      <c r="W71" s="5" t="inlineStr"/>
+      <c r="X71" s="5" t="inlineStr"/>
+      <c r="Y71" s="5" t="inlineStr"/>
       <c r="Z71" s="5" t="inlineStr"/>
       <c r="AA71" s="7" t="n"/>
     </row>
@@ -6918,45 +6846,41 @@
       </c>
       <c r="C72" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Talisay City</t>
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>120366</v>
+        <v>119791</v>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>Mabinay Central School</t>
+          <t>Talisay City CES</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
         <is>
-          <t>MABINAY</t>
+          <t>CITY OF TALISAY</t>
         </is>
       </c>
       <c r="G72" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H72" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H72" s="5" t="inlineStr"/>
       <c r="I72" s="5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J72" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K72" s="5" t="n">
-        <v>4478136.150162361</v>
+        <v>30000000</v>
       </c>
       <c r="L72" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M72" s="5" t="n">
-        <v>3627000</v>
-      </c>
+      <c r="M72" s="5" t="inlineStr"/>
       <c r="N72" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6965,40 +6889,18 @@
       <c r="O72" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P72" s="6" t="n">
-        <v>44961</v>
-      </c>
+      <c r="P72" s="5" t="inlineStr"/>
       <c r="Q72" s="5" t="inlineStr"/>
-      <c r="R72" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2022-04-025</t>
-        </is>
-      </c>
-      <c r="S72" s="5" t="inlineStr">
-        <is>
-          <t>QRF202209013</t>
-        </is>
-      </c>
-      <c r="T72" s="6" t="n">
-        <v>44677</v>
-      </c>
-      <c r="U72" s="6" t="n">
-        <v>44685</v>
-      </c>
-      <c r="V72" s="6" t="n">
-        <v>44697</v>
-      </c>
-      <c r="W72" s="6" t="n">
-        <v>44729</v>
-      </c>
-      <c r="X72" s="6" t="n">
-        <v>44830</v>
-      </c>
-      <c r="Y72" s="5" t="inlineStr">
-        <is>
-          <t>PAR BUILDERS ELECTRICAL &amp; CONSTRUCTION SUPPLY CORP.</t>
-        </is>
-      </c>
+      <c r="R72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" s="5" t="inlineStr"/>
+      <c r="T72" s="5" t="inlineStr"/>
+      <c r="U72" s="5" t="inlineStr"/>
+      <c r="V72" s="5" t="inlineStr"/>
+      <c r="W72" s="5" t="inlineStr"/>
+      <c r="X72" s="5" t="inlineStr"/>
+      <c r="Y72" s="5" t="inlineStr"/>
       <c r="Z72" s="5" t="inlineStr"/>
       <c r="AA72" s="7" t="n"/>
     </row>
@@ -7015,30 +6917,30 @@
       </c>
       <c r="C73" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Toledo City</t>
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>189514</v>
+        <v>120757</v>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>Guilongsoran Primary School</t>
+          <t>South City Central ES</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>TOLEDO CITY</t>
         </is>
       </c>
       <c r="G73" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I73" s="5" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J73" s="5" t="inlineStr">
         <is>
@@ -7046,14 +6948,12 @@
         </is>
       </c>
       <c r="K73" s="5" t="n">
-        <v>1318876.302970281</v>
+        <v>11050000</v>
       </c>
       <c r="L73" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M73" s="5" t="n">
-        <v>1000473.71</v>
-      </c>
+      <c r="M73" s="5" t="inlineStr"/>
       <c r="N73" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7062,47 +6962,25 @@
       <c r="O73" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P73" s="6" t="n">
-        <v>44894</v>
-      </c>
+      <c r="P73" s="5" t="inlineStr"/>
       <c r="Q73" s="5" t="inlineStr"/>
-      <c r="R73" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2022-04-021</t>
-        </is>
-      </c>
-      <c r="S73" s="5" t="inlineStr">
-        <is>
-          <t>QRF202209009</t>
-        </is>
-      </c>
-      <c r="T73" s="6" t="n">
-        <v>44677</v>
-      </c>
-      <c r="U73" s="6" t="n">
-        <v>44685</v>
-      </c>
-      <c r="V73" s="6" t="n">
-        <v>44697</v>
-      </c>
-      <c r="W73" s="6" t="n">
-        <v>44726</v>
-      </c>
-      <c r="X73" s="6" t="n">
-        <v>44833</v>
-      </c>
-      <c r="Y73" s="5" t="inlineStr">
-        <is>
-          <t>MDBD CONSTRUCTION</t>
-        </is>
-      </c>
+      <c r="R73" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="5" t="inlineStr"/>
+      <c r="T73" s="5" t="inlineStr"/>
+      <c r="U73" s="5" t="inlineStr"/>
+      <c r="V73" s="5" t="inlineStr"/>
+      <c r="W73" s="5" t="inlineStr"/>
+      <c r="X73" s="5" t="inlineStr"/>
+      <c r="Y73" s="5" t="inlineStr"/>
       <c r="Z73" s="5" t="inlineStr"/>
       <c r="AA73" s="7" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B74" s="5" t="inlineStr">
@@ -7112,45 +6990,45 @@
       </c>
       <c r="C74" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>120438</v>
+        <v>117968</v>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>Siapo Elementary School</t>
+          <t>Antequera Central ES</t>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
-        </is>
-      </c>
-      <c r="G74" s="5" t="n">
-        <v>2</v>
+          <t>ANTEQUERA</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="H74" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I74" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J74" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K74" s="5" t="n">
-        <v>2429147.136400481</v>
+        <v>1412793.43</v>
       </c>
       <c r="L74" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M74" s="5" t="n">
-        <v>1850263.91</v>
-      </c>
+      <c r="M74" s="5" t="inlineStr"/>
       <c r="N74" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7160,46 +7038,26 @@
         <v>1</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>44964</v>
+        <v>45154</v>
       </c>
       <c r="Q74" s="5" t="inlineStr"/>
-      <c r="R74" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2022-04-022</t>
-        </is>
-      </c>
-      <c r="S74" s="5" t="inlineStr">
-        <is>
-          <t>QRF202209010</t>
-        </is>
-      </c>
-      <c r="T74" s="6" t="n">
-        <v>44677</v>
-      </c>
-      <c r="U74" s="6" t="n">
-        <v>44685</v>
-      </c>
-      <c r="V74" s="6" t="n">
-        <v>44697</v>
-      </c>
-      <c r="W74" s="6" t="n">
-        <v>44726</v>
-      </c>
-      <c r="X74" s="6" t="n">
-        <v>44833</v>
-      </c>
-      <c r="Y74" s="5" t="inlineStr">
-        <is>
-          <t>MDBD CONSTRUCTION</t>
-        </is>
-      </c>
+      <c r="R74" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="5" t="inlineStr"/>
+      <c r="T74" s="5" t="inlineStr"/>
+      <c r="U74" s="5" t="inlineStr"/>
+      <c r="V74" s="5" t="inlineStr"/>
+      <c r="W74" s="5" t="inlineStr"/>
+      <c r="X74" s="5" t="inlineStr"/>
+      <c r="Y74" s="5" t="inlineStr"/>
       <c r="Z74" s="5" t="inlineStr"/>
       <c r="AA74" s="7" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B75" s="5" t="inlineStr">
@@ -7209,38 +7067,40 @@
       </c>
       <c r="C75" s="5" t="inlineStr">
         <is>
-          <t>Talisay City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>322203</v>
+        <v>118171</v>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>Manipis National High School</t>
+          <t>Causwagan ES</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
-        </is>
-      </c>
-      <c r="G75" s="5" t="n">
-        <v>1</v>
+          <t>CATIGBIAN</t>
+        </is>
+      </c>
+      <c r="G75" s="5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="H75" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I75" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K75" s="5" t="n">
-        <v>1926214.113590364</v>
+        <v>212611.341223969</v>
       </c>
       <c r="L75" s="5" t="n">
         <v>1</v>
@@ -7254,7 +7114,9 @@
       <c r="O75" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P75" s="5" t="inlineStr"/>
+      <c r="P75" s="6" t="n">
+        <v>45204</v>
+      </c>
       <c r="Q75" s="5" t="inlineStr"/>
       <c r="R75" s="5" t="n">
         <v>0</v>
@@ -7272,7 +7134,7 @@
     <row r="76">
       <c r="A76" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B76" s="5" t="inlineStr">
@@ -7282,38 +7144,40 @@
       </c>
       <c r="C76" s="5" t="inlineStr">
         <is>
-          <t>Talisay City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>119803</v>
+        <v>118027</v>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>Tabunoc Central  School</t>
+          <t>Bien Unido Central ES</t>
         </is>
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
-        </is>
-      </c>
-      <c r="G76" s="5" t="n">
-        <v>1</v>
+          <t>BIEN UNIDO</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="H76" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I76" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>Replacement</t>
         </is>
       </c>
       <c r="K76" s="5" t="n">
-        <v>1869425.397330974</v>
+        <v>2500000</v>
       </c>
       <c r="L76" s="5" t="n">
         <v>1</v>
@@ -7327,7 +7191,9 @@
       <c r="O76" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P76" s="5" t="inlineStr"/>
+      <c r="P76" s="6" t="n">
+        <v>45199</v>
+      </c>
       <c r="Q76" s="5" t="inlineStr"/>
       <c r="R76" s="5" t="n">
         <v>0</v>
@@ -7345,7 +7211,7 @@
     <row r="77">
       <c r="A77" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B77" s="5" t="inlineStr">
@@ -7355,38 +7221,40 @@
       </c>
       <c r="C77" s="5" t="inlineStr">
         <is>
-          <t>Talisay City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D77" s="5" t="n">
-        <v>119791</v>
+        <v>118027</v>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>Talisay City CES</t>
+          <t>Bien Unido Central ES</t>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
-        </is>
-      </c>
-      <c r="G77" s="5" t="n">
-        <v>1</v>
+          <t>BIEN UNIDO</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="H77" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I77" s="5" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J77" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K77" s="5" t="n">
-        <v>7433950.412653901</v>
+        <v>8892337.27</v>
       </c>
       <c r="L77" s="5" t="n">
         <v>1</v>
@@ -7400,7 +7268,9 @@
       <c r="O77" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P77" s="5" t="inlineStr"/>
+      <c r="P77" s="6" t="n">
+        <v>45198</v>
+      </c>
       <c r="Q77" s="5" t="inlineStr"/>
       <c r="R77" s="5" t="n">
         <v>0</v>
@@ -7418,7 +7288,7 @@
     <row r="78">
       <c r="A78" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B78" s="5" t="inlineStr">
@@ -7428,36 +7298,40 @@
       </c>
       <c r="C78" s="5" t="inlineStr">
         <is>
-          <t>Talisay City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>119791</v>
+        <v>118223</v>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>Talisay City CES</t>
+          <t>Dagohoy Central Elementary</t>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
-        </is>
-      </c>
-      <c r="G78" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" s="5" t="inlineStr"/>
+          <t>DAGOHOY</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="H78" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I78" s="5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J78" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>Replacement</t>
         </is>
       </c>
       <c r="K78" s="5" t="n">
-        <v>30000000</v>
+        <v>5000000</v>
       </c>
       <c r="L78" s="5" t="n">
         <v>1</v>
@@ -7471,7 +7345,9 @@
       <c r="O78" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P78" s="5" t="inlineStr"/>
+      <c r="P78" s="6" t="n">
+        <v>45258</v>
+      </c>
       <c r="Q78" s="5" t="inlineStr"/>
       <c r="R78" s="5" t="n">
         <v>0</v>
@@ -7489,7 +7365,7 @@
     <row r="79">
       <c r="A79" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B79" s="5" t="inlineStr">
@@ -7499,38 +7375,40 @@
       </c>
       <c r="C79" s="5" t="inlineStr">
         <is>
-          <t>Toledo City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>120757</v>
+        <v>118223</v>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>South City Central ES</t>
+          <t>Dagohoy Central Elementary</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>TOLEDO CITY</t>
-        </is>
-      </c>
-      <c r="G79" s="5" t="n">
-        <v>3</v>
+          <t>DAGOHOY</t>
+        </is>
+      </c>
+      <c r="G79" s="5" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="H79" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I79" s="5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J79" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K79" s="5" t="n">
-        <v>11050000</v>
+        <v>7385372.54</v>
       </c>
       <c r="L79" s="5" t="n">
         <v>1</v>
@@ -7544,7 +7422,9 @@
       <c r="O79" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P79" s="5" t="inlineStr"/>
+      <c r="P79" s="6" t="n">
+        <v>45144</v>
+      </c>
       <c r="Q79" s="5" t="inlineStr"/>
       <c r="R79" s="5" t="n">
         <v>0</v>
@@ -7576,28 +7456,28 @@
         </is>
       </c>
       <c r="D80" s="5" t="n">
-        <v>117968</v>
+        <v>500209</v>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>Antequera Central ES</t>
+          <t>Inabanga North Central Integrated School (Elementary)</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t>ANTEQUERA</t>
+          <t>INABANGA</t>
         </is>
       </c>
       <c r="G80" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="H80" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I80" s="5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J80" s="5" t="inlineStr">
         <is>
@@ -7605,7 +7485,7 @@
         </is>
       </c>
       <c r="K80" s="5" t="n">
-        <v>1412793.43</v>
+        <v>3501389.75460645</v>
       </c>
       <c r="L80" s="5" t="n">
         <v>1</v>
@@ -7620,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>45154</v>
+        <v>45229</v>
       </c>
       <c r="Q80" s="5" t="inlineStr"/>
       <c r="R80" s="5" t="n">
@@ -7653,28 +7533,28 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>118171</v>
+        <v>118641</v>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>Causwagan ES</t>
+          <t>San Isidro Central ES</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
         <is>
-          <t>CATIGBIAN</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="G81" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="H81" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I81" s="5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J81" s="5" t="inlineStr">
         <is>
@@ -7682,7 +7562,7 @@
         </is>
       </c>
       <c r="K81" s="5" t="n">
-        <v>212611.341223969</v>
+        <v>3191281.8119385</v>
       </c>
       <c r="L81" s="5" t="n">
         <v>1</v>
@@ -7697,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>45204</v>
+        <v>45228</v>
       </c>
       <c r="Q81" s="5" t="inlineStr"/>
       <c r="R81" s="5" t="n">
@@ -7730,36 +7610,36 @@
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>118027</v>
+        <v>117953</v>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>Bien Unido Central ES</t>
+          <t>Anda Central ES</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
         <is>
-          <t>BIEN UNIDO</t>
+          <t>ANDA</t>
         </is>
       </c>
       <c r="G82" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H82" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I82" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" s="5" t="inlineStr">
         <is>
-          <t>Replacement</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K82" s="5" t="n">
-        <v>2500000</v>
+        <v>336249.7955432701</v>
       </c>
       <c r="L82" s="5" t="n">
         <v>1</v>
@@ -7774,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>45199</v>
+        <v>45240</v>
       </c>
       <c r="Q82" s="5" t="inlineStr"/>
       <c r="R82" s="5" t="n">
@@ -7807,28 +7687,28 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>118027</v>
+        <v>118012</v>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>Bien Unido Central ES</t>
+          <t>Batuan Central ES</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t>BIEN UNIDO</t>
+          <t>BATUAN</t>
         </is>
       </c>
       <c r="G83" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H83" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I83" s="5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J83" s="5" t="inlineStr">
         <is>
@@ -7836,7 +7716,7 @@
         </is>
       </c>
       <c r="K83" s="5" t="n">
-        <v>8892337.27</v>
+        <v>982408.6011014185</v>
       </c>
       <c r="L83" s="5" t="n">
         <v>1</v>
@@ -7851,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>45198</v>
+        <v>45240</v>
       </c>
       <c r="Q83" s="5" t="inlineStr"/>
       <c r="R83" s="5" t="n">
@@ -7884,36 +7764,36 @@
         </is>
       </c>
       <c r="D84" s="5" t="n">
-        <v>118223</v>
+        <v>118193</v>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy Central Elementary</t>
+          <t>Clarin Central ES</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t>DAGOHOY</t>
+          <t>CLARIN</t>
         </is>
       </c>
       <c r="G84" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H84" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I84" s="5" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J84" s="5" t="inlineStr">
         <is>
-          <t>Replacement</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K84" s="5" t="n">
-        <v>5000000</v>
+        <v>4446904.509141677</v>
       </c>
       <c r="L84" s="5" t="n">
         <v>1</v>
@@ -7928,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>45258</v>
+        <v>45229</v>
       </c>
       <c r="Q84" s="5" t="inlineStr"/>
       <c r="R84" s="5" t="n">
@@ -7961,28 +7841,28 @@
         </is>
       </c>
       <c r="D85" s="5" t="n">
-        <v>118223</v>
+        <v>118520</v>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy Central Elementary</t>
+          <t>Mabini Central ES</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
         <is>
-          <t>DAGOHOY</t>
+          <t>MABINI</t>
         </is>
       </c>
       <c r="G85" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H85" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I85" s="5" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J85" s="5" t="inlineStr">
         <is>
@@ -7990,7 +7870,7 @@
         </is>
       </c>
       <c r="K85" s="5" t="n">
-        <v>7385372.54</v>
+        <v>2450000</v>
       </c>
       <c r="L85" s="5" t="n">
         <v>1</v>
@@ -8005,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>45144</v>
+        <v>45228</v>
       </c>
       <c r="Q85" s="5" t="inlineStr"/>
       <c r="R85" s="5" t="n">
@@ -8038,28 +7918,28 @@
         </is>
       </c>
       <c r="D86" s="5" t="n">
-        <v>500209</v>
+        <v>118581</v>
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>Inabanga North Central Integrated School (Elementary)</t>
+          <t>Pilar Central ES</t>
         </is>
       </c>
       <c r="F86" s="5" t="inlineStr">
         <is>
-          <t>INABANGA</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="G86" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H86" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I86" s="5" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J86" s="5" t="inlineStr">
         <is>
@@ -8067,7 +7947,7 @@
         </is>
       </c>
       <c r="K86" s="5" t="n">
-        <v>3501389.75460645</v>
+        <v>4933014.062481614</v>
       </c>
       <c r="L86" s="5" t="n">
         <v>1</v>
@@ -8082,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>45229</v>
+        <v>45204</v>
       </c>
       <c r="Q86" s="5" t="inlineStr"/>
       <c r="R86" s="5" t="n">
@@ -8111,32 +7991,32 @@
       </c>
       <c r="C87" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D87" s="5" t="n">
-        <v>118641</v>
+        <v>119632</v>
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>San Isidro Central ES</t>
+          <t>SANGAT CES</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>SAN FERNANDO</t>
         </is>
       </c>
       <c r="G87" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H87" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I87" s="5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J87" s="5" t="inlineStr">
         <is>
@@ -8144,34 +8024,54 @@
         </is>
       </c>
       <c r="K87" s="5" t="n">
-        <v>3191281.8119385</v>
+        <v>7500000</v>
       </c>
       <c r="L87" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M87" s="5" t="inlineStr"/>
+      <c r="M87" s="5" t="n">
+        <v>5707088.03</v>
+      </c>
       <c r="N87" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>REVERTED</t>
         </is>
       </c>
       <c r="O87" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>45228</v>
+        <v>45175</v>
       </c>
       <c r="Q87" s="5" t="inlineStr"/>
-      <c r="R87" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" s="5" t="inlineStr"/>
-      <c r="T87" s="5" t="inlineStr"/>
-      <c r="U87" s="5" t="inlineStr"/>
-      <c r="V87" s="5" t="inlineStr"/>
+      <c r="R87" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2</t>
+        </is>
+      </c>
+      <c r="S87" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-03</t>
+        </is>
+      </c>
+      <c r="T87" s="6" t="n">
+        <v>44979</v>
+      </c>
+      <c r="U87" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="V87" s="6" t="n">
+        <v>44998</v>
+      </c>
       <c r="W87" s="5" t="inlineStr"/>
-      <c r="X87" s="5" t="inlineStr"/>
-      <c r="Y87" s="5" t="inlineStr"/>
+      <c r="X87" s="6" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y87" s="5" t="inlineStr">
+        <is>
+          <t>GELA CONSTRUCTION</t>
+        </is>
+      </c>
       <c r="Z87" s="5" t="inlineStr"/>
       <c r="AA87" s="7" t="n"/>
     </row>
@@ -8188,32 +8088,32 @@
       </c>
       <c r="C88" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>117953</v>
+        <v>119722</v>
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>Anda Central ES</t>
+          <t>Sibonga Central ES</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
         <is>
-          <t>ANDA</t>
+          <t>SIBONGA</t>
         </is>
       </c>
       <c r="G88" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H88" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I88" s="5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J88" s="5" t="inlineStr">
         <is>
@@ -8221,12 +8121,14 @@
         </is>
       </c>
       <c r="K88" s="5" t="n">
-        <v>336249.7955432701</v>
+        <v>2074340.37774075</v>
       </c>
       <c r="L88" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M88" s="5" t="inlineStr"/>
+      <c r="M88" s="5" t="n">
+        <v>12305913.39</v>
+      </c>
       <c r="N88" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8236,19 +8138,37 @@
         <v>1</v>
       </c>
       <c r="P88" s="6" t="n">
-        <v>45240</v>
+        <v>45175</v>
       </c>
       <c r="Q88" s="5" t="inlineStr"/>
-      <c r="R88" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S88" s="5" t="inlineStr"/>
-      <c r="T88" s="5" t="inlineStr"/>
-      <c r="U88" s="5" t="inlineStr"/>
-      <c r="V88" s="5" t="inlineStr"/>
+      <c r="R88" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2</t>
+        </is>
+      </c>
+      <c r="S88" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-02</t>
+        </is>
+      </c>
+      <c r="T88" s="6" t="n">
+        <v>44979</v>
+      </c>
+      <c r="U88" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="V88" s="6" t="n">
+        <v>44998</v>
+      </c>
       <c r="W88" s="5" t="inlineStr"/>
-      <c r="X88" s="5" t="inlineStr"/>
-      <c r="Y88" s="5" t="inlineStr"/>
+      <c r="X88" s="6" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y88" s="5" t="inlineStr">
+        <is>
+          <t>ANIELTHON CONSTRUCTION AND SUPPLY</t>
+        </is>
+      </c>
       <c r="Z88" s="5" t="inlineStr"/>
       <c r="AA88" s="7" t="n"/>
     </row>
@@ -8265,32 +8185,32 @@
       </c>
       <c r="C89" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D89" s="5" t="n">
-        <v>118012</v>
+        <v>118917</v>
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>Batuan Central ES</t>
+          <t>Argao I Central ES</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
-          <t>BATUAN</t>
+          <t>ARGAO</t>
         </is>
       </c>
       <c r="G89" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="H89" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I89" s="5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J89" s="5" t="inlineStr">
         <is>
@@ -8298,12 +8218,14 @@
         </is>
       </c>
       <c r="K89" s="5" t="n">
-        <v>982408.6011014185</v>
+        <v>12359157.52</v>
       </c>
       <c r="L89" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M89" s="5" t="inlineStr"/>
+      <c r="M89" s="5" t="n">
+        <v>693338</v>
+      </c>
       <c r="N89" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8313,19 +8235,37 @@
         <v>1</v>
       </c>
       <c r="P89" s="6" t="n">
-        <v>45240</v>
+        <v>45175</v>
       </c>
       <c r="Q89" s="5" t="inlineStr"/>
-      <c r="R89" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S89" s="5" t="inlineStr"/>
-      <c r="T89" s="5" t="inlineStr"/>
-      <c r="U89" s="5" t="inlineStr"/>
-      <c r="V89" s="5" t="inlineStr"/>
+      <c r="R89" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2</t>
+        </is>
+      </c>
+      <c r="S89" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-01</t>
+        </is>
+      </c>
+      <c r="T89" s="6" t="n">
+        <v>44979</v>
+      </c>
+      <c r="U89" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="V89" s="6" t="n">
+        <v>44998</v>
+      </c>
       <c r="W89" s="5" t="inlineStr"/>
-      <c r="X89" s="5" t="inlineStr"/>
-      <c r="Y89" s="5" t="inlineStr"/>
+      <c r="X89" s="6" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y89" s="5" t="inlineStr">
+        <is>
+          <t>GELA CONSTRUCTION</t>
+        </is>
+      </c>
       <c r="Z89" s="5" t="inlineStr"/>
       <c r="AA89" s="7" t="n"/>
     </row>
@@ -8342,32 +8282,32 @@
       </c>
       <c r="C90" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D90" s="5" t="n">
-        <v>118193</v>
+        <v>119298</v>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>Clarin Central ES</t>
+          <t>DALAGUETE CENTRAL ES</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>CLARIN</t>
+          <t>DALAGUETE</t>
         </is>
       </c>
       <c r="G90" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="H90" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I90" s="5" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J90" s="5" t="inlineStr">
         <is>
@@ -8375,12 +8315,14 @@
         </is>
       </c>
       <c r="K90" s="5" t="n">
-        <v>4446904.509141677</v>
+        <v>705637.3957815001</v>
       </c>
       <c r="L90" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M90" s="5" t="inlineStr"/>
+      <c r="M90" s="5" t="n">
+        <v>3560851.53</v>
+      </c>
       <c r="N90" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8390,19 +8332,37 @@
         <v>1</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>45229</v>
+        <v>45175</v>
       </c>
       <c r="Q90" s="5" t="inlineStr"/>
-      <c r="R90" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S90" s="5" t="inlineStr"/>
-      <c r="T90" s="5" t="inlineStr"/>
-      <c r="U90" s="5" t="inlineStr"/>
-      <c r="V90" s="5" t="inlineStr"/>
+      <c r="R90" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2</t>
+        </is>
+      </c>
+      <c r="S90" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-04</t>
+        </is>
+      </c>
+      <c r="T90" s="6" t="n">
+        <v>44979</v>
+      </c>
+      <c r="U90" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="V90" s="6" t="n">
+        <v>44998</v>
+      </c>
       <c r="W90" s="5" t="inlineStr"/>
-      <c r="X90" s="5" t="inlineStr"/>
-      <c r="Y90" s="5" t="inlineStr"/>
+      <c r="X90" s="6" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y90" s="5" t="inlineStr">
+        <is>
+          <t>SB &amp; T CONSTRUCTION</t>
+        </is>
+      </c>
       <c r="Z90" s="5" t="inlineStr"/>
       <c r="AA90" s="7" t="n"/>
     </row>
@@ -8419,20 +8379,20 @@
       </c>
       <c r="C91" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D91" s="5" t="n">
-        <v>118520</v>
+        <v>118900</v>
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>Mabini Central ES</t>
+          <t>Aloguinsan Central ES</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>MABINI</t>
+          <t>ALOGUINSAN</t>
         </is>
       </c>
       <c r="G91" s="5" t="inlineStr">
@@ -8444,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J91" s="5" t="inlineStr">
         <is>
@@ -8452,12 +8412,14 @@
         </is>
       </c>
       <c r="K91" s="5" t="n">
-        <v>2450000</v>
+        <v>5745235.56</v>
       </c>
       <c r="L91" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M91" s="5" t="inlineStr"/>
+      <c r="M91" s="5" t="n">
+        <v>2491050.24</v>
+      </c>
       <c r="N91" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8467,19 +8429,37 @@
         <v>1</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>45228</v>
+        <v>45175</v>
       </c>
       <c r="Q91" s="5" t="inlineStr"/>
-      <c r="R91" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S91" s="5" t="inlineStr"/>
-      <c r="T91" s="5" t="inlineStr"/>
-      <c r="U91" s="5" t="inlineStr"/>
-      <c r="V91" s="5" t="inlineStr"/>
+      <c r="R91" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2</t>
+        </is>
+      </c>
+      <c r="S91" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-05</t>
+        </is>
+      </c>
+      <c r="T91" s="6" t="n">
+        <v>44979</v>
+      </c>
+      <c r="U91" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="V91" s="6" t="n">
+        <v>44998</v>
+      </c>
       <c r="W91" s="5" t="inlineStr"/>
-      <c r="X91" s="5" t="inlineStr"/>
-      <c r="Y91" s="5" t="inlineStr"/>
+      <c r="X91" s="6" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y91" s="5" t="inlineStr">
+        <is>
+          <t>HERO CONTRUCTION AND DEVELOPMENT CORP.</t>
+        </is>
+      </c>
       <c r="Z91" s="5" t="inlineStr"/>
       <c r="AA91" s="7" t="n"/>
     </row>
@@ -8496,20 +8476,20 @@
       </c>
       <c r="C92" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D92" s="5" t="n">
-        <v>118581</v>
+        <v>119572</v>
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>Pilar Central ES</t>
+          <t>Tajao Central School</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>PINAMUNGAHAN</t>
         </is>
       </c>
       <c r="G92" s="5" t="inlineStr">
@@ -8521,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J92" s="5" t="inlineStr">
         <is>
@@ -8529,12 +8509,14 @@
         </is>
       </c>
       <c r="K92" s="5" t="n">
-        <v>4933014.062481614</v>
+        <v>3599380.52</v>
       </c>
       <c r="L92" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M92" s="5" t="inlineStr"/>
+      <c r="M92" s="5" t="n">
+        <v>3560851.53</v>
+      </c>
       <c r="N92" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8544,20 +8526,42 @@
         <v>1</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>45204</v>
+        <v>45175</v>
       </c>
       <c r="Q92" s="5" t="inlineStr"/>
-      <c r="R92" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S92" s="5" t="inlineStr"/>
-      <c r="T92" s="5" t="inlineStr"/>
-      <c r="U92" s="5" t="inlineStr"/>
-      <c r="V92" s="5" t="inlineStr"/>
+      <c r="R92" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2</t>
+        </is>
+      </c>
+      <c r="S92" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-04</t>
+        </is>
+      </c>
+      <c r="T92" s="6" t="n">
+        <v>44979</v>
+      </c>
+      <c r="U92" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="V92" s="6" t="n">
+        <v>44998</v>
+      </c>
       <c r="W92" s="5" t="inlineStr"/>
-      <c r="X92" s="5" t="inlineStr"/>
-      <c r="Y92" s="5" t="inlineStr"/>
-      <c r="Z92" s="5" t="inlineStr"/>
+      <c r="X92" s="6" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y92" s="5" t="inlineStr">
+        <is>
+          <t>SB &amp; T CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="Z92" s="5" t="inlineStr">
+        <is>
+          <t>for procurement;revised pow</t>
+        </is>
+      </c>
       <c r="AA92" s="7" t="n"/>
     </row>
     <row r="93">
@@ -8577,28 +8581,28 @@
         </is>
       </c>
       <c r="D93" s="5" t="n">
-        <v>119632</v>
+        <v>119566</v>
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>SANGAT CES</t>
+          <t>PINAMUNGAJAN CES</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>PINAMUNGAJAN</t>
         </is>
       </c>
       <c r="G93" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H93" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I93" s="5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J93" s="5" t="inlineStr">
         <is>
@@ -8606,21 +8610,21 @@
         </is>
       </c>
       <c r="K93" s="5" t="n">
-        <v>7500000</v>
+        <v>2706993.5847465</v>
       </c>
       <c r="L93" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>5707088.03</v>
+        <v>2073549.03</v>
       </c>
       <c r="N93" s="5" t="inlineStr">
         <is>
-          <t>REVERTED</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O93" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" s="6" t="n">
         <v>45175</v>
@@ -8633,7 +8637,7 @@
       </c>
       <c r="S93" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-03</t>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-01</t>
         </is>
       </c>
       <c r="T93" s="6" t="n">
@@ -8670,20 +8674,20 @@
       </c>
       <c r="C94" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Guihulngan City</t>
         </is>
       </c>
       <c r="D94" s="5" t="n">
-        <v>119722</v>
+        <v>120642</v>
       </c>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>Sibonga Central ES</t>
+          <t>Vallehermoso Central Elementary School</t>
         </is>
       </c>
       <c r="F94" s="5" t="inlineStr">
         <is>
-          <t>SIBONGA</t>
+          <t>VALLEHERMOSO</t>
         </is>
       </c>
       <c r="G94" s="5" t="inlineStr">
@@ -8695,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J94" s="5" t="inlineStr">
         <is>
@@ -8703,13 +8707,15 @@
         </is>
       </c>
       <c r="K94" s="5" t="n">
-        <v>2074340.37774075</v>
+        <v>1477590.79</v>
       </c>
       <c r="L94" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M94" s="5" t="n">
-        <v>12305913.39</v>
+      <c r="M94" s="5" t="inlineStr">
+        <is>
+          <t>PHP 1,472,159.77</t>
+        </is>
       </c>
       <c r="N94" s="5" t="inlineStr">
         <is>
@@ -8720,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="P94" s="6" t="n">
-        <v>45175</v>
+        <v>45160</v>
       </c>
       <c r="Q94" s="5" t="inlineStr"/>
       <c r="R94" s="5" t="inlineStr">
@@ -8730,25 +8736,27 @@
       </c>
       <c r="S94" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-02</t>
+          <t>ITB 2023-002</t>
         </is>
       </c>
       <c r="T94" s="6" t="n">
-        <v>44979</v>
+        <v>44988</v>
       </c>
       <c r="U94" s="6" t="n">
-        <v>44986</v>
+        <v>44995</v>
       </c>
       <c r="V94" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="W94" s="5" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="W94" s="6" t="n">
+        <v>45030</v>
+      </c>
       <c r="X94" s="6" t="n">
-        <v>45078</v>
+        <v>45035</v>
       </c>
       <c r="Y94" s="5" t="inlineStr">
         <is>
-          <t>ANIELTHON CONSTRUCTION AND SUPPLY</t>
+          <t>TRIPLE JO CONSTRUCTION SERVICES</t>
         </is>
       </c>
       <c r="Z94" s="5" t="inlineStr"/>
@@ -8767,85 +8775,85 @@
       </c>
       <c r="C95" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Tagbilaran City</t>
         </is>
       </c>
       <c r="D95" s="5" t="n">
-        <v>118917</v>
+        <v>118713</v>
       </c>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>Argao I Central ES</t>
+          <t>Tagbilaran City Central Elementary School</t>
         </is>
       </c>
       <c r="F95" s="5" t="inlineStr">
         <is>
-          <t>ARGAO</t>
+          <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
       <c r="G95" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H95" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I95" s="5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J95" s="5" t="inlineStr">
         <is>
-          <t>REPAIR OF CLASSROOMS</t>
+          <t>Replacement</t>
         </is>
       </c>
       <c r="K95" s="5" t="n">
-        <v>12359157.52</v>
+        <v>17000000</v>
       </c>
       <c r="L95" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M95" s="5" t="n">
-        <v>693338</v>
+        <v>16952019.97</v>
       </c>
       <c r="N95" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O95" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P95" s="6" t="n">
-        <v>45175</v>
-      </c>
-      <c r="Q95" s="5" t="inlineStr"/>
+        <v>45198</v>
+      </c>
+      <c r="Q95" s="5" t="inlineStr">
+        <is>
+          <t>February 10, 2024</t>
+        </is>
+      </c>
       <c r="R95" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2</t>
-        </is>
-      </c>
-      <c r="S95" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-01</t>
-        </is>
-      </c>
+          <t>2023-003-Infra</t>
+        </is>
+      </c>
+      <c r="S95" s="5" t="inlineStr"/>
       <c r="T95" s="6" t="n">
-        <v>44979</v>
-      </c>
-      <c r="U95" s="6" t="n">
-        <v>44986</v>
-      </c>
+        <v>44995</v>
+      </c>
+      <c r="U95" s="5" t="inlineStr"/>
       <c r="V95" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="W95" s="5" t="inlineStr"/>
+        <v>45016</v>
+      </c>
+      <c r="W95" s="6" t="n">
+        <v>45021</v>
+      </c>
       <c r="X95" s="6" t="n">
-        <v>45078</v>
+        <v>45036</v>
       </c>
       <c r="Y95" s="5" t="inlineStr">
         <is>
-          <t>GELA CONSTRUCTION</t>
+          <t>DOLCI Construction and General Merchandise</t>
         </is>
       </c>
       <c r="Z95" s="5" t="inlineStr"/>
@@ -8864,32 +8872,32 @@
       </c>
       <c r="C96" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Tagbilaran City</t>
         </is>
       </c>
       <c r="D96" s="5" t="n">
-        <v>119298</v>
+        <v>118713</v>
       </c>
       <c r="E96" s="5" t="inlineStr">
         <is>
-          <t>DALAGUETE CENTRAL ES</t>
+          <t>Tagbilaran City Central Elementary School</t>
         </is>
       </c>
       <c r="F96" s="5" t="inlineStr">
         <is>
-          <t>DALAGUETE</t>
+          <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
       <c r="G96" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H96" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I96" s="5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J96" s="5" t="inlineStr">
         <is>
@@ -8897,13 +8905,13 @@
         </is>
       </c>
       <c r="K96" s="5" t="n">
-        <v>705637.3957815001</v>
+        <v>3600000</v>
       </c>
       <c r="L96" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M96" s="5" t="n">
-        <v>3560851.53</v>
+        <v>16952019.97</v>
       </c>
       <c r="N96" s="5" t="inlineStr">
         <is>
@@ -8914,35 +8922,33 @@
         <v>1</v>
       </c>
       <c r="P96" s="6" t="n">
-        <v>45175</v>
-      </c>
-      <c r="Q96" s="5" t="inlineStr"/>
+        <v>45111</v>
+      </c>
+      <c r="Q96" s="6" t="n">
+        <v>45071</v>
+      </c>
       <c r="R96" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2</t>
-        </is>
-      </c>
-      <c r="S96" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-04</t>
-        </is>
-      </c>
+          <t>2023-001-Infra</t>
+        </is>
+      </c>
+      <c r="S96" s="5" t="inlineStr"/>
       <c r="T96" s="6" t="n">
-        <v>44979</v>
-      </c>
-      <c r="U96" s="6" t="n">
-        <v>44986</v>
-      </c>
+        <v>44981</v>
+      </c>
+      <c r="U96" s="5" t="inlineStr"/>
       <c r="V96" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="W96" s="5" t="inlineStr"/>
+        <v>45002</v>
+      </c>
+      <c r="W96" s="6" t="n">
+        <v>45006</v>
+      </c>
       <c r="X96" s="6" t="n">
-        <v>45078</v>
+        <v>45019</v>
       </c>
       <c r="Y96" s="5" t="inlineStr">
         <is>
-          <t>SB &amp; T CONSTRUCTION</t>
+          <t>C.Jansen Construction and General Merchandise</t>
         </is>
       </c>
       <c r="Z96" s="5" t="inlineStr"/>
@@ -8961,32 +8967,32 @@
       </c>
       <c r="C97" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Tagbilaran City</t>
         </is>
       </c>
       <c r="D97" s="5" t="n">
-        <v>118900</v>
+        <v>233001</v>
       </c>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>Aloguinsan Central ES</t>
+          <t>Tagbilaran City Central School SPED Center</t>
         </is>
       </c>
       <c r="F97" s="5" t="inlineStr">
         <is>
-          <t>ALOGUINSAN</t>
+          <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
       <c r="G97" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H97" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I97" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J97" s="5" t="inlineStr">
         <is>
@@ -8994,14 +9000,12 @@
         </is>
       </c>
       <c r="K97" s="5" t="n">
-        <v>5745235.56</v>
+        <v>900000</v>
       </c>
       <c r="L97" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M97" s="5" t="n">
-        <v>2491050.24</v>
-      </c>
+      <c r="M97" s="5" t="inlineStr"/>
       <c r="N97" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -9011,35 +9015,33 @@
         <v>1</v>
       </c>
       <c r="P97" s="6" t="n">
-        <v>45175</v>
-      </c>
-      <c r="Q97" s="5" t="inlineStr"/>
+        <v>45111</v>
+      </c>
+      <c r="Q97" s="6" t="n">
+        <v>45071</v>
+      </c>
       <c r="R97" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2</t>
-        </is>
-      </c>
-      <c r="S97" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-05</t>
-        </is>
-      </c>
+          <t>2023-002-Infra</t>
+        </is>
+      </c>
+      <c r="S97" s="5" t="inlineStr"/>
       <c r="T97" s="6" t="n">
-        <v>44979</v>
-      </c>
-      <c r="U97" s="6" t="n">
-        <v>44986</v>
-      </c>
+        <v>44981</v>
+      </c>
+      <c r="U97" s="5" t="inlineStr"/>
       <c r="V97" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="W97" s="5" t="inlineStr"/>
+        <v>45002</v>
+      </c>
+      <c r="W97" s="6" t="n">
+        <v>45006</v>
+      </c>
       <c r="X97" s="6" t="n">
-        <v>45078</v>
+        <v>45019</v>
       </c>
       <c r="Y97" s="5" t="inlineStr">
         <is>
-          <t>HERO CONTRUCTION AND DEVELOPMENT CORP.</t>
+          <t>C.Jansen Construction and General Merchandise</t>
         </is>
       </c>
       <c r="Z97" s="5" t="inlineStr"/>
@@ -9058,32 +9060,32 @@
       </c>
       <c r="C98" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Tanjay City</t>
         </is>
       </c>
       <c r="D98" s="5" t="n">
-        <v>119572</v>
+        <v>120563</v>
       </c>
       <c r="E98" s="5" t="inlineStr">
         <is>
-          <t>Tajao Central School</t>
+          <t>Sta. Cruz CES</t>
         </is>
       </c>
       <c r="F98" s="5" t="inlineStr">
         <is>
-          <t>PINAMUNGAHAN</t>
+          <t>CITY OF TANJAY</t>
         </is>
       </c>
       <c r="G98" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="H98" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I98" s="5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J98" s="5" t="inlineStr">
         <is>
@@ -9091,14 +9093,12 @@
         </is>
       </c>
       <c r="K98" s="5" t="n">
-        <v>3599380.52</v>
+        <v>2520000</v>
       </c>
       <c r="L98" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M98" s="5" t="n">
-        <v>3560851.53</v>
-      </c>
+      <c r="M98" s="5" t="inlineStr"/>
       <c r="N98" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -9107,1337 +9107,24 @@
       <c r="O98" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P98" s="6" t="n">
-        <v>45175</v>
-      </c>
+      <c r="P98" s="5" t="inlineStr"/>
       <c r="Q98" s="5" t="inlineStr"/>
-      <c r="R98" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF BATCH 2</t>
-        </is>
-      </c>
-      <c r="S98" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-04</t>
-        </is>
-      </c>
-      <c r="T98" s="6" t="n">
-        <v>44979</v>
-      </c>
-      <c r="U98" s="6" t="n">
-        <v>44986</v>
-      </c>
-      <c r="V98" s="6" t="n">
-        <v>44998</v>
-      </c>
+      <c r="R98" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" s="5" t="inlineStr"/>
+      <c r="T98" s="5" t="inlineStr"/>
+      <c r="U98" s="5" t="inlineStr"/>
+      <c r="V98" s="5" t="inlineStr"/>
       <c r="W98" s="5" t="inlineStr"/>
-      <c r="X98" s="6" t="n">
-        <v>45078</v>
-      </c>
-      <c r="Y98" s="5" t="inlineStr">
-        <is>
-          <t>SB &amp; T CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z98" s="5" t="inlineStr">
-        <is>
-          <t>for procurement;revised pow</t>
-        </is>
-      </c>
+      <c r="X98" s="5" t="inlineStr"/>
+      <c r="Y98" s="5" t="inlineStr"/>
+      <c r="Z98" s="5" t="inlineStr"/>
       <c r="AA98" s="7" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B99" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C99" s="5" t="inlineStr">
-        <is>
-          <t>Cebu</t>
-        </is>
-      </c>
-      <c r="D99" s="5" t="n">
-        <v>119566</v>
-      </c>
-      <c r="E99" s="5" t="inlineStr">
-        <is>
-          <t>PINAMUNGAJAN CES</t>
-        </is>
-      </c>
-      <c r="F99" s="5" t="inlineStr">
-        <is>
-          <t>PINAMUNGAJAN</t>
-        </is>
-      </c>
-      <c r="G99" s="5" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="H99" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J99" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K99" s="5" t="n">
-        <v>2706993.5847465</v>
-      </c>
-      <c r="L99" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" s="5" t="n">
-        <v>2073549.03</v>
-      </c>
-      <c r="N99" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O99" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P99" s="6" t="n">
-        <v>45175</v>
-      </c>
-      <c r="Q99" s="5" t="inlineStr"/>
-      <c r="R99" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF BATCH 2</t>
-        </is>
-      </c>
-      <c r="S99" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-01</t>
-        </is>
-      </c>
-      <c r="T99" s="6" t="n">
-        <v>44979</v>
-      </c>
-      <c r="U99" s="6" t="n">
-        <v>44986</v>
-      </c>
-      <c r="V99" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="W99" s="5" t="inlineStr"/>
-      <c r="X99" s="6" t="n">
-        <v>45078</v>
-      </c>
-      <c r="Y99" s="5" t="inlineStr">
-        <is>
-          <t>GELA CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z99" s="5" t="inlineStr"/>
-      <c r="AA99" s="7" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B100" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C100" s="5" t="inlineStr">
-        <is>
-          <t>Guihulngan City</t>
-        </is>
-      </c>
-      <c r="D100" s="5" t="n">
-        <v>120642</v>
-      </c>
-      <c r="E100" s="5" t="inlineStr">
-        <is>
-          <t>Vallehermoso Central Elementary School</t>
-        </is>
-      </c>
-      <c r="F100" s="5" t="inlineStr">
-        <is>
-          <t>VALLEHERMOSO</t>
-        </is>
-      </c>
-      <c r="G100" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H100" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K100" s="5" t="n">
-        <v>1477590.79</v>
-      </c>
-      <c r="L100" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" s="5" t="inlineStr">
-        <is>
-          <t>PHP 1,472,159.77</t>
-        </is>
-      </c>
-      <c r="N100" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O100" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P100" s="6" t="n">
-        <v>45160</v>
-      </c>
-      <c r="Q100" s="5" t="inlineStr"/>
-      <c r="R100" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF BATCH 2</t>
-        </is>
-      </c>
-      <c r="S100" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2023-002</t>
-        </is>
-      </c>
-      <c r="T100" s="6" t="n">
-        <v>44988</v>
-      </c>
-      <c r="U100" s="6" t="n">
-        <v>44995</v>
-      </c>
-      <c r="V100" s="6" t="n">
-        <v>45007</v>
-      </c>
-      <c r="W100" s="6" t="n">
-        <v>45030</v>
-      </c>
-      <c r="X100" s="6" t="n">
-        <v>45035</v>
-      </c>
-      <c r="Y100" s="5" t="inlineStr">
-        <is>
-          <t>TRIPLE JO CONSTRUCTION SERVICES</t>
-        </is>
-      </c>
-      <c r="Z100" s="5" t="inlineStr"/>
-      <c r="AA100" s="7" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B101" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C101" s="5" t="inlineStr">
-        <is>
-          <t>Negros Oriental</t>
-        </is>
-      </c>
-      <c r="D101" s="5" t="n">
-        <v>120033</v>
-      </c>
-      <c r="E101" s="5" t="inlineStr">
-        <is>
-          <t>Ayungon CES</t>
-        </is>
-      </c>
-      <c r="F101" s="5" t="inlineStr">
-        <is>
-          <t>AYUNGON</t>
-        </is>
-      </c>
-      <c r="G101" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H101" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J101" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K101" s="5" t="n">
-        <v>7088958.804809313</v>
-      </c>
-      <c r="L101" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" s="5" t="inlineStr">
-        <is>
-          <t>6, 210,000.00</t>
-        </is>
-      </c>
-      <c r="N101" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O101" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P101" s="6" t="n">
-        <v>45201</v>
-      </c>
-      <c r="Q101" s="5" t="inlineStr"/>
-      <c r="R101" s="5" t="inlineStr">
-        <is>
-          <t>ITB-2023-02-018</t>
-        </is>
-      </c>
-      <c r="S101" s="5" t="inlineStr">
-        <is>
-          <t>QRF202304018</t>
-        </is>
-      </c>
-      <c r="T101" s="6" t="n">
-        <v>44974</v>
-      </c>
-      <c r="U101" s="6" t="n">
-        <v>44984</v>
-      </c>
-      <c r="V101" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="W101" s="6" t="n">
-        <v>45021</v>
-      </c>
-      <c r="X101" s="6" t="n">
-        <v>45040</v>
-      </c>
-      <c r="Y101" s="5" t="inlineStr">
-        <is>
-          <t>TRIBATA Construction</t>
-        </is>
-      </c>
-      <c r="Z101" s="5" t="inlineStr"/>
-      <c r="AA101" s="7" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B102" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C102" s="5" t="inlineStr">
-        <is>
-          <t>Negros Oriental</t>
-        </is>
-      </c>
-      <c r="D102" s="5" t="n">
-        <v>120298</v>
-      </c>
-      <c r="E102" s="5" t="inlineStr">
-        <is>
-          <t>Jimalalud Central School</t>
-        </is>
-      </c>
-      <c r="F102" s="5" t="inlineStr">
-        <is>
-          <t>JIMALALUD</t>
-        </is>
-      </c>
-      <c r="G102" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H102" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J102" s="5" t="inlineStr">
-        <is>
-          <t>Replacement</t>
-        </is>
-      </c>
-      <c r="K102" s="5" t="n">
-        <v>6803850.40693951</v>
-      </c>
-      <c r="L102" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" s="5" t="n">
-        <v>6741884.8</v>
-      </c>
-      <c r="N102" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O102" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P102" s="6" t="n">
-        <v>45261</v>
-      </c>
-      <c r="Q102" s="5" t="inlineStr"/>
-      <c r="R102" s="5" t="inlineStr">
-        <is>
-          <t>ITB-2023-02-025</t>
-        </is>
-      </c>
-      <c r="S102" s="5" t="inlineStr">
-        <is>
-          <t>QRF202304021</t>
-        </is>
-      </c>
-      <c r="T102" s="6" t="n">
-        <v>44980</v>
-      </c>
-      <c r="U102" s="6" t="n">
-        <v>44988</v>
-      </c>
-      <c r="V102" s="6" t="n">
-        <v>45000</v>
-      </c>
-      <c r="W102" s="6" t="n">
-        <v>45021</v>
-      </c>
-      <c r="X102" s="6" t="n">
-        <v>45036</v>
-      </c>
-      <c r="Y102" s="5" t="inlineStr">
-        <is>
-          <t>PAR Builders, Elecrical and Construction Supply Corp.</t>
-        </is>
-      </c>
-      <c r="Z102" s="5" t="inlineStr"/>
-      <c r="AA102" s="7" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B103" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C103" s="5" t="inlineStr">
-        <is>
-          <t>Negros Oriental</t>
-        </is>
-      </c>
-      <c r="D103" s="5" t="n">
-        <v>120298</v>
-      </c>
-      <c r="E103" s="5" t="inlineStr">
-        <is>
-          <t>Jimalalud Central School</t>
-        </is>
-      </c>
-      <c r="F103" s="5" t="inlineStr">
-        <is>
-          <t>JIMALALUD</t>
-        </is>
-      </c>
-      <c r="G103" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H103" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J103" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K103" s="5" t="n">
-        <v>14977836.0542745</v>
-      </c>
-      <c r="L103" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" s="5" t="n">
-        <v>14860634.65</v>
-      </c>
-      <c r="N103" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O103" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P103" s="6" t="n">
-        <v>45231</v>
-      </c>
-      <c r="Q103" s="5" t="inlineStr"/>
-      <c r="R103" s="5" t="inlineStr">
-        <is>
-          <t>ITB-2023-02-019</t>
-        </is>
-      </c>
-      <c r="S103" s="5" t="inlineStr">
-        <is>
-          <t>QRF202304019</t>
-        </is>
-      </c>
-      <c r="T103" s="6" t="n">
-        <v>44974</v>
-      </c>
-      <c r="U103" s="6" t="n">
-        <v>44984</v>
-      </c>
-      <c r="V103" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="W103" s="6" t="n">
-        <v>45021</v>
-      </c>
-      <c r="X103" s="6" t="n">
-        <v>45040</v>
-      </c>
-      <c r="Y103" s="5" t="inlineStr">
-        <is>
-          <t>Micro Asia Builders Corporation</t>
-        </is>
-      </c>
-      <c r="Z103" s="5" t="inlineStr"/>
-      <c r="AA103" s="7" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B104" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C104" s="5" t="inlineStr">
-        <is>
-          <t>Negros Oriental</t>
-        </is>
-      </c>
-      <c r="D104" s="5" t="n">
-        <v>120395</v>
-      </c>
-      <c r="E104" s="5" t="inlineStr">
-        <is>
-          <t>Manjuyod CES</t>
-        </is>
-      </c>
-      <c r="F104" s="5" t="inlineStr">
-        <is>
-          <t>MANJUYOD</t>
-        </is>
-      </c>
-      <c r="G104" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H104" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J104" s="5" t="inlineStr">
-        <is>
-          <t>Replacement</t>
-        </is>
-      </c>
-      <c r="K104" s="5" t="n">
-        <v>11766399.6233256</v>
-      </c>
-      <c r="L104" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" s="5" t="n">
-        <v>10996219.44</v>
-      </c>
-      <c r="N104" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O104" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P104" s="6" t="n">
-        <v>45261</v>
-      </c>
-      <c r="Q104" s="5" t="inlineStr">
-        <is>
-          <t>December 18, 2023</t>
-        </is>
-      </c>
-      <c r="R104" s="5" t="inlineStr">
-        <is>
-          <t>ITB-2023-02-026</t>
-        </is>
-      </c>
-      <c r="S104" s="5" t="inlineStr">
-        <is>
-          <t>QRF202304022</t>
-        </is>
-      </c>
-      <c r="T104" s="6" t="n">
-        <v>44980</v>
-      </c>
-      <c r="U104" s="6" t="n">
-        <v>44988</v>
-      </c>
-      <c r="V104" s="6" t="n">
-        <v>45000</v>
-      </c>
-      <c r="W104" s="6" t="n">
-        <v>45021</v>
-      </c>
-      <c r="X104" s="6" t="n">
-        <v>45036</v>
-      </c>
-      <c r="Y104" s="5" t="inlineStr">
-        <is>
-          <t>PAR Builders, Elecrical and Construction Supply Corp.</t>
-        </is>
-      </c>
-      <c r="Z104" s="5" t="inlineStr"/>
-      <c r="AA104" s="7" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B105" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C105" s="5" t="inlineStr">
-        <is>
-          <t>Negros Oriental</t>
-        </is>
-      </c>
-      <c r="D105" s="5" t="n">
-        <v>120395</v>
-      </c>
-      <c r="E105" s="5" t="inlineStr">
-        <is>
-          <t>Manjuyod CES</t>
-        </is>
-      </c>
-      <c r="F105" s="5" t="inlineStr">
-        <is>
-          <t>MANJUYOD</t>
-        </is>
-      </c>
-      <c r="G105" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H105" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="J105" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K105" s="5" t="n">
-        <v>40783735.53406513</v>
-      </c>
-      <c r="L105" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" s="5" t="n">
-        <v>37483431.65</v>
-      </c>
-      <c r="N105" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O105" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P105" s="6" t="n">
-        <v>45301</v>
-      </c>
-      <c r="Q105" s="5" t="inlineStr">
-        <is>
-          <t>December 18, 2023</t>
-        </is>
-      </c>
-      <c r="R105" s="5" t="inlineStr">
-        <is>
-          <t>ITB-2023-02-020</t>
-        </is>
-      </c>
-      <c r="S105" s="5" t="inlineStr">
-        <is>
-          <t>QRF202304020</t>
-        </is>
-      </c>
-      <c r="T105" s="6" t="n">
-        <v>44974</v>
-      </c>
-      <c r="U105" s="6" t="n">
-        <v>44984</v>
-      </c>
-      <c r="V105" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="W105" s="6" t="n">
-        <v>45021</v>
-      </c>
-      <c r="X105" s="6" t="n">
-        <v>45040</v>
-      </c>
-      <c r="Y105" s="5" t="inlineStr">
-        <is>
-          <t>TRINITYCAD Corporation</t>
-        </is>
-      </c>
-      <c r="Z105" s="5" t="inlineStr"/>
-      <c r="AA105" s="7" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B106" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C106" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City</t>
-        </is>
-      </c>
-      <c r="D106" s="5" t="n">
-        <v>118713</v>
-      </c>
-      <c r="E106" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City Central Elementary School</t>
-        </is>
-      </c>
-      <c r="F106" s="5" t="inlineStr">
-        <is>
-          <t>TAGBILARAN CITY (Capital)</t>
-        </is>
-      </c>
-      <c r="G106" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H106" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J106" s="5" t="inlineStr">
-        <is>
-          <t>Replacement</t>
-        </is>
-      </c>
-      <c r="K106" s="5" t="n">
-        <v>17000000</v>
-      </c>
-      <c r="L106" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" s="5" t="n">
-        <v>16952019.97</v>
-      </c>
-      <c r="N106" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O106" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P106" s="6" t="n">
-        <v>45198</v>
-      </c>
-      <c r="Q106" s="5" t="inlineStr">
-        <is>
-          <t>February 10, 2024</t>
-        </is>
-      </c>
-      <c r="R106" s="5" t="inlineStr">
-        <is>
-          <t>2023-003-Infra</t>
-        </is>
-      </c>
-      <c r="S106" s="5" t="inlineStr"/>
-      <c r="T106" s="6" t="n">
-        <v>44995</v>
-      </c>
-      <c r="U106" s="5" t="inlineStr"/>
-      <c r="V106" s="6" t="n">
-        <v>45016</v>
-      </c>
-      <c r="W106" s="6" t="n">
-        <v>45021</v>
-      </c>
-      <c r="X106" s="6" t="n">
-        <v>45036</v>
-      </c>
-      <c r="Y106" s="5" t="inlineStr">
-        <is>
-          <t>DOLCI Construction and General Merchandise</t>
-        </is>
-      </c>
-      <c r="Z106" s="5" t="inlineStr"/>
-      <c r="AA106" s="7" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B107" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C107" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City</t>
-        </is>
-      </c>
-      <c r="D107" s="5" t="n">
-        <v>118713</v>
-      </c>
-      <c r="E107" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City Central Elementary School</t>
-        </is>
-      </c>
-      <c r="F107" s="5" t="inlineStr">
-        <is>
-          <t>TAGBILARAN CITY (Capital)</t>
-        </is>
-      </c>
-      <c r="G107" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H107" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J107" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K107" s="5" t="n">
-        <v>3600000</v>
-      </c>
-      <c r="L107" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" s="5" t="n">
-        <v>16952019.97</v>
-      </c>
-      <c r="N107" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O107" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P107" s="6" t="n">
-        <v>45111</v>
-      </c>
-      <c r="Q107" s="6" t="n">
-        <v>45071</v>
-      </c>
-      <c r="R107" s="5" t="inlineStr">
-        <is>
-          <t>2023-001-Infra</t>
-        </is>
-      </c>
-      <c r="S107" s="5" t="inlineStr"/>
-      <c r="T107" s="6" t="n">
-        <v>44981</v>
-      </c>
-      <c r="U107" s="5" t="inlineStr"/>
-      <c r="V107" s="6" t="n">
-        <v>45002</v>
-      </c>
-      <c r="W107" s="6" t="n">
-        <v>45006</v>
-      </c>
-      <c r="X107" s="6" t="n">
-        <v>45019</v>
-      </c>
-      <c r="Y107" s="5" t="inlineStr">
-        <is>
-          <t>C.Jansen Construction and General Merchandise</t>
-        </is>
-      </c>
-      <c r="Z107" s="5" t="inlineStr"/>
-      <c r="AA107" s="7" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B108" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C108" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City</t>
-        </is>
-      </c>
-      <c r="D108" s="5" t="n">
-        <v>233001</v>
-      </c>
-      <c r="E108" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City Central School SPED Center</t>
-        </is>
-      </c>
-      <c r="F108" s="5" t="inlineStr">
-        <is>
-          <t>TAGBILARAN CITY (Capital)</t>
-        </is>
-      </c>
-      <c r="G108" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H108" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J108" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K108" s="5" t="n">
-        <v>900000</v>
-      </c>
-      <c r="L108" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" s="5" t="inlineStr"/>
-      <c r="N108" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O108" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P108" s="6" t="n">
-        <v>45111</v>
-      </c>
-      <c r="Q108" s="6" t="n">
-        <v>45071</v>
-      </c>
-      <c r="R108" s="5" t="inlineStr">
-        <is>
-          <t>2023-002-Infra</t>
-        </is>
-      </c>
-      <c r="S108" s="5" t="inlineStr"/>
-      <c r="T108" s="6" t="n">
-        <v>44981</v>
-      </c>
-      <c r="U108" s="5" t="inlineStr"/>
-      <c r="V108" s="6" t="n">
-        <v>45002</v>
-      </c>
-      <c r="W108" s="6" t="n">
-        <v>45006</v>
-      </c>
-      <c r="X108" s="6" t="n">
-        <v>45019</v>
-      </c>
-      <c r="Y108" s="5" t="inlineStr">
-        <is>
-          <t>C.Jansen Construction and General Merchandise</t>
-        </is>
-      </c>
-      <c r="Z108" s="5" t="inlineStr"/>
-      <c r="AA108" s="7" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B109" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C109" s="5" t="inlineStr">
-        <is>
-          <t>Tanjay City</t>
-        </is>
-      </c>
-      <c r="D109" s="5" t="n">
-        <v>120563</v>
-      </c>
-      <c r="E109" s="5" t="inlineStr">
-        <is>
-          <t>Sta. Cruz CES</t>
-        </is>
-      </c>
-      <c r="F109" s="5" t="inlineStr">
-        <is>
-          <t>CITY OF TANJAY</t>
-        </is>
-      </c>
-      <c r="G109" s="5" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="H109" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J109" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K109" s="5" t="n">
-        <v>2520000</v>
-      </c>
-      <c r="L109" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" s="5" t="inlineStr"/>
-      <c r="N109" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O109" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P109" s="5" t="inlineStr"/>
-      <c r="Q109" s="5" t="inlineStr"/>
-      <c r="R109" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S109" s="5" t="inlineStr"/>
-      <c r="T109" s="5" t="inlineStr"/>
-      <c r="U109" s="5" t="inlineStr"/>
-      <c r="V109" s="5" t="inlineStr"/>
-      <c r="W109" s="5" t="inlineStr"/>
-      <c r="X109" s="5" t="inlineStr"/>
-      <c r="Y109" s="5" t="inlineStr"/>
-      <c r="Z109" s="5" t="inlineStr"/>
-      <c r="AA109" s="7" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2024</t>
-        </is>
-      </c>
-      <c r="B110" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C110" s="5" t="inlineStr">
-        <is>
-          <t>Negros Oriental</t>
-        </is>
-      </c>
-      <c r="D110" s="5" t="n">
-        <v>120356</v>
-      </c>
-      <c r="E110" s="5" t="inlineStr">
-        <is>
-          <t>Dahile ES</t>
-        </is>
-      </c>
-      <c r="F110" s="5" t="inlineStr">
-        <is>
-          <t>MABINAY</t>
-        </is>
-      </c>
-      <c r="G110" s="5" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="H110" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J110" s="5" t="inlineStr">
-        <is>
-          <t>2-UNITS 1STY4CL with Common Toilet</t>
-        </is>
-      </c>
-      <c r="K110" s="5" t="n">
-        <v>26312604.57</v>
-      </c>
-      <c r="L110" s="5" t="inlineStr">
-        <is>
-          <t>1- NC</t>
-        </is>
-      </c>
-      <c r="M110" s="5" t="n">
-        <v>24508091.67</v>
-      </c>
-      <c r="N110" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="O110" s="5" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P110" s="5" t="inlineStr">
-        <is>
-          <t>February 15,2026</t>
-        </is>
-      </c>
-      <c r="Q110" s="5" t="inlineStr"/>
-      <c r="R110" s="5" t="inlineStr">
-        <is>
-          <t>ITB2024-07-143</t>
-        </is>
-      </c>
-      <c r="S110" s="5" t="inlineStr">
-        <is>
-          <t>QRF202409029</t>
-        </is>
-      </c>
-      <c r="T110" s="5" t="inlineStr">
-        <is>
-          <t>August 8, 2024</t>
-        </is>
-      </c>
-      <c r="U110" s="5" t="inlineStr">
-        <is>
-          <t>August 16, 2024</t>
-        </is>
-      </c>
-      <c r="V110" s="5" t="inlineStr">
-        <is>
-          <t>August 28, 2024</t>
-        </is>
-      </c>
-      <c r="W110" s="5" t="inlineStr">
-        <is>
-          <t>September 19, 2024</t>
-        </is>
-      </c>
-      <c r="X110" s="5" t="inlineStr">
-        <is>
-          <t>October 11,2024</t>
-        </is>
-      </c>
-      <c r="Y110" s="5" t="inlineStr">
-        <is>
-          <t>TrinityCAD Corporation</t>
-        </is>
-      </c>
-      <c r="Z110" s="5" t="inlineStr"/>
-      <c r="AA110" s="7" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2024</t>
-        </is>
-      </c>
-      <c r="B111" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C111" s="5" t="inlineStr">
-        <is>
-          <t>Negros Oriental</t>
-        </is>
-      </c>
-      <c r="D111" s="5" t="n">
-        <v>120474</v>
-      </c>
-      <c r="E111" s="5" t="inlineStr">
-        <is>
-          <t>Palayuhan ES</t>
-        </is>
-      </c>
-      <c r="F111" s="5" t="inlineStr">
-        <is>
-          <t>SIATON</t>
-        </is>
-      </c>
-      <c r="G111" s="5" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="H111" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J111" s="5" t="inlineStr">
-        <is>
-          <t>Repair of Classrooms</t>
-        </is>
-      </c>
-      <c r="K111" s="5" t="n">
-        <v>1801517.91</v>
-      </c>
-      <c r="L111" s="5" t="inlineStr">
-        <is>
-          <t>1- R</t>
-        </is>
-      </c>
-      <c r="M111" s="5" t="n">
-        <v>1329769.5</v>
-      </c>
-      <c r="N111" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="O111" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P111" s="5" t="inlineStr">
-        <is>
-          <t>December 21, 2024</t>
-        </is>
-      </c>
-      <c r="Q111" s="5" t="inlineStr"/>
-      <c r="R111" s="5" t="inlineStr">
-        <is>
-          <t>ITB2024-07-144</t>
-        </is>
-      </c>
-      <c r="S111" s="5" t="inlineStr">
-        <is>
-          <t>QRF202409030</t>
-        </is>
-      </c>
-      <c r="T111" s="5" t="inlineStr">
-        <is>
-          <t>August 8, 2024</t>
-        </is>
-      </c>
-      <c r="U111" s="5" t="inlineStr">
-        <is>
-          <t>August 16, 2024</t>
-        </is>
-      </c>
-      <c r="V111" s="5" t="inlineStr">
-        <is>
-          <t>August 28, 2024</t>
-        </is>
-      </c>
-      <c r="W111" s="5" t="inlineStr">
-        <is>
-          <t>September 19, 2024</t>
-        </is>
-      </c>
-      <c r="X111" s="5" t="inlineStr">
-        <is>
-          <t>October 11,2024</t>
-        </is>
-      </c>
-      <c r="Y111" s="5" t="inlineStr">
-        <is>
-          <t>MCS-9 Construction</t>
-        </is>
-      </c>
-      <c r="Z111" s="5" t="inlineStr"/>
-      <c r="AA111" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA111" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA98" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VII/Region VII_QRF.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_QRF.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA98"/>
+  <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -632,24 +632,24 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>Bais City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>120093</v>
+        <v>118092</v>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>Lo-oc ES</t>
+          <t>Calape Central ES</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>BAIS CITY</t>
+          <t>CALAPE</t>
         </is>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>1</v>
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="K2" s="5" t="n">
-        <v>2505799.851135</v>
+        <v>2035879.10225805</v>
       </c>
       <c r="L2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>2204740.3</v>
+        <v>1688711.75</v>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
@@ -680,30 +680,28 @@
         <v>1</v>
       </c>
       <c r="P2" s="6" t="n">
-        <v>44914</v>
+        <v>45082</v>
       </c>
       <c r="Q2" s="5" t="inlineStr"/>
       <c r="R2" s="5" t="inlineStr"/>
       <c r="S2" s="5" t="inlineStr"/>
-      <c r="T2" s="5" t="inlineStr"/>
+      <c r="T2" s="6" t="n">
+        <v>44785</v>
+      </c>
       <c r="U2" s="6" t="n">
-        <v>44727</v>
+        <v>44795</v>
       </c>
       <c r="V2" s="6" t="n">
-        <v>44740</v>
-      </c>
-      <c r="W2" s="6" t="n">
-        <v>44783</v>
-      </c>
-      <c r="X2" s="6" t="n">
-        <v>44792</v>
-      </c>
-      <c r="Y2" s="5" t="inlineStr">
-        <is>
-          <t>Per Construction and Supply</t>
-        </is>
-      </c>
-      <c r="Z2" s="5" t="inlineStr"/>
+        <v>44810</v>
+      </c>
+      <c r="W2" s="5" t="inlineStr"/>
+      <c r="X2" s="5" t="inlineStr"/>
+      <c r="Y2" s="5" t="inlineStr"/>
+      <c r="Z2" s="5" t="inlineStr">
+        <is>
+          <t>ONGOING POST QUA</t>
+        </is>
+      </c>
       <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
@@ -719,44 +717,44 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>Bayawan City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>120123</v>
+        <v>118169</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>Bayawan City East Central School</t>
+          <t>Catigbian Central ES</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>CITY OF BAYAWAN (TULONG)</t>
+          <t>CATIGBIAN</t>
         </is>
       </c>
       <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>11</v>
-      </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K3" s="5" t="n">
-        <v>4843369.123792801</v>
+        <v>394702.3277925</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>4798000</v>
+        <v>8481676.16</v>
       </c>
       <c r="N3" s="5" t="inlineStr">
         <is>
@@ -766,31 +764,29 @@
       <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="5" t="inlineStr"/>
+      <c r="P3" s="6" t="n">
+        <v>45073</v>
+      </c>
       <c r="Q3" s="5" t="inlineStr"/>
       <c r="R3" s="5" t="inlineStr"/>
       <c r="S3" s="5" t="inlineStr"/>
       <c r="T3" s="6" t="n">
-        <v>44722</v>
+        <v>44785</v>
       </c>
       <c r="U3" s="6" t="n">
-        <v>44728</v>
+        <v>44795</v>
       </c>
       <c r="V3" s="6" t="n">
-        <v>44740</v>
-      </c>
-      <c r="W3" s="6" t="n">
-        <v>44749</v>
-      </c>
-      <c r="X3" s="6" t="n">
-        <v>44782</v>
-      </c>
-      <c r="Y3" s="5" t="inlineStr">
-        <is>
-          <t>RISM Builders</t>
-        </is>
-      </c>
-      <c r="Z3" s="5" t="inlineStr"/>
+        <v>44810</v>
+      </c>
+      <c r="W3" s="5" t="inlineStr"/>
+      <c r="X3" s="5" t="inlineStr"/>
+      <c r="Y3" s="5" t="inlineStr"/>
+      <c r="Z3" s="5" t="inlineStr">
+        <is>
+          <t>ONGOING POST QUA</t>
+        </is>
+      </c>
       <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
@@ -810,40 +806,40 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>118092</v>
+        <v>118169</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>Calape Central ES</t>
+          <t>Catigbian Central ES</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>CALAPE</t>
+          <t>CATIGBIAN</t>
         </is>
       </c>
       <c r="G4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H4" s="5" t="inlineStr"/>
       <c r="I4" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2035879.10225805</v>
+        <v>10000000</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="5" t="n">
-        <v>1688711.75</v>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>one contract only</t>
+        </is>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
@@ -854,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>45082</v>
+        <v>45073</v>
       </c>
       <c r="Q4" s="5" t="inlineStr"/>
       <c r="R4" s="5" t="inlineStr"/>
@@ -895,11 +891,11 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>118169</v>
+        <v>118170</v>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>Catigbian Central ES</t>
+          <t>Catigbian West Central ES</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
@@ -914,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
@@ -922,13 +918,13 @@
         </is>
       </c>
       <c r="K5" s="5" t="n">
-        <v>394702.3277925</v>
+        <v>2464214.5948009</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8481676.16</v>
+        <v>2078987.8</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
@@ -939,9 +935,11 @@
         <v>1</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>45073</v>
-      </c>
-      <c r="Q5" s="5" t="inlineStr"/>
+        <v>45074</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>45120</v>
+      </c>
       <c r="R5" s="5" t="inlineStr"/>
       <c r="S5" s="5" t="inlineStr"/>
       <c r="T5" s="6" t="n">
@@ -956,11 +954,7 @@
       <c r="W5" s="5" t="inlineStr"/>
       <c r="X5" s="5" t="inlineStr"/>
       <c r="Y5" s="5" t="inlineStr"/>
-      <c r="Z5" s="5" t="inlineStr">
-        <is>
-          <t>ONGOING POST QUA</t>
-        </is>
-      </c>
+      <c r="Z5" s="5" t="inlineStr"/>
       <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
@@ -980,53 +974,55 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>118169</v>
+        <v>118485</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Catigbian Central ES</t>
+          <t>Loon North Central ES</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>CATIGBIAN</t>
+          <t>LOON</t>
         </is>
       </c>
       <c r="G6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I6" s="5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10000000</v>
+        <v>9920579.67963036</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>one contract only</t>
-        </is>
+      <c r="M6" s="5" t="n">
+        <v>10807364.11</v>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>45073</v>
-      </c>
-      <c r="Q6" s="5" t="inlineStr"/>
+        <v>45117</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>45092</v>
+      </c>
       <c r="R6" s="5" t="inlineStr"/>
       <c r="S6" s="5" t="inlineStr"/>
       <c r="T6" s="6" t="n">
@@ -1065,54 +1061,54 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>118170</v>
+        <v>118485</v>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>Catigbian West Central ES</t>
+          <t>Loon North Central ES</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>CATIGBIAN</t>
+          <t>LOON</t>
         </is>
       </c>
       <c r="G7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H7" s="5" t="inlineStr"/>
       <c r="I7" s="5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K7" s="5" t="n">
-        <v>2464214.5948009</v>
+        <v>5000000</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="5" t="n">
-        <v>2078987.8</v>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>one contract only</t>
+        </is>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>45074</v>
+        <v>45117</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>45120</v>
+        <v>45092</v>
       </c>
       <c r="R7" s="5" t="inlineStr"/>
       <c r="S7" s="5" t="inlineStr"/>
@@ -1128,7 +1124,11 @@
       <c r="W7" s="5" t="inlineStr"/>
       <c r="X7" s="5" t="inlineStr"/>
       <c r="Y7" s="5" t="inlineStr"/>
-      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="Z7" s="5" t="inlineStr">
+        <is>
+          <t>ONGOING POST QUA</t>
+        </is>
+      </c>
       <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>118485</v>
+        <v>118500</v>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>Loon North Central ES</t>
+          <t>Loon South Central ES</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
@@ -1175,14 +1175,12 @@
         </is>
       </c>
       <c r="K8" s="5" t="n">
-        <v>9920579.67963036</v>
+        <v>4011500.38284288</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M8" s="5" t="n">
-        <v>10807364.11</v>
-      </c>
+      <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1192,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>45117</v>
+        <v>45087</v>
       </c>
       <c r="Q8" s="6" t="n">
-        <v>45092</v>
+        <v>45064</v>
       </c>
       <c r="R8" s="5" t="inlineStr"/>
       <c r="S8" s="5" t="inlineStr"/>
@@ -1235,40 +1233,40 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>118485</v>
+        <v>118544</v>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>Loon North Central ES</t>
+          <t>Maribojoc Central Elementary School</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>LOON</t>
+          <t>MARIBOJOC</t>
         </is>
       </c>
       <c r="G9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I9" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5000000</v>
+        <v>1123979.49783049</v>
       </c>
       <c r="L9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="5" t="inlineStr">
-        <is>
-          <t>one contract only</t>
-        </is>
+      <c r="M9" s="5" t="n">
+        <v>949762.26</v>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
@@ -1279,11 +1277,9 @@
         <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>45117</v>
-      </c>
-      <c r="Q9" s="6" t="n">
-        <v>45092</v>
-      </c>
+        <v>45082</v>
+      </c>
+      <c r="Q9" s="5" t="inlineStr"/>
       <c r="R9" s="5" t="inlineStr"/>
       <c r="S9" s="5" t="inlineStr"/>
       <c r="T9" s="6" t="n">
@@ -1322,16 +1318,16 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>118500</v>
+        <v>118797</v>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>Loon South Central ES</t>
+          <t>Tubigon West Central ES</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>LOON</t>
+          <t>TUBIGON</t>
         </is>
       </c>
       <c r="G10" s="5" t="n">
@@ -1341,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
@@ -1349,12 +1345,14 @@
         </is>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4011500.38284288</v>
+        <v>7865817.49626269</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>7848025.48</v>
+      </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1364,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>45087</v>
+        <v>45072</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>45064</v>
+        <v>373821</v>
       </c>
       <c r="R10" s="5" t="inlineStr"/>
       <c r="S10" s="5" t="inlineStr"/>
@@ -1407,16 +1405,16 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>118544</v>
+        <v>312333</v>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Maribojoc Central Elementary School</t>
+          <t>Tubigon West Central HS</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>MARIBOJOC</t>
+          <t>TUBIGON</t>
         </is>
       </c>
       <c r="G11" s="5" t="n">
@@ -1426,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
@@ -1434,13 +1432,13 @@
         </is>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1123979.49783049</v>
+        <v>3010520.9926508</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>949762.26</v>
+        <v>2080522.21</v>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
@@ -1451,9 +1449,11 @@
         <v>1</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>45082</v>
-      </c>
-      <c r="Q11" s="5" t="inlineStr"/>
+        <v>45110</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>45080</v>
+      </c>
       <c r="R11" s="5" t="inlineStr"/>
       <c r="S11" s="5" t="inlineStr"/>
       <c r="T11" s="6" t="n">
@@ -1492,26 +1492,26 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>118797</v>
+        <v>118065</v>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>Tubigon West Central ES</t>
+          <t>Buenavista CES</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>TUBIGON</t>
+          <t>BUENAVISTA</t>
         </is>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
@@ -1519,27 +1519,25 @@
         </is>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7865817.49626269</v>
+        <v>2690422.9532943</v>
       </c>
       <c r="L12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="5" t="n">
-        <v>7848025.48</v>
-      </c>
+      <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>45072</v>
+        <v>45074</v>
       </c>
       <c r="Q12" s="6" t="n">
-        <v>373821</v>
+        <v>45082</v>
       </c>
       <c r="R12" s="5" t="inlineStr"/>
       <c r="S12" s="5" t="inlineStr"/>
@@ -1579,26 +1577,26 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>312333</v>
+        <v>312321</v>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Tubigon West Central HS</t>
+          <t>San Miguel-Puertos HS</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>TUBIGON</t>
+          <t>DAGOHOY</t>
         </is>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
@@ -1606,28 +1604,24 @@
         </is>
       </c>
       <c r="K13" s="5" t="n">
-        <v>3010520.9926508</v>
+        <v>3895366.22554905</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="5" t="n">
-        <v>2080522.21</v>
-      </c>
+      <c r="M13" s="5" t="inlineStr"/>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>45110</v>
-      </c>
-      <c r="Q13" s="6" t="n">
-        <v>45080</v>
-      </c>
+        <v>45072</v>
+      </c>
+      <c r="Q13" s="5" t="inlineStr"/>
       <c r="R13" s="5" t="inlineStr"/>
       <c r="S13" s="5" t="inlineStr"/>
       <c r="T13" s="6" t="n">
@@ -1642,11 +1636,7 @@
       <c r="W13" s="5" t="inlineStr"/>
       <c r="X13" s="5" t="inlineStr"/>
       <c r="Y13" s="5" t="inlineStr"/>
-      <c r="Z13" s="5" t="inlineStr">
-        <is>
-          <t>ONGOING POST QUA</t>
-        </is>
-      </c>
+      <c r="Z13" s="5" t="inlineStr"/>
       <c r="AA13" s="7" t="n"/>
     </row>
     <row r="14">
@@ -1666,16 +1656,16 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>118065</v>
+        <v>118239</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Buenavista CES</t>
+          <t>Danao Central Elementary School</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>DANAO</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
@@ -1685,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
@@ -1693,7 +1683,7 @@
         </is>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2690422.9532943</v>
+        <v>7899199.842893102</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>1</v>
@@ -1701,17 +1691,17 @@
       <c r="M14" s="5" t="inlineStr"/>
       <c r="N14" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>45074</v>
+        <v>45192</v>
       </c>
       <c r="Q14" s="6" t="n">
-        <v>45082</v>
+        <v>45184</v>
       </c>
       <c r="R14" s="5" t="inlineStr"/>
       <c r="S14" s="5" t="inlineStr"/>
@@ -1727,11 +1717,7 @@
       <c r="W14" s="5" t="inlineStr"/>
       <c r="X14" s="5" t="inlineStr"/>
       <c r="Y14" s="5" t="inlineStr"/>
-      <c r="Z14" s="5" t="inlineStr">
-        <is>
-          <t>ONGOING POST QUA</t>
-        </is>
-      </c>
+      <c r="Z14" s="5" t="inlineStr"/>
       <c r="AA14" s="7" t="n"/>
     </row>
     <row r="15">
@@ -1751,51 +1737,55 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>312321</v>
+        <v>118239</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>San Miguel-Puertos HS</t>
+          <t>Danao Central Elementary School</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>DAGOHOY</t>
+          <t>DANAO</t>
         </is>
       </c>
       <c r="G15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3895366.22554905</v>
+        <v>15000000</v>
       </c>
       <c r="L15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>one contract only</t>
+        </is>
+      </c>
       <c r="N15" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>45072</v>
-      </c>
-      <c r="Q15" s="5" t="inlineStr"/>
+        <v>45192</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>45184</v>
+      </c>
       <c r="R15" s="5" t="inlineStr"/>
       <c r="S15" s="5" t="inlineStr"/>
       <c r="T15" s="6" t="n">
@@ -1810,7 +1800,11 @@
       <c r="W15" s="5" t="inlineStr"/>
       <c r="X15" s="5" t="inlineStr"/>
       <c r="Y15" s="5" t="inlineStr"/>
-      <c r="Z15" s="5" t="inlineStr"/>
+      <c r="Z15" s="5" t="inlineStr">
+        <is>
+          <t>realigned scope of works same school</t>
+        </is>
+      </c>
       <c r="AA15" s="7" t="n"/>
     </row>
     <row r="16">
@@ -1830,11 +1824,11 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>118239</v>
+        <v>118245</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Danao Central Elementary School</t>
+          <t>Rowena Heights Elementary School</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
@@ -1849,33 +1843,35 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7899199.842893102</v>
+        <v>7749834.84</v>
       </c>
       <c r="L16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="5" t="inlineStr"/>
+      <c r="M16" s="5" t="n">
+        <v>7719318.54</v>
+      </c>
       <c r="N16" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>45192</v>
+        <v>45090</v>
       </c>
       <c r="Q16" s="6" t="n">
-        <v>45184</v>
+        <v>45086</v>
       </c>
       <c r="R16" s="5" t="inlineStr"/>
       <c r="S16" s="5" t="inlineStr"/>
@@ -1891,7 +1887,11 @@
       <c r="W16" s="5" t="inlineStr"/>
       <c r="X16" s="5" t="inlineStr"/>
       <c r="Y16" s="5" t="inlineStr"/>
-      <c r="Z16" s="5" t="inlineStr"/>
+      <c r="Z16" s="5" t="inlineStr">
+        <is>
+          <t>realigned from cansibuan ps</t>
+        </is>
+      </c>
       <c r="AA16" s="7" t="n"/>
     </row>
     <row r="17">
@@ -1911,40 +1911,40 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>118239</v>
+        <v>118331</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Danao Central Elementary School</t>
+          <t>Getafe Central ES</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>DANAO</t>
+          <t>GETAFE</t>
         </is>
       </c>
       <c r="G17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="5" t="inlineStr"/>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I17" s="5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K17" s="5" t="n">
-        <v>15000000</v>
+        <v>4603452.9769347</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="5" t="inlineStr">
-        <is>
-          <t>one contract only</t>
-        </is>
+      <c r="M17" s="5" t="n">
+        <v>14585019</v>
       </c>
       <c r="N17" s="5" t="inlineStr">
         <is>
@@ -1955,11 +1955,9 @@
         <v>1</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>45192</v>
-      </c>
-      <c r="Q17" s="6" t="n">
-        <v>45184</v>
-      </c>
+        <v>45140</v>
+      </c>
+      <c r="Q17" s="5" t="inlineStr"/>
       <c r="R17" s="5" t="inlineStr"/>
       <c r="S17" s="5" t="inlineStr"/>
       <c r="T17" s="6" t="n">
@@ -1974,11 +1972,7 @@
       <c r="W17" s="5" t="inlineStr"/>
       <c r="X17" s="5" t="inlineStr"/>
       <c r="Y17" s="5" t="inlineStr"/>
-      <c r="Z17" s="5" t="inlineStr">
-        <is>
-          <t>realigned scope of works same school</t>
-        </is>
-      </c>
+      <c r="Z17" s="5" t="inlineStr"/>
       <c r="AA17" s="7" t="n"/>
     </row>
     <row r="18">
@@ -1998,16 +1992,16 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>118245</v>
+        <v>118331</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Rowena Heights Elementary School</t>
+          <t>Getafe Central ES</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>DANAO</t>
+          <t>GETAFE</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
@@ -2017,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
@@ -2025,28 +2019,28 @@
         </is>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7749834.84</v>
+        <v>10000000</v>
       </c>
       <c r="L18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M18" s="5" t="n">
-        <v>7719318.54</v>
+      <c r="M18" s="5" t="inlineStr">
+        <is>
+          <t>one contract only</t>
+        </is>
       </c>
       <c r="N18" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>45090</v>
-      </c>
-      <c r="Q18" s="6" t="n">
-        <v>45086</v>
-      </c>
+        <v>45140</v>
+      </c>
+      <c r="Q18" s="5" t="inlineStr"/>
       <c r="R18" s="5" t="inlineStr"/>
       <c r="S18" s="5" t="inlineStr"/>
       <c r="T18" s="6" t="n">
@@ -2063,7 +2057,7 @@
       <c r="Y18" s="5" t="inlineStr"/>
       <c r="Z18" s="5" t="inlineStr">
         <is>
-          <t>realigned from cansibuan ps</t>
+          <t>realigned scope of works same school</t>
         </is>
       </c>
       <c r="AA18" s="7" t="n"/>
@@ -2085,16 +2079,16 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>118331</v>
+        <v>118401</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Getafe Central ES</t>
+          <t>Inabanga South Central Elementary School</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>GETAFE</t>
+          <t>INABANGA</t>
         </is>
       </c>
       <c r="G19" s="5" t="n">
@@ -2104,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
@@ -2112,13 +2106,13 @@
         </is>
       </c>
       <c r="K19" s="5" t="n">
-        <v>4603452.9769347</v>
+        <v>9700192.598846402</v>
       </c>
       <c r="L19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14585019</v>
+        <v>8439155.949999999</v>
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
@@ -2129,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>45140</v>
+        <v>45171</v>
       </c>
       <c r="Q19" s="5" t="inlineStr"/>
       <c r="R19" s="5" t="inlineStr"/>
@@ -2166,16 +2160,16 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>118331</v>
+        <v>118600</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Getafe Central ES</t>
+          <t>President Carlos P. Garcia Central Elementary School</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>GETAFE</t>
+          <t>PRES. CARLOS P. GARCIA (PITOGO)</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
@@ -2185,23 +2179,21 @@
         <v>1</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K20" s="5" t="n">
-        <v>10000000</v>
+        <v>9625173.597864296</v>
       </c>
       <c r="L20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M20" s="5" t="inlineStr">
-        <is>
-          <t>one contract only</t>
-        </is>
+      <c r="M20" s="5" t="n">
+        <v>13325173.09</v>
       </c>
       <c r="N20" s="5" t="inlineStr">
         <is>
@@ -2212,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>45140</v>
+        <v>45157</v>
       </c>
       <c r="Q20" s="5" t="inlineStr"/>
       <c r="R20" s="5" t="inlineStr"/>
@@ -2231,7 +2223,7 @@
       <c r="Y20" s="5" t="inlineStr"/>
       <c r="Z20" s="5" t="inlineStr">
         <is>
-          <t>realigned scope of works same school</t>
+          <t>60 DAYS EXT(WARNING FOR TERMINATION)</t>
         </is>
       </c>
       <c r="AA20" s="7" t="n"/>
@@ -2253,40 +2245,40 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>118401</v>
+        <v>118600</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Inabanga South Central Elementary School</t>
+          <t>President Carlos P. Garcia Central Elementary School</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>INABANGA</t>
+          <t>PRES. CARLOS P. GARCIA (PITOGO)</t>
         </is>
       </c>
       <c r="G21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K21" s="5" t="n">
-        <v>9700192.598846402</v>
+        <v>7500000</v>
       </c>
       <c r="L21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M21" s="5" t="n">
-        <v>8439155.949999999</v>
+      <c r="M21" s="5" t="inlineStr">
+        <is>
+          <t>one contract only</t>
+        </is>
       </c>
       <c r="N21" s="5" t="inlineStr">
         <is>
@@ -2297,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>45171</v>
+        <v>45157</v>
       </c>
       <c r="Q21" s="5" t="inlineStr"/>
       <c r="R21" s="5" t="inlineStr"/>
@@ -2314,7 +2306,11 @@
       <c r="W21" s="5" t="inlineStr"/>
       <c r="X21" s="5" t="inlineStr"/>
       <c r="Y21" s="5" t="inlineStr"/>
-      <c r="Z21" s="5" t="inlineStr"/>
+      <c r="Z21" s="5" t="inlineStr">
+        <is>
+          <t>60 DAYS EXT(WARNING FOR TERMINATION)</t>
+        </is>
+      </c>
       <c r="AA21" s="7" t="n"/>
     </row>
     <row r="22">
@@ -2334,16 +2330,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>118600</v>
+        <v>118656</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>President Carlos P. Garcia Central Elementary School</t>
+          <t>San Miguel Central ES</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>PRES. CARLOS P. GARCIA (PITOGO)</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="G22" s="5" t="n">
@@ -2353,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
@@ -2361,14 +2357,12 @@
         </is>
       </c>
       <c r="K22" s="5" t="n">
-        <v>9625173.597864296</v>
+        <v>6065984.090376001</v>
       </c>
       <c r="L22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M22" s="5" t="n">
-        <v>13325173.09</v>
-      </c>
+      <c r="M22" s="5" t="inlineStr"/>
       <c r="N22" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2378,9 +2372,11 @@
         <v>1</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>45157</v>
-      </c>
-      <c r="Q22" s="5" t="inlineStr"/>
+        <v>45082</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>45070</v>
+      </c>
       <c r="R22" s="5" t="inlineStr"/>
       <c r="S22" s="5" t="inlineStr"/>
       <c r="T22" s="6" t="n">
@@ -2397,7 +2393,7 @@
       <c r="Y22" s="5" t="inlineStr"/>
       <c r="Z22" s="5" t="inlineStr">
         <is>
-          <t>60 DAYS EXT(WARNING FOR TERMINATION)</t>
+          <t>ONGOING POST QUA</t>
         </is>
       </c>
       <c r="AA22" s="7" t="n"/>
@@ -2419,16 +2415,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>118600</v>
+        <v>118656</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>President Carlos P. Garcia Central Elementary School</t>
+          <t>San Miguel Central ES</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>PRES. CARLOS P. GARCIA (PITOGO)</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="G23" s="5" t="n">
@@ -2436,7 +2432,7 @@
       </c>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5" t="inlineStr">
         <is>
@@ -2444,15 +2440,13 @@
         </is>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7500000</v>
+        <v>2500000</v>
       </c>
       <c r="L23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M23" s="5" t="inlineStr">
-        <is>
-          <t>one contract only</t>
-        </is>
+      <c r="M23" s="5" t="n">
+        <v>6766919.52</v>
       </c>
       <c r="N23" s="5" t="inlineStr">
         <is>
@@ -2463,9 +2457,11 @@
         <v>1</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>45157</v>
-      </c>
-      <c r="Q23" s="5" t="inlineStr"/>
+        <v>45082</v>
+      </c>
+      <c r="Q23" s="6" t="n">
+        <v>45070</v>
+      </c>
       <c r="R23" s="5" t="inlineStr"/>
       <c r="S23" s="5" t="inlineStr"/>
       <c r="T23" s="6" t="n">
@@ -2482,7 +2478,7 @@
       <c r="Y23" s="5" t="inlineStr"/>
       <c r="Z23" s="5" t="inlineStr">
         <is>
-          <t>60 DAYS EXT(WARNING FOR TERMINATION)</t>
+          <t>ONGOING POST QUA</t>
         </is>
       </c>
       <c r="AA23" s="7" t="n"/>
@@ -2504,16 +2500,16 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>118656</v>
+        <v>118729</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>San Miguel Central ES</t>
+          <t>Talibon Central ES</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>TALIBON</t>
         </is>
       </c>
       <c r="G24" s="5" t="n">
@@ -2523,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
@@ -2531,7 +2527,7 @@
         </is>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6065984.090376001</v>
+        <v>633410.9604878998</v>
       </c>
       <c r="L24" s="5" t="n">
         <v>1</v>
@@ -2545,11 +2541,9 @@
       <c r="O24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="6" t="n">
-        <v>45082</v>
-      </c>
+      <c r="P24" s="5" t="inlineStr"/>
       <c r="Q24" s="6" t="n">
-        <v>45070</v>
+        <v>45013</v>
       </c>
       <c r="R24" s="5" t="inlineStr"/>
       <c r="S24" s="5" t="inlineStr"/>
@@ -2589,39 +2583,39 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>118656</v>
+        <v>118743</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>San Miguel Central ES</t>
+          <t>TALIBON II CENTRAL ES</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>TALIBON</t>
         </is>
       </c>
       <c r="G25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="5" t="inlineStr"/>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I25" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K25" s="5" t="n">
-        <v>2500000</v>
+        <v>959316.7829573998</v>
       </c>
       <c r="L25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M25" s="5" t="n">
-        <v>6766919.52</v>
-      </c>
+      <c r="M25" s="5" t="inlineStr"/>
       <c r="N25" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2631,10 +2625,10 @@
         <v>1</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>45082</v>
+        <v>45079</v>
       </c>
       <c r="Q25" s="6" t="n">
-        <v>45070</v>
+        <v>46840</v>
       </c>
       <c r="R25" s="5" t="inlineStr"/>
       <c r="S25" s="5" t="inlineStr"/>
@@ -2674,16 +2668,16 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>118729</v>
+        <v>118768</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Talibon Central ES</t>
+          <t>Trinidad Central Elementary School</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>TALIBON</t>
+          <t>TRINIDAD</t>
         </is>
       </c>
       <c r="G26" s="5" t="n">
@@ -2693,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
@@ -2701,7 +2695,7 @@
         </is>
       </c>
       <c r="K26" s="5" t="n">
-        <v>633410.9604878998</v>
+        <v>2766141.850262248</v>
       </c>
       <c r="L26" s="5" t="n">
         <v>1</v>
@@ -2715,10 +2709,10 @@
       <c r="O26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P26" s="5" t="inlineStr"/>
-      <c r="Q26" s="6" t="n">
-        <v>45013</v>
-      </c>
+      <c r="P26" s="6" t="n">
+        <v>45079</v>
+      </c>
+      <c r="Q26" s="5" t="inlineStr"/>
       <c r="R26" s="5" t="inlineStr"/>
       <c r="S26" s="5" t="inlineStr"/>
       <c r="T26" s="6" t="n">
@@ -2757,16 +2751,16 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>118743</v>
+        <v>302899</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>TALIBON II CENTRAL ES</t>
+          <t>San Pascual National Agr'l HS</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>TALIBON</t>
+          <t>UBAY</t>
         </is>
       </c>
       <c r="G27" s="5" t="n">
@@ -2776,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
@@ -2784,12 +2778,14 @@
         </is>
       </c>
       <c r="K27" s="5" t="n">
-        <v>959316.7829573998</v>
+        <v>7670181.285455856</v>
       </c>
       <c r="L27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M27" s="5" t="inlineStr"/>
+      <c r="M27" s="5" t="n">
+        <v>6664002.04</v>
+      </c>
       <c r="N27" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2799,11 +2795,9 @@
         <v>1</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="Q27" s="6" t="n">
-        <v>46840</v>
-      </c>
+        <v>45140</v>
+      </c>
+      <c r="Q27" s="5" t="inlineStr"/>
       <c r="R27" s="5" t="inlineStr"/>
       <c r="S27" s="5" t="inlineStr"/>
       <c r="T27" s="6" t="n">
@@ -2820,7 +2814,7 @@
       <c r="Y27" s="5" t="inlineStr"/>
       <c r="Z27" s="5" t="inlineStr">
         <is>
-          <t>ONGOING POST QUA</t>
+          <t>FOR PUCNHLISTING</t>
         </is>
       </c>
       <c r="AA27" s="7" t="n"/>
@@ -2842,16 +2836,16 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>118768</v>
+        <v>118843</v>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Trinidad Central Elementary School</t>
+          <t>Ubay Central ES</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>TRINIDAD</t>
+          <t>UBAY</t>
         </is>
       </c>
       <c r="G28" s="5" t="n">
@@ -2861,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
@@ -2869,12 +2863,14 @@
         </is>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2766141.850262248</v>
+        <v>6137354.184406199</v>
       </c>
       <c r="L28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M28" s="5" t="inlineStr"/>
+      <c r="M28" s="5" t="n">
+        <v>5187762.92</v>
+      </c>
       <c r="N28" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2884,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="Q28" s="5" t="inlineStr"/>
       <c r="R28" s="5" t="inlineStr"/>
@@ -2901,11 +2897,7 @@
       <c r="W28" s="5" t="inlineStr"/>
       <c r="X28" s="5" t="inlineStr"/>
       <c r="Y28" s="5" t="inlineStr"/>
-      <c r="Z28" s="5" t="inlineStr">
-        <is>
-          <t>ONGOING POST QUA</t>
-        </is>
-      </c>
+      <c r="Z28" s="5" t="inlineStr"/>
       <c r="AA28" s="7" t="n"/>
     </row>
     <row r="29">
@@ -2925,11 +2917,11 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>302899</v>
+        <v>118804</v>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>San Pascual National Agr'l HS</t>
+          <t>Ubay II Central ES (Biabas CES )</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
@@ -2944,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
@@ -2952,14 +2944,12 @@
         </is>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7670181.285455856</v>
+        <v>4963731.7129869</v>
       </c>
       <c r="L29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M29" s="5" t="n">
-        <v>6664002.04</v>
-      </c>
+      <c r="M29" s="5" t="inlineStr"/>
       <c r="N29" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2969,9 +2959,11 @@
         <v>1</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>45140</v>
-      </c>
-      <c r="Q29" s="5" t="inlineStr"/>
+        <v>45087</v>
+      </c>
+      <c r="Q29" s="6" t="n">
+        <v>45063</v>
+      </c>
       <c r="R29" s="5" t="inlineStr"/>
       <c r="S29" s="5" t="inlineStr"/>
       <c r="T29" s="6" t="n">
@@ -2988,7 +2980,7 @@
       <c r="Y29" s="5" t="inlineStr"/>
       <c r="Z29" s="5" t="inlineStr">
         <is>
-          <t>FOR PUCNHLISTING</t>
+          <t>ONGOING POST QUA</t>
         </is>
       </c>
       <c r="AA29" s="7" t="n"/>
@@ -3010,26 +3002,26 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>118843</v>
+        <v>117936</v>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>Ubay Central ES</t>
+          <t>Alicia Central Elem.</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>UBAY</t>
+          <t>ALICIA</t>
         </is>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
@@ -3037,13 +3029,13 @@
         </is>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6137354.184406199</v>
+        <v>2206602.454898963</v>
       </c>
       <c r="L30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5187762.92</v>
+        <v>3765037.24</v>
       </c>
       <c r="N30" s="5" t="inlineStr">
         <is>
@@ -3054,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="Q30" s="5" t="inlineStr"/>
       <c r="R30" s="5" t="inlineStr"/>
@@ -3091,39 +3083,41 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>118804</v>
+        <v>117936</v>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>Ubay II Central ES (Biabas CES )</t>
+          <t>Alicia Central Elem.</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>UBAY</t>
+          <t>ALICIA</t>
         </is>
       </c>
       <c r="G31" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H31" s="5" t="inlineStr"/>
       <c r="I31" s="5" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J31" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K31" s="5" t="n">
-        <v>4963731.7129869</v>
+        <v>2500000</v>
       </c>
       <c r="L31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M31" s="5" t="inlineStr"/>
+      <c r="M31" s="5" t="inlineStr">
+        <is>
+          <t>one contract only</t>
+        </is>
+      </c>
       <c r="N31" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3133,11 +3127,9 @@
         <v>1</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>45087</v>
-      </c>
-      <c r="Q31" s="6" t="n">
-        <v>45063</v>
-      </c>
+        <v>45104</v>
+      </c>
+      <c r="Q31" s="5" t="inlineStr"/>
       <c r="R31" s="5" t="inlineStr"/>
       <c r="S31" s="5" t="inlineStr"/>
       <c r="T31" s="6" t="n">
@@ -3152,11 +3144,7 @@
       <c r="W31" s="5" t="inlineStr"/>
       <c r="X31" s="5" t="inlineStr"/>
       <c r="Y31" s="5" t="inlineStr"/>
-      <c r="Z31" s="5" t="inlineStr">
-        <is>
-          <t>ONGOING POST QUA</t>
-        </is>
-      </c>
+      <c r="Z31" s="5" t="inlineStr"/>
       <c r="AA31" s="7" t="n"/>
     </row>
     <row r="32">
@@ -3176,11 +3164,11 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>117936</v>
+        <v>186507</v>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>Alicia Central Elem.</t>
+          <t>Alicia CES Annex</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
@@ -3195,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J32" s="5" t="inlineStr">
         <is>
@@ -3203,13 +3191,13 @@
         </is>
       </c>
       <c r="K32" s="5" t="n">
-        <v>2206602.454898963</v>
+        <v>800000</v>
       </c>
       <c r="L32" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3765037.24</v>
+        <v>643141.3199999999</v>
       </c>
       <c r="N32" s="5" t="inlineStr">
         <is>
@@ -3220,9 +3208,11 @@
         <v>1</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>45104</v>
-      </c>
-      <c r="Q32" s="5" t="inlineStr"/>
+        <v>45079</v>
+      </c>
+      <c r="Q32" s="6" t="n">
+        <v>45128</v>
+      </c>
       <c r="R32" s="5" t="inlineStr"/>
       <c r="S32" s="5" t="inlineStr"/>
       <c r="T32" s="6" t="n">
@@ -3257,11 +3247,11 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>117936</v>
+        <v>302809</v>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>Alicia Central Elem.</t>
+          <t>Alicia Technical-Voc'l HS</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
@@ -3272,25 +3262,25 @@
       <c r="G33" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H33" s="5" t="inlineStr"/>
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I33" s="5" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J33" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K33" s="5" t="n">
-        <v>2500000</v>
+        <v>5594602.475859501</v>
       </c>
       <c r="L33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M33" s="5" t="inlineStr">
-        <is>
-          <t>one contract only</t>
-        </is>
+      <c r="M33" s="5" t="n">
+        <v>23440717.89</v>
       </c>
       <c r="N33" s="5" t="inlineStr">
         <is>
@@ -3301,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>45104</v>
+        <v>45243</v>
       </c>
       <c r="Q33" s="5" t="inlineStr"/>
       <c r="R33" s="5" t="inlineStr"/>
@@ -3338,11 +3328,11 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>186507</v>
+        <v>302809</v>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>Alicia CES Annex</t>
+          <t>Alicia Technical-Voc'l HS</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
@@ -3353,25 +3343,25 @@
       <c r="G34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H34" s="5" t="inlineStr"/>
       <c r="I34" s="5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J34" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K34" s="5" t="n">
-        <v>800000</v>
+        <v>22500000</v>
       </c>
       <c r="L34" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M34" s="5" t="n">
-        <v>643141.3199999999</v>
+      <c r="M34" s="5" t="inlineStr">
+        <is>
+          <t>one contract only</t>
+        </is>
       </c>
       <c r="N34" s="5" t="inlineStr">
         <is>
@@ -3382,11 +3372,9 @@
         <v>1</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>45079</v>
-      </c>
-      <c r="Q34" s="6" t="n">
-        <v>45128</v>
-      </c>
+        <v>45243</v>
+      </c>
+      <c r="Q34" s="5" t="inlineStr"/>
       <c r="R34" s="5" t="inlineStr"/>
       <c r="S34" s="5" t="inlineStr"/>
       <c r="T34" s="6" t="n">
@@ -3421,16 +3409,16 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>302809</v>
+        <v>118136</v>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>Alicia Technical-Voc'l HS</t>
+          <t>Carmen West Central ES</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>ALICIA</t>
+          <t>CARMEN</t>
         </is>
       </c>
       <c r="G35" s="5" t="n">
@@ -3440,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J35" s="5" t="inlineStr">
         <is>
@@ -3448,13 +3436,13 @@
         </is>
       </c>
       <c r="K35" s="5" t="n">
-        <v>5594602.475859501</v>
+        <v>2319764.484661144</v>
       </c>
       <c r="L35" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>23440717.89</v>
+        <v>1869129.45</v>
       </c>
       <c r="N35" s="5" t="inlineStr">
         <is>
@@ -3465,10 +3453,14 @@
         <v>1</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>45243</v>
-      </c>
-      <c r="Q35" s="5" t="inlineStr"/>
-      <c r="R35" s="5" t="inlineStr"/>
+        <v>45079</v>
+      </c>
+      <c r="Q35" s="6" t="n">
+        <v>45142</v>
+      </c>
+      <c r="R35" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="S35" s="5" t="inlineStr"/>
       <c r="T35" s="6" t="n">
         <v>44785</v>
@@ -3502,40 +3494,40 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>302809</v>
+        <v>118291</v>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>Alicia Technical-Voc'l HS</t>
+          <t>Duero Central ES</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>ALICIA</t>
+          <t>DUERO</t>
         </is>
       </c>
       <c r="G36" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H36" s="5" t="inlineStr"/>
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I36" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K36" s="5" t="n">
-        <v>22500000</v>
+        <v>1200000</v>
       </c>
       <c r="L36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M36" s="5" t="inlineStr">
-        <is>
-          <t>one contract only</t>
-        </is>
+      <c r="M36" s="5" t="n">
+        <v>1056904.73</v>
       </c>
       <c r="N36" s="5" t="inlineStr">
         <is>
@@ -3546,10 +3538,14 @@
         <v>1</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>45243</v>
-      </c>
-      <c r="Q36" s="5" t="inlineStr"/>
-      <c r="R36" s="5" t="inlineStr"/>
+        <v>45103</v>
+      </c>
+      <c r="Q36" s="6" t="n">
+        <v>45127</v>
+      </c>
+      <c r="R36" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="S36" s="5" t="inlineStr"/>
       <c r="T36" s="6" t="n">
         <v>44785</v>
@@ -3583,16 +3579,16 @@
         </is>
       </c>
       <c r="D37" s="5" t="n">
-        <v>118136</v>
+        <v>118312</v>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>Carmen West Central ES</t>
+          <t>Garcia-Hernandez Central ES</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>GARCIA HERNANDEZ</t>
         </is>
       </c>
       <c r="G37" s="5" t="n">
@@ -3602,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J37" s="5" t="inlineStr">
         <is>
@@ -3610,13 +3606,13 @@
         </is>
       </c>
       <c r="K37" s="5" t="n">
-        <v>2319764.484661144</v>
+        <v>1200000</v>
       </c>
       <c r="L37" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1869129.45</v>
+        <v>1056904.73</v>
       </c>
       <c r="N37" s="5" t="inlineStr">
         <is>
@@ -3627,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>45079</v>
+        <v>45103</v>
       </c>
       <c r="Q37" s="6" t="n">
-        <v>45142</v>
+        <v>45127</v>
       </c>
       <c r="R37" s="5" t="n">
         <v>0</v>
@@ -3668,16 +3664,16 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>118291</v>
+        <v>118437</v>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>Duero Central ES</t>
+          <t>Lila Central ES</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
-          <t>DUERO</t>
+          <t>LILA</t>
         </is>
       </c>
       <c r="G38" s="5" t="n">
@@ -3687,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38" s="5" t="inlineStr">
         <is>
@@ -3695,13 +3691,13 @@
         </is>
       </c>
       <c r="K38" s="5" t="n">
-        <v>1200000</v>
+        <v>648384.0631402401</v>
       </c>
       <c r="L38" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1056904.73</v>
+        <v>572086.04</v>
       </c>
       <c r="N38" s="5" t="inlineStr">
         <is>
@@ -3733,7 +3729,11 @@
       <c r="W38" s="5" t="inlineStr"/>
       <c r="X38" s="5" t="inlineStr"/>
       <c r="Y38" s="5" t="inlineStr"/>
-      <c r="Z38" s="5" t="inlineStr"/>
+      <c r="Z38" s="5" t="inlineStr">
+        <is>
+          <t>ONGOING POST QUA</t>
+        </is>
+      </c>
       <c r="AA38" s="7" t="n"/>
     </row>
     <row r="39">
@@ -3753,16 +3753,16 @@
         </is>
       </c>
       <c r="D39" s="5" t="n">
-        <v>118312</v>
+        <v>118466</v>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>Garcia-Hernandez Central ES</t>
+          <t>Loboc Central Elementary School</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
         <is>
-          <t>GARCIA HERNANDEZ</t>
+          <t>LOBOC</t>
         </is>
       </c>
       <c r="G39" s="5" t="n">
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="J39" s="5" t="inlineStr">
         <is>
@@ -3780,14 +3780,12 @@
         </is>
       </c>
       <c r="K39" s="5" t="n">
-        <v>1200000</v>
+        <v>3139918.14</v>
       </c>
       <c r="L39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M39" s="5" t="n">
-        <v>1056904.73</v>
-      </c>
+      <c r="M39" s="5" t="inlineStr"/>
       <c r="N39" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3796,12 +3794,8 @@
       <c r="O39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="6" t="n">
-        <v>45103</v>
-      </c>
-      <c r="Q39" s="6" t="n">
-        <v>45127</v>
-      </c>
+      <c r="P39" s="5" t="inlineStr"/>
+      <c r="Q39" s="5" t="inlineStr"/>
       <c r="R39" s="5" t="n">
         <v>0</v>
       </c>
@@ -3818,7 +3812,11 @@
       <c r="W39" s="5" t="inlineStr"/>
       <c r="X39" s="5" t="inlineStr"/>
       <c r="Y39" s="5" t="inlineStr"/>
-      <c r="Z39" s="5" t="inlineStr"/>
+      <c r="Z39" s="5" t="inlineStr">
+        <is>
+          <t>ONGOING POST QUA</t>
+        </is>
+      </c>
       <c r="AA39" s="7" t="n"/>
     </row>
     <row r="40">
@@ -3838,40 +3836,40 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>118437</v>
+        <v>118466</v>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>Lila Central ES</t>
+          <t>Loboc Central Elementary School</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
         <is>
-          <t>LILA</t>
+          <t>LOBOC</t>
         </is>
       </c>
       <c r="G40" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H40" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H40" s="5" t="inlineStr"/>
       <c r="I40" s="5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J40" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K40" s="5" t="n">
-        <v>648384.0631402401</v>
+        <v>20000000</v>
       </c>
       <c r="L40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M40" s="5" t="n">
-        <v>572086.04</v>
+      <c r="M40" s="5" t="inlineStr">
+        <is>
+          <t>one contract only</t>
+        </is>
       </c>
       <c r="N40" s="5" t="inlineStr">
         <is>
@@ -3882,11 +3880,9 @@
         <v>1</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>45103</v>
-      </c>
-      <c r="Q40" s="6" t="n">
-        <v>45127</v>
-      </c>
+        <v>45200</v>
+      </c>
+      <c r="Q40" s="5" t="inlineStr"/>
       <c r="R40" s="5" t="n">
         <v>0</v>
       </c>
@@ -3905,7 +3901,7 @@
       <c r="Y40" s="5" t="inlineStr"/>
       <c r="Z40" s="5" t="inlineStr">
         <is>
-          <t>ONGOING POST QUA</t>
+          <t>60 DAYS EXT</t>
         </is>
       </c>
       <c r="AA40" s="7" t="n"/>
@@ -3927,16 +3923,16 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>118466</v>
+        <v>118693</v>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>Loboc Central Elementary School</t>
+          <t>Sierra Bullones Central ES</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
         <is>
-          <t>LOBOC</t>
+          <t>SIERRA BULLONES</t>
         </is>
       </c>
       <c r="G41" s="5" t="n">
@@ -3946,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="J41" s="5" t="inlineStr">
         <is>
@@ -3954,12 +3950,14 @@
         </is>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3139918.14</v>
+        <v>2000000</v>
       </c>
       <c r="L41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M41" s="5" t="inlineStr"/>
+      <c r="M41" s="5" t="n">
+        <v>7599717.51</v>
+      </c>
       <c r="N41" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3968,8 +3966,12 @@
       <c r="O41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P41" s="5" t="inlineStr"/>
-      <c r="Q41" s="5" t="inlineStr"/>
+      <c r="P41" s="6" t="n">
+        <v>45140</v>
+      </c>
+      <c r="Q41" s="6" t="n">
+        <v>45156</v>
+      </c>
       <c r="R41" s="5" t="n">
         <v>0</v>
       </c>
@@ -3986,11 +3988,7 @@
       <c r="W41" s="5" t="inlineStr"/>
       <c r="X41" s="5" t="inlineStr"/>
       <c r="Y41" s="5" t="inlineStr"/>
-      <c r="Z41" s="5" t="inlineStr">
-        <is>
-          <t>ONGOING POST QUA</t>
-        </is>
-      </c>
+      <c r="Z41" s="5" t="inlineStr"/>
       <c r="AA41" s="7" t="n"/>
     </row>
     <row r="42">
@@ -4010,16 +4008,16 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>118466</v>
+        <v>118693</v>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>Loboc Central Elementary School</t>
+          <t>Sierra Bullones Central ES</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
         <is>
-          <t>LOBOC</t>
+          <t>SIERRA BULLONES</t>
         </is>
       </c>
       <c r="G42" s="5" t="n">
@@ -4027,7 +4025,7 @@
       </c>
       <c r="H42" s="5" t="inlineStr"/>
       <c r="I42" s="5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J42" s="5" t="inlineStr">
         <is>
@@ -4035,7 +4033,7 @@
         </is>
       </c>
       <c r="K42" s="5" t="n">
-        <v>20000000</v>
+        <v>7500000</v>
       </c>
       <c r="L42" s="5" t="n">
         <v>1</v>
@@ -4054,9 +4052,11 @@
         <v>1</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>45200</v>
-      </c>
-      <c r="Q42" s="5" t="inlineStr"/>
+        <v>45140</v>
+      </c>
+      <c r="Q42" s="6" t="n">
+        <v>45156</v>
+      </c>
       <c r="R42" s="5" t="n">
         <v>0</v>
       </c>
@@ -4073,11 +4073,7 @@
       <c r="W42" s="5" t="inlineStr"/>
       <c r="X42" s="5" t="inlineStr"/>
       <c r="Y42" s="5" t="inlineStr"/>
-      <c r="Z42" s="5" t="inlineStr">
-        <is>
-          <t>60 DAYS EXT</t>
-        </is>
-      </c>
+      <c r="Z42" s="5" t="inlineStr"/>
       <c r="AA42" s="7" t="n"/>
     </row>
     <row r="43">
@@ -4097,16 +4093,16 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>118693</v>
+        <v>118864</v>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>Sierra Bullones Central ES</t>
+          <t>Valencia Central Elementary School</t>
         </is>
       </c>
       <c r="F43" s="5" t="inlineStr">
         <is>
-          <t>SIERRA BULLONES</t>
+          <t>VALENCIA</t>
         </is>
       </c>
       <c r="G43" s="5" t="n">
@@ -4116,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" s="5" t="inlineStr">
         <is>
@@ -4124,13 +4120,13 @@
         </is>
       </c>
       <c r="K43" s="5" t="n">
-        <v>2000000</v>
+        <v>624035.1223359749</v>
       </c>
       <c r="L43" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>7599717.51</v>
+        <v>546229.05</v>
       </c>
       <c r="N43" s="5" t="inlineStr">
         <is>
@@ -4141,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>45140</v>
+        <v>45103</v>
       </c>
       <c r="Q43" s="6" t="n">
-        <v>45156</v>
+        <v>45127</v>
       </c>
       <c r="R43" s="5" t="n">
         <v>0</v>
@@ -4162,7 +4158,11 @@
       <c r="W43" s="5" t="inlineStr"/>
       <c r="X43" s="5" t="inlineStr"/>
       <c r="Y43" s="5" t="inlineStr"/>
-      <c r="Z43" s="5" t="inlineStr"/>
+      <c r="Z43" s="5" t="inlineStr">
+        <is>
+          <t>ONGOING POST QUA</t>
+        </is>
+      </c>
       <c r="AA43" s="7" t="n"/>
     </row>
     <row r="44">
@@ -4178,44 +4178,44 @@
       </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Carcar City</t>
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>118693</v>
+        <v>324904</v>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>Sierra Bullones Central ES</t>
+          <t>Tuyom National High School</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
         <is>
-          <t>SIERRA BULLONES</t>
+          <t>CITY OF CARCAR</t>
         </is>
       </c>
       <c r="G44" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H44" s="5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I44" s="5" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J44" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K44" s="5" t="n">
-        <v>7500000</v>
+        <v>5641920.23</v>
       </c>
       <c r="L44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M44" s="5" t="inlineStr">
-        <is>
-          <t>one contract only</t>
-        </is>
+      <c r="M44" s="5" t="n">
+        <v>4296456.4</v>
       </c>
       <c r="N44" s="5" t="inlineStr">
         <is>
@@ -4225,25 +4225,15 @@
       <c r="O44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="6" t="n">
-        <v>45140</v>
-      </c>
-      <c r="Q44" s="6" t="n">
-        <v>45156</v>
-      </c>
+      <c r="P44" s="5" t="inlineStr"/>
+      <c r="Q44" s="5" t="inlineStr"/>
       <c r="R44" s="5" t="n">
         <v>0</v>
       </c>
       <c r="S44" s="5" t="inlineStr"/>
-      <c r="T44" s="6" t="n">
-        <v>44785</v>
-      </c>
-      <c r="U44" s="6" t="n">
-        <v>44795</v>
-      </c>
-      <c r="V44" s="6" t="n">
-        <v>44810</v>
-      </c>
+      <c r="T44" s="5" t="inlineStr"/>
+      <c r="U44" s="5" t="inlineStr"/>
+      <c r="V44" s="5" t="inlineStr"/>
       <c r="W44" s="5" t="inlineStr"/>
       <c r="X44" s="5" t="inlineStr"/>
       <c r="Y44" s="5" t="inlineStr"/>
@@ -4263,20 +4253,20 @@
       </c>
       <c r="C45" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>118864</v>
+        <v>119073</v>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>Valencia Central Elementary School</t>
+          <t>BARILI CES</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>VALENCIA</t>
+          <t>BARILI</t>
         </is>
       </c>
       <c r="G45" s="5" t="n">
@@ -4286,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" s="5" t="inlineStr">
         <is>
@@ -4294,49 +4284,65 @@
         </is>
       </c>
       <c r="K45" s="5" t="n">
-        <v>624035.1223359749</v>
+        <v>2677562.96</v>
       </c>
       <c r="L45" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>546229.05</v>
+        <v>8109500.82</v>
       </c>
       <c r="N45" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O45" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>45103</v>
-      </c>
-      <c r="Q45" s="6" t="n">
-        <v>45127</v>
-      </c>
-      <c r="R45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="5" t="inlineStr"/>
-      <c r="T45" s="6" t="n">
-        <v>44785</v>
-      </c>
-      <c r="U45" s="6" t="n">
-        <v>44795</v>
-      </c>
-      <c r="V45" s="6" t="n">
-        <v>44810</v>
-      </c>
-      <c r="W45" s="5" t="inlineStr"/>
-      <c r="X45" s="5" t="inlineStr"/>
-      <c r="Y45" s="5" t="inlineStr"/>
-      <c r="Z45" s="5" t="inlineStr">
-        <is>
-          <t>ONGOING POST QUA</t>
-        </is>
-      </c>
+        <v>45308</v>
+      </c>
+      <c r="Q45" s="5" t="inlineStr"/>
+      <c r="R45" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF DEPED</t>
+        </is>
+      </c>
+      <c r="S45" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-04</t>
+        </is>
+      </c>
+      <c r="T45" s="5" t="inlineStr">
+        <is>
+          <t>JULY 19, 2023</t>
+        </is>
+      </c>
+      <c r="U45" s="5" t="inlineStr">
+        <is>
+          <t>JULY 26, 2023</t>
+        </is>
+      </c>
+      <c r="V45" s="5" t="inlineStr">
+        <is>
+          <t>AUGUST 07, 2023</t>
+        </is>
+      </c>
+      <c r="W45" s="5" t="inlineStr">
+        <is>
+          <t>AUGUST 29, 2023</t>
+        </is>
+      </c>
+      <c r="X45" s="6" t="n">
+        <v>45180</v>
+      </c>
+      <c r="Y45" s="5" t="inlineStr">
+        <is>
+          <t>RT CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="Z45" s="5" t="inlineStr"/>
       <c r="AA45" s="7" t="n"/>
     </row>
     <row r="46">
@@ -4352,65 +4358,93 @@
       </c>
       <c r="C46" s="5" t="inlineStr">
         <is>
-          <t>Carcar City</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D46" s="5" t="n">
-        <v>324904</v>
+        <v>119073</v>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>Tuyom National High School</t>
+          <t>BARILI CES</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t>CITY OF CARCAR</t>
+          <t>BARILI</t>
         </is>
       </c>
       <c r="G46" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H46" s="5" t="inlineStr"/>
       <c r="I46" s="5" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J46" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K46" s="5" t="n">
-        <v>5641920.23</v>
+        <v>5462455.36</v>
       </c>
       <c r="L46" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>4296456.4</v>
+        <v>8109500.82</v>
       </c>
       <c r="N46" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O46" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P46" s="5" t="inlineStr"/>
+      <c r="P46" s="6" t="n">
+        <v>45308</v>
+      </c>
       <c r="Q46" s="5" t="inlineStr"/>
-      <c r="R46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5" t="inlineStr"/>
-      <c r="T46" s="5" t="inlineStr"/>
-      <c r="U46" s="5" t="inlineStr"/>
-      <c r="V46" s="5" t="inlineStr"/>
-      <c r="W46" s="5" t="inlineStr"/>
-      <c r="X46" s="5" t="inlineStr"/>
-      <c r="Y46" s="5" t="inlineStr"/>
+      <c r="R46" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF DEPED</t>
+        </is>
+      </c>
+      <c r="S46" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-04</t>
+        </is>
+      </c>
+      <c r="T46" s="5" t="inlineStr">
+        <is>
+          <t>JULY 19, 2023</t>
+        </is>
+      </c>
+      <c r="U46" s="5" t="inlineStr">
+        <is>
+          <t>JULY 26, 2023</t>
+        </is>
+      </c>
+      <c r="V46" s="5" t="inlineStr">
+        <is>
+          <t>AUGUST 07, 2023</t>
+        </is>
+      </c>
+      <c r="W46" s="5" t="inlineStr">
+        <is>
+          <t>AUGUST 29, 2023</t>
+        </is>
+      </c>
+      <c r="X46" s="6" t="n">
+        <v>45180</v>
+      </c>
+      <c r="Y46" s="5" t="inlineStr">
+        <is>
+          <t>RT CONSTRUCTION</t>
+        </is>
+      </c>
       <c r="Z46" s="5" t="inlineStr"/>
       <c r="AA46" s="7" t="n"/>
     </row>
@@ -4431,11 +4465,11 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>119073</v>
+        <v>119092</v>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>BARILI CES</t>
+          <t>GUIBUANGAN CS</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
@@ -4450,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J47" s="5" t="inlineStr">
         <is>
@@ -4458,13 +4492,13 @@
         </is>
       </c>
       <c r="K47" s="5" t="n">
-        <v>2677562.96</v>
+        <v>2449646.32</v>
       </c>
       <c r="L47" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>8109500.82</v>
+        <v>2431144.86</v>
       </c>
       <c r="N47" s="5" t="inlineStr">
         <is>
@@ -4475,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>45308</v>
+        <v>45248</v>
       </c>
       <c r="Q47" s="5" t="inlineStr"/>
       <c r="R47" s="5" t="inlineStr">
@@ -4485,7 +4519,7 @@
       </c>
       <c r="S47" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-04</t>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-05</t>
         </is>
       </c>
       <c r="T47" s="5" t="inlineStr">
@@ -4513,7 +4547,7 @@
       </c>
       <c r="Y47" s="5" t="inlineStr">
         <is>
-          <t>RT CONSTRUCTION</t>
+          <t>AL SHER CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z47" s="5" t="inlineStr"/>
@@ -4536,38 +4570,40 @@
         </is>
       </c>
       <c r="D48" s="5" t="n">
-        <v>119073</v>
+        <v>119554</v>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>BARILI CES</t>
+          <t>Binabag ES</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>BARILI</t>
+          <t>PINAMUNGAHAN</t>
         </is>
       </c>
       <c r="G48" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H48" s="5" t="inlineStr"/>
+      <c r="H48" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I48" s="5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5462455.36</v>
+        <v>4245989.99</v>
       </c>
       <c r="L48" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>8109500.82</v>
+        <v>4224375.21</v>
       </c>
       <c r="N48" s="5" t="inlineStr">
         <is>
@@ -4578,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>45308</v>
+        <v>45278</v>
       </c>
       <c r="Q48" s="5" t="inlineStr"/>
       <c r="R48" s="5" t="inlineStr">
@@ -4588,7 +4624,7 @@
       </c>
       <c r="S48" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-04</t>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-06</t>
         </is>
       </c>
       <c r="T48" s="5" t="inlineStr">
@@ -4616,7 +4652,7 @@
       </c>
       <c r="Y48" s="5" t="inlineStr">
         <is>
-          <t>RT CONSTRUCTION</t>
+          <t>HERO CONSTRUCTION AND DEV. CORP.</t>
         </is>
       </c>
       <c r="Z48" s="5" t="inlineStr"/>
@@ -4639,20 +4675,20 @@
         </is>
       </c>
       <c r="D49" s="5" t="n">
-        <v>119092</v>
+        <v>119414</v>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>GUIBUANGAN CS</t>
+          <t>Liloan Central ES</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t>BARILI</t>
+          <t>LILOAN</t>
         </is>
       </c>
       <c r="G49" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H49" s="5" t="n">
         <v>1</v>
@@ -4666,24 +4702,24 @@
         </is>
       </c>
       <c r="K49" s="5" t="n">
-        <v>2449646.32</v>
+        <v>3582726.85</v>
       </c>
       <c r="L49" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>2431144.86</v>
+        <v>9562486.57</v>
       </c>
       <c r="N49" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O49" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>45248</v>
+        <v>45308</v>
       </c>
       <c r="Q49" s="5" t="inlineStr"/>
       <c r="R49" s="5" t="inlineStr">
@@ -4693,7 +4729,7 @@
       </c>
       <c r="S49" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-05</t>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-01</t>
         </is>
       </c>
       <c r="T49" s="5" t="inlineStr">
@@ -4721,7 +4757,7 @@
       </c>
       <c r="Y49" s="5" t="inlineStr">
         <is>
-          <t>AL SHER CONSTRUCTION</t>
+          <t>MANINGO ENTERPRISES</t>
         </is>
       </c>
       <c r="Z49" s="5" t="inlineStr"/>
@@ -4744,51 +4780,49 @@
         </is>
       </c>
       <c r="D50" s="5" t="n">
-        <v>119554</v>
+        <v>119414</v>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>Binabag ES</t>
+          <t>Liloan Central ES</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t>PINAMUNGAHAN</t>
+          <t>LILOAN</t>
         </is>
       </c>
       <c r="G50" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H50" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H50" s="5" t="inlineStr"/>
       <c r="I50" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J50" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K50" s="5" t="n">
-        <v>4245989.99</v>
+        <v>6011939.84</v>
       </c>
       <c r="L50" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>4224375.21</v>
+        <v>9562486.57</v>
       </c>
       <c r="N50" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O50" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>45278</v>
+        <v>45308</v>
       </c>
       <c r="Q50" s="5" t="inlineStr"/>
       <c r="R50" s="5" t="inlineStr">
@@ -4798,7 +4832,7 @@
       </c>
       <c r="S50" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-06</t>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-01</t>
         </is>
       </c>
       <c r="T50" s="5" t="inlineStr">
@@ -4826,7 +4860,7 @@
       </c>
       <c r="Y50" s="5" t="inlineStr">
         <is>
-          <t>HERO CONSTRUCTION AND DEV. CORP.</t>
+          <t>MANINGO ENTERPRISES</t>
         </is>
       </c>
       <c r="Z50" s="5" t="inlineStr"/>
@@ -4849,26 +4883,26 @@
         </is>
       </c>
       <c r="D51" s="5" t="n">
-        <v>119414</v>
+        <v>119238</v>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>Liloan Central ES</t>
+          <t>Consolacion Central ES</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t>LILOAN</t>
+          <t>CONSOLACION</t>
         </is>
       </c>
       <c r="G51" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H51" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J51" s="5" t="inlineStr">
         <is>
@@ -4876,24 +4910,24 @@
         </is>
       </c>
       <c r="K51" s="5" t="n">
-        <v>3582726.85</v>
+        <v>1942416.66</v>
       </c>
       <c r="L51" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>9562486.57</v>
+        <v>1934634.58</v>
       </c>
       <c r="N51" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O51" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>45308</v>
+        <v>45278</v>
       </c>
       <c r="Q51" s="5" t="inlineStr"/>
       <c r="R51" s="5" t="inlineStr">
@@ -4903,7 +4937,7 @@
       </c>
       <c r="S51" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-01</t>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-03</t>
         </is>
       </c>
       <c r="T51" s="5" t="inlineStr">
@@ -4931,7 +4965,7 @@
       </c>
       <c r="Y51" s="5" t="inlineStr">
         <is>
-          <t>MANINGO ENTERPRISES</t>
+          <t>JY BONTILAO CONSTRUCTION AND ENTERPRISES</t>
         </is>
       </c>
       <c r="Z51" s="5" t="inlineStr"/>
@@ -4954,89 +4988,61 @@
         </is>
       </c>
       <c r="D52" s="5" t="n">
-        <v>119414</v>
+        <v>119255</v>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>Liloan Central ES</t>
+          <t>Cordova Central ES</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>LILOAN</t>
+          <t>CORDOVA</t>
         </is>
       </c>
       <c r="G52" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H52" s="5" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I52" s="5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J52" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K52" s="5" t="n">
-        <v>6011939.84</v>
+        <v>2032057.71</v>
       </c>
       <c r="L52" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>9562486.57</v>
+        <v>2024217.87</v>
       </c>
       <c r="N52" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O52" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P52" s="6" t="n">
-        <v>45308</v>
-      </c>
+      <c r="P52" s="5" t="inlineStr"/>
       <c r="Q52" s="5" t="inlineStr"/>
-      <c r="R52" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF DEPED</t>
-        </is>
-      </c>
-      <c r="S52" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-01</t>
-        </is>
-      </c>
-      <c r="T52" s="5" t="inlineStr">
-        <is>
-          <t>JULY 19, 2023</t>
-        </is>
-      </c>
-      <c r="U52" s="5" t="inlineStr">
-        <is>
-          <t>JULY 26, 2023</t>
-        </is>
-      </c>
-      <c r="V52" s="5" t="inlineStr">
-        <is>
-          <t>AUGUST 07, 2023</t>
-        </is>
-      </c>
-      <c r="W52" s="5" t="inlineStr">
-        <is>
-          <t>AUGUST 29, 2023</t>
-        </is>
-      </c>
-      <c r="X52" s="6" t="n">
-        <v>45180</v>
-      </c>
-      <c r="Y52" s="5" t="inlineStr">
-        <is>
-          <t>MANINGO ENTERPRISES</t>
-        </is>
-      </c>
+      <c r="R52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="5" t="inlineStr"/>
+      <c r="T52" s="5" t="inlineStr"/>
+      <c r="U52" s="5" t="inlineStr"/>
+      <c r="V52" s="5" t="inlineStr"/>
+      <c r="W52" s="5" t="inlineStr"/>
+      <c r="X52" s="5" t="inlineStr"/>
+      <c r="Y52" s="5" t="inlineStr"/>
       <c r="Z52" s="5" t="inlineStr"/>
       <c r="AA52" s="7" t="n"/>
     </row>
@@ -5057,16 +5063,16 @@
         </is>
       </c>
       <c r="D53" s="5" t="n">
-        <v>119238</v>
+        <v>302955</v>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>Consolacion Central ES</t>
+          <t>Cordova NHS</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
         <is>
-          <t>CONSOLACION</t>
+          <t>CORDOVA</t>
         </is>
       </c>
       <c r="G53" s="5" t="n">
@@ -5076,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J53" s="5" t="inlineStr">
         <is>
@@ -5084,13 +5090,13 @@
         </is>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1942416.66</v>
+        <v>8932633.17</v>
       </c>
       <c r="L53" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1934634.58</v>
+        <v>8856359.039999999</v>
       </c>
       <c r="N53" s="5" t="inlineStr">
         <is>
@@ -5101,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>45278</v>
+        <v>45308</v>
       </c>
       <c r="Q53" s="5" t="inlineStr"/>
       <c r="R53" s="5" t="inlineStr">
@@ -5111,7 +5117,7 @@
       </c>
       <c r="S53" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-03</t>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-02</t>
         </is>
       </c>
       <c r="T53" s="5" t="inlineStr">
@@ -5131,7 +5137,7 @@
       </c>
       <c r="W53" s="5" t="inlineStr">
         <is>
-          <t>AUGUST 29, 2023</t>
+          <t>AUGUST 29, 2024</t>
         </is>
       </c>
       <c r="X53" s="6" t="n">
@@ -5139,7 +5145,7 @@
       </c>
       <c r="Y53" s="5" t="inlineStr">
         <is>
-          <t>JY BONTILAO CONSTRUCTION AND ENTERPRISES</t>
+          <t>SB &amp; T CONSTRUCTION OPC</t>
         </is>
       </c>
       <c r="Z53" s="5" t="inlineStr"/>
@@ -5162,61 +5168,91 @@
         </is>
       </c>
       <c r="D54" s="5" t="n">
-        <v>119255</v>
+        <v>118866</v>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>Cordova Central ES</t>
+          <t>ALCANTARA CENTRAL ES</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
         <is>
-          <t>CORDOVA</t>
+          <t>ALCANTARA</t>
         </is>
       </c>
       <c r="G54" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H54" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="5" t="n">
-        <v>10</v>
-      </c>
       <c r="J54" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2032057.71</v>
+        <v>9144788.68</v>
       </c>
       <c r="L54" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>2024217.87</v>
+        <v>9127739.720000001</v>
       </c>
       <c r="N54" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O54" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P54" s="5" t="inlineStr"/>
+      <c r="P54" s="6" t="n">
+        <v>45308</v>
+      </c>
       <c r="Q54" s="5" t="inlineStr"/>
-      <c r="R54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" s="5" t="inlineStr"/>
-      <c r="T54" s="5" t="inlineStr"/>
-      <c r="U54" s="5" t="inlineStr"/>
-      <c r="V54" s="5" t="inlineStr"/>
-      <c r="W54" s="5" t="inlineStr"/>
-      <c r="X54" s="5" t="inlineStr"/>
-      <c r="Y54" s="5" t="inlineStr"/>
+      <c r="R54" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF DEPED</t>
+        </is>
+      </c>
+      <c r="S54" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-08</t>
+        </is>
+      </c>
+      <c r="T54" s="5" t="inlineStr">
+        <is>
+          <t>JULY 19, 2023</t>
+        </is>
+      </c>
+      <c r="U54" s="5" t="inlineStr">
+        <is>
+          <t>JULY 26, 2023</t>
+        </is>
+      </c>
+      <c r="V54" s="5" t="inlineStr">
+        <is>
+          <t>AUGUST 07, 2023</t>
+        </is>
+      </c>
+      <c r="W54" s="5" t="inlineStr">
+        <is>
+          <t>AUGUST 29, 2023</t>
+        </is>
+      </c>
+      <c r="X54" s="6" t="n">
+        <v>45180</v>
+      </c>
+      <c r="Y54" s="5" t="inlineStr">
+        <is>
+          <t>RT CONSTRUCTION</t>
+        </is>
+      </c>
       <c r="Z54" s="5" t="inlineStr"/>
       <c r="AA54" s="7" t="n"/>
     </row>
@@ -5237,26 +5273,26 @@
         </is>
       </c>
       <c r="D55" s="5" t="n">
-        <v>302955</v>
+        <v>118994</v>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>Cordova NHS</t>
+          <t>BADIAN CS</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>CORDOVA</t>
+          <t>BADIAN</t>
         </is>
       </c>
       <c r="G55" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H55" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J55" s="5" t="inlineStr">
         <is>
@@ -5264,24 +5300,24 @@
         </is>
       </c>
       <c r="K55" s="5" t="n">
-        <v>8932633.17</v>
+        <v>1234605.36</v>
       </c>
       <c r="L55" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>8856359.039999999</v>
+        <v>1219140.57</v>
       </c>
       <c r="N55" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O55" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>45308</v>
+        <v>45233</v>
       </c>
       <c r="Q55" s="5" t="inlineStr"/>
       <c r="R55" s="5" t="inlineStr">
@@ -5291,7 +5327,7 @@
       </c>
       <c r="S55" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-02</t>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-09</t>
         </is>
       </c>
       <c r="T55" s="5" t="inlineStr">
@@ -5311,7 +5347,7 @@
       </c>
       <c r="W55" s="5" t="inlineStr">
         <is>
-          <t>AUGUST 29, 2024</t>
+          <t>AUGUST 29, 2023</t>
         </is>
       </c>
       <c r="X55" s="6" t="n">
@@ -5319,7 +5355,7 @@
       </c>
       <c r="Y55" s="5" t="inlineStr">
         <is>
-          <t>SB &amp; T CONSTRUCTION OPC</t>
+          <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z55" s="5" t="inlineStr"/>
@@ -5342,16 +5378,16 @@
         </is>
       </c>
       <c r="D56" s="5" t="n">
-        <v>118866</v>
+        <v>119384</v>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>ALCANTARA CENTRAL ES</t>
+          <t>BITOON CES</t>
         </is>
       </c>
       <c r="F56" s="5" t="inlineStr">
         <is>
-          <t>ALCANTARA</t>
+          <t>DUMANJUG</t>
         </is>
       </c>
       <c r="G56" s="5" t="n">
@@ -5361,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J56" s="5" t="inlineStr">
         <is>
@@ -5369,17 +5405,17 @@
         </is>
       </c>
       <c r="K56" s="5" t="n">
-        <v>9144788.68</v>
+        <v>9583177.1</v>
       </c>
       <c r="L56" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>9127739.720000001</v>
+        <v>9533171.369999999</v>
       </c>
       <c r="N56" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O56" s="5" t="n">
@@ -5396,7 +5432,7 @@
       </c>
       <c r="S56" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-08</t>
+          <t>CY 2022 QRF-DEPED-R7-CEBU-07</t>
         </is>
       </c>
       <c r="T56" s="5" t="inlineStr">
@@ -5424,7 +5460,7 @@
       </c>
       <c r="Y56" s="5" t="inlineStr">
         <is>
-          <t>RT CONSTRUCTION</t>
+          <t>MP SORELA CONSTRUCTION AND SUPPLY AND MARINE SERVICES</t>
         </is>
       </c>
       <c r="Z56" s="5" t="inlineStr"/>
@@ -5443,30 +5479,30 @@
       </c>
       <c r="C57" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Cebu City</t>
         </is>
       </c>
       <c r="D57" s="5" t="n">
-        <v>118994</v>
+        <v>119874</v>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>BADIAN CS</t>
+          <t>City Central ES</t>
         </is>
       </c>
       <c r="F57" s="5" t="inlineStr">
         <is>
-          <t>BADIAN</t>
+          <t>CEBU CITY (Capital)</t>
         </is>
       </c>
       <c r="G57" s="5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H57" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J57" s="5" t="inlineStr">
         <is>
@@ -5474,13 +5510,13 @@
         </is>
       </c>
       <c r="K57" s="5" t="n">
-        <v>1234605.36</v>
+        <v>2750822</v>
       </c>
       <c r="L57" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>1219140.57</v>
+        <v>2116754.46</v>
       </c>
       <c r="N57" s="5" t="inlineStr">
         <is>
@@ -5491,45 +5527,39 @@
         <v>1</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>45233</v>
+        <v>44939</v>
       </c>
       <c r="Q57" s="5" t="inlineStr"/>
       <c r="R57" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF DEPED</t>
+          <t>DepEd CCD 2022 - 11</t>
         </is>
       </c>
       <c r="S57" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-09</t>
-        </is>
-      </c>
-      <c r="T57" s="5" t="inlineStr">
-        <is>
-          <t>JULY 19, 2023</t>
-        </is>
-      </c>
-      <c r="U57" s="5" t="inlineStr">
-        <is>
-          <t>JULY 26, 2023</t>
-        </is>
-      </c>
-      <c r="V57" s="5" t="inlineStr">
-        <is>
-          <t>AUGUST 07, 2023</t>
-        </is>
-      </c>
-      <c r="W57" s="5" t="inlineStr">
-        <is>
-          <t>AUGUST 29, 2023</t>
-        </is>
-      </c>
-      <c r="X57" s="6" t="n">
-        <v>45180</v>
+          <t>DepEd CCD 2022 - 27</t>
+        </is>
+      </c>
+      <c r="T57" s="6" t="n">
+        <v>44751</v>
+      </c>
+      <c r="U57" s="6" t="n">
+        <v>44760</v>
+      </c>
+      <c r="V57" s="6" t="n">
+        <v>44774</v>
+      </c>
+      <c r="W57" s="6" t="n">
+        <v>44785</v>
+      </c>
+      <c r="X57" s="5" t="inlineStr">
+        <is>
+          <t>Sept. 8, 2022</t>
+        </is>
       </c>
       <c r="Y57" s="5" t="inlineStr">
         <is>
-          <t>TRI BAIRN CONSTRUCTION</t>
+          <t>JAJ &amp; L CONST. &amp; ENG'G sERVICES</t>
         </is>
       </c>
       <c r="Z57" s="5" t="inlineStr"/>
@@ -5548,30 +5578,30 @@
       </c>
       <c r="C58" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Cebu City</t>
         </is>
       </c>
       <c r="D58" s="5" t="n">
-        <v>119384</v>
+        <v>303153</v>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>BITOON CES</t>
+          <t>City Central NHS (Day &amp; Night)</t>
         </is>
       </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
-          <t>DUMANJUG</t>
+          <t>CEBU CITY (Capital)</t>
         </is>
       </c>
       <c r="G58" s="5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H58" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J58" s="5" t="inlineStr">
         <is>
@@ -5579,62 +5609,56 @@
         </is>
       </c>
       <c r="K58" s="5" t="n">
-        <v>9583177.1</v>
+        <v>668241</v>
       </c>
       <c r="L58" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>9533171.369999999</v>
+        <v>510702.36</v>
       </c>
       <c r="N58" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O58" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>45308</v>
+        <v>44879</v>
       </c>
       <c r="Q58" s="5" t="inlineStr"/>
       <c r="R58" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF DEPED</t>
+          <t>DepEd CCD 2022 - 12</t>
         </is>
       </c>
       <c r="S58" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF-DEPED-R7-CEBU-07</t>
-        </is>
-      </c>
-      <c r="T58" s="5" t="inlineStr">
-        <is>
-          <t>JULY 19, 2023</t>
-        </is>
-      </c>
-      <c r="U58" s="5" t="inlineStr">
-        <is>
-          <t>JULY 26, 2023</t>
-        </is>
-      </c>
-      <c r="V58" s="5" t="inlineStr">
-        <is>
-          <t>AUGUST 07, 2023</t>
-        </is>
-      </c>
-      <c r="W58" s="5" t="inlineStr">
-        <is>
-          <t>AUGUST 29, 2023</t>
-        </is>
-      </c>
-      <c r="X58" s="6" t="n">
-        <v>45180</v>
+          <t>DepEd CCD 2022 - 28</t>
+        </is>
+      </c>
+      <c r="T58" s="6" t="n">
+        <v>44751</v>
+      </c>
+      <c r="U58" s="6" t="n">
+        <v>44760</v>
+      </c>
+      <c r="V58" s="6" t="n">
+        <v>44774</v>
+      </c>
+      <c r="W58" s="6" t="n">
+        <v>44785</v>
+      </c>
+      <c r="X58" s="5" t="inlineStr">
+        <is>
+          <t>Sept. 8, 2022</t>
+        </is>
       </c>
       <c r="Y58" s="5" t="inlineStr">
         <is>
-          <t>MP SORELA CONSTRUCTION AND SUPPLY AND MARINE SERVICES</t>
+          <t>JAJ &amp; L CONST. &amp; ENG'G sERVICES</t>
         </is>
       </c>
       <c r="Z58" s="5" t="inlineStr"/>
@@ -5657,11 +5681,11 @@
         </is>
       </c>
       <c r="D59" s="5" t="n">
-        <v>119874</v>
+        <v>119882</v>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>City Central ES</t>
+          <t>Mambaling ES</t>
         </is>
       </c>
       <c r="F59" s="5" t="inlineStr">
@@ -5670,13 +5694,13 @@
         </is>
       </c>
       <c r="G59" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J59" s="5" t="inlineStr">
         <is>
@@ -5684,13 +5708,13 @@
         </is>
       </c>
       <c r="K59" s="5" t="n">
-        <v>2750822</v>
+        <v>3219187.68</v>
       </c>
       <c r="L59" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>2116754.46</v>
+        <v>2315902.45</v>
       </c>
       <c r="N59" s="5" t="inlineStr">
         <is>
@@ -5701,17 +5725,17 @@
         <v>1</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>44939</v>
+        <v>44951</v>
       </c>
       <c r="Q59" s="5" t="inlineStr"/>
       <c r="R59" s="5" t="inlineStr">
         <is>
-          <t>DepEd CCD 2022 - 11</t>
+          <t>DepEd CCD 2022 - 13</t>
         </is>
       </c>
       <c r="S59" s="5" t="inlineStr">
         <is>
-          <t>DepEd CCD 2022 - 27</t>
+          <t>DepEd CCD 2022 - 29</t>
         </is>
       </c>
       <c r="T59" s="6" t="n">
@@ -5728,12 +5752,12 @@
       </c>
       <c r="X59" s="5" t="inlineStr">
         <is>
-          <t>Sept. 8, 2022</t>
+          <t>Sept. 20, 2022</t>
         </is>
       </c>
       <c r="Y59" s="5" t="inlineStr">
         <is>
-          <t>JAJ &amp; L CONST. &amp; ENG'G sERVICES</t>
+          <t>ANIELTHON CONST. &amp; SUPPLY</t>
         </is>
       </c>
       <c r="Z59" s="5" t="inlineStr"/>
@@ -5752,20 +5776,20 @@
       </c>
       <c r="C60" s="5" t="inlineStr">
         <is>
-          <t>Cebu City</t>
+          <t>City of Naga, Cebu</t>
         </is>
       </c>
       <c r="D60" s="5" t="n">
-        <v>303153</v>
+        <v>119516</v>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>City Central NHS (Day &amp; Night)</t>
+          <t>Cepoc Central Elementary School</t>
         </is>
       </c>
       <c r="F60" s="5" t="inlineStr">
         <is>
-          <t>CEBU CITY (Capital)</t>
+          <t>CITY OF NAGA</t>
         </is>
       </c>
       <c r="G60" s="5" t="n">
@@ -5775,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J60" s="5" t="inlineStr">
         <is>
@@ -5783,13 +5807,13 @@
         </is>
       </c>
       <c r="K60" s="5" t="n">
-        <v>668241</v>
+        <v>3999819.924556428</v>
       </c>
       <c r="L60" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>510702.36</v>
+        <v>3992404.31</v>
       </c>
       <c r="N60" s="5" t="inlineStr">
         <is>
@@ -5800,42 +5824,40 @@
         <v>1</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>44879</v>
+        <v>44859</v>
       </c>
       <c r="Q60" s="5" t="inlineStr"/>
       <c r="R60" s="5" t="inlineStr">
         <is>
-          <t>DepEd CCD 2022 - 12</t>
-        </is>
-      </c>
-      <c r="S60" s="5" t="inlineStr">
-        <is>
-          <t>DepEd CCD 2022 - 28</t>
-        </is>
-      </c>
+          <t>cityofnaga2022-001</t>
+        </is>
+      </c>
+      <c r="S60" s="5" t="inlineStr"/>
       <c r="T60" s="6" t="n">
-        <v>44751</v>
+        <v>44663</v>
       </c>
       <c r="U60" s="6" t="n">
-        <v>44760</v>
+        <v>44670</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>44774</v>
+        <v>44685</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>44785</v>
-      </c>
-      <c r="X60" s="5" t="inlineStr">
-        <is>
-          <t>Sept. 8, 2022</t>
-        </is>
+        <v>44706</v>
+      </c>
+      <c r="X60" s="6" t="n">
+        <v>44732</v>
       </c>
       <c r="Y60" s="5" t="inlineStr">
         <is>
-          <t>JAJ &amp; L CONST. &amp; ENG'G sERVICES</t>
-        </is>
-      </c>
-      <c r="Z60" s="5" t="inlineStr"/>
+          <t>SB &amp; T Construction OPC</t>
+        </is>
+      </c>
+      <c r="Z60" s="5" t="inlineStr">
+        <is>
+          <t>LOT 2</t>
+        </is>
+      </c>
       <c r="AA60" s="7" t="n"/>
     </row>
     <row r="61">
@@ -5851,30 +5873,30 @@
       </c>
       <c r="C61" s="5" t="inlineStr">
         <is>
-          <t>Cebu City</t>
+          <t>City of Naga, Cebu</t>
         </is>
       </c>
       <c r="D61" s="5" t="n">
-        <v>119882</v>
+        <v>119509</v>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>Mambaling ES</t>
+          <t>Naga Central Elementary School</t>
         </is>
       </c>
       <c r="F61" s="5" t="inlineStr">
         <is>
-          <t>CEBU CITY (Capital)</t>
+          <t>CITY OF NAGA</t>
         </is>
       </c>
       <c r="G61" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J61" s="5" t="inlineStr">
         <is>
@@ -5882,13 +5904,13 @@
         </is>
       </c>
       <c r="K61" s="5" t="n">
-        <v>3219187.68</v>
+        <v>6498802.268025186</v>
       </c>
       <c r="L61" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>2315902.45</v>
+        <v>6487267.56</v>
       </c>
       <c r="N61" s="5" t="inlineStr">
         <is>
@@ -5899,42 +5921,40 @@
         <v>1</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>44951</v>
+        <v>44859</v>
       </c>
       <c r="Q61" s="5" t="inlineStr"/>
       <c r="R61" s="5" t="inlineStr">
         <is>
-          <t>DepEd CCD 2022 - 13</t>
-        </is>
-      </c>
-      <c r="S61" s="5" t="inlineStr">
-        <is>
-          <t>DepEd CCD 2022 - 29</t>
-        </is>
-      </c>
+          <t>cityofnaga2022-001</t>
+        </is>
+      </c>
+      <c r="S61" s="5" t="inlineStr"/>
       <c r="T61" s="6" t="n">
-        <v>44751</v>
+        <v>44663</v>
       </c>
       <c r="U61" s="6" t="n">
-        <v>44760</v>
+        <v>44670</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>44774</v>
+        <v>44685</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>44785</v>
-      </c>
-      <c r="X61" s="5" t="inlineStr">
-        <is>
-          <t>Sept. 20, 2022</t>
-        </is>
+        <v>44706</v>
+      </c>
+      <c r="X61" s="6" t="n">
+        <v>44732</v>
       </c>
       <c r="Y61" s="5" t="inlineStr">
         <is>
-          <t>ANIELTHON CONST. &amp; SUPPLY</t>
-        </is>
-      </c>
-      <c r="Z61" s="5" t="inlineStr"/>
+          <t>TRI BAIRN CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="Z61" s="5" t="inlineStr">
+        <is>
+          <t>LOT 1</t>
+        </is>
+      </c>
       <c r="AA61" s="7" t="n"/>
     </row>
     <row r="62">
@@ -5954,11 +5974,11 @@
         </is>
       </c>
       <c r="D62" s="5" t="n">
-        <v>119516</v>
+        <v>500218</v>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>Cepoc Central Elementary School</t>
+          <t>Naga Special Education Center</t>
         </is>
       </c>
       <c r="F62" s="5" t="inlineStr">
@@ -5981,13 +6001,13 @@
         </is>
       </c>
       <c r="K62" s="5" t="n">
-        <v>3999819.924556428</v>
+        <v>4999370.254261787</v>
       </c>
       <c r="L62" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>3992404.31</v>
+        <v>4990393.35</v>
       </c>
       <c r="N62" s="5" t="inlineStr">
         <is>
@@ -6024,12 +6044,12 @@
       </c>
       <c r="Y62" s="5" t="inlineStr">
         <is>
-          <t>SB &amp; T Construction OPC</t>
+          <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z62" s="5" t="inlineStr">
         <is>
-          <t>LOT 2</t>
+          <t>LOT 1</t>
         </is>
       </c>
       <c r="AA62" s="7" t="n"/>
@@ -6051,11 +6071,11 @@
         </is>
       </c>
       <c r="D63" s="5" t="n">
-        <v>119509</v>
+        <v>119512</v>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>Naga Central Elementary School</t>
+          <t>Tuyan Central Elementary School</t>
         </is>
       </c>
       <c r="F63" s="5" t="inlineStr">
@@ -6070,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J63" s="5" t="inlineStr">
         <is>
@@ -6078,13 +6098,13 @@
         </is>
       </c>
       <c r="K63" s="5" t="n">
-        <v>6498802.268025186</v>
+        <v>5025620.254261787</v>
       </c>
       <c r="L63" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>6487267.56</v>
+        <v>4979100.18</v>
       </c>
       <c r="N63" s="5" t="inlineStr">
         <is>
@@ -6121,12 +6141,12 @@
       </c>
       <c r="Y63" s="5" t="inlineStr">
         <is>
-          <t>TRI BAIRN CONSTRUCTION</t>
+          <t>SB &amp; T Construction OPC</t>
         </is>
       </c>
       <c r="Z63" s="5" t="inlineStr">
         <is>
-          <t>LOT 1</t>
+          <t>LOT 2</t>
         </is>
       </c>
       <c r="AA63" s="7" t="n"/>
@@ -6144,30 +6164,30 @@
       </c>
       <c r="C64" s="5" t="inlineStr">
         <is>
-          <t>City of Naga, Cebu</t>
+          <t>Lapu-Lapu City</t>
         </is>
       </c>
       <c r="D64" s="5" t="n">
-        <v>500218</v>
+        <v>119954</v>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>Naga Special Education Center</t>
+          <t>Caw-oy Elementary School</t>
         </is>
       </c>
       <c r="F64" s="5" t="inlineStr">
         <is>
-          <t>CITY OF NAGA</t>
+          <t>LAPU-LAPU CITY (OPON)</t>
         </is>
       </c>
       <c r="G64" s="5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H64" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J64" s="5" t="inlineStr">
         <is>
@@ -6175,14 +6195,12 @@
         </is>
       </c>
       <c r="K64" s="5" t="n">
-        <v>4999370.254261787</v>
+        <v>4351778.22</v>
       </c>
       <c r="L64" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M64" s="5" t="n">
-        <v>4990393.35</v>
-      </c>
+      <c r="M64" s="5" t="inlineStr"/>
       <c r="N64" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6191,39 +6209,21 @@
       <c r="O64" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P64" s="6" t="n">
-        <v>44859</v>
-      </c>
+      <c r="P64" s="5" t="inlineStr"/>
       <c r="Q64" s="5" t="inlineStr"/>
-      <c r="R64" s="5" t="inlineStr">
-        <is>
-          <t>cityofnaga2022-001</t>
-        </is>
+      <c r="R64" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="S64" s="5" t="inlineStr"/>
-      <c r="T64" s="6" t="n">
-        <v>44663</v>
-      </c>
-      <c r="U64" s="6" t="n">
-        <v>44670</v>
-      </c>
-      <c r="V64" s="6" t="n">
-        <v>44685</v>
-      </c>
-      <c r="W64" s="6" t="n">
-        <v>44706</v>
-      </c>
-      <c r="X64" s="6" t="n">
-        <v>44732</v>
-      </c>
-      <c r="Y64" s="5" t="inlineStr">
-        <is>
-          <t>TRI BAIRN CONSTRUCTION</t>
-        </is>
-      </c>
+      <c r="T64" s="5" t="inlineStr"/>
+      <c r="U64" s="5" t="inlineStr"/>
+      <c r="V64" s="5" t="inlineStr"/>
+      <c r="W64" s="5" t="inlineStr"/>
+      <c r="X64" s="5" t="inlineStr"/>
+      <c r="Y64" s="5" t="inlineStr"/>
       <c r="Z64" s="5" t="inlineStr">
         <is>
-          <t>LOT 1</t>
+          <t>realigned same school change target and scope</t>
         </is>
       </c>
       <c r="AA64" s="7" t="n"/>
@@ -6241,30 +6241,30 @@
       </c>
       <c r="C65" s="5" t="inlineStr">
         <is>
-          <t>City of Naga, Cebu</t>
+          <t>Lapu-Lapu City</t>
         </is>
       </c>
       <c r="D65" s="5" t="n">
-        <v>119512</v>
+        <v>119989</v>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>Tuyan Central Elementary School</t>
+          <t>Lapu-Lapu City Central Elementary School</t>
         </is>
       </c>
       <c r="F65" s="5" t="inlineStr">
         <is>
-          <t>CITY OF NAGA</t>
+          <t>LAPU-LAPU CITY (OPON)</t>
         </is>
       </c>
       <c r="G65" s="5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H65" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J65" s="5" t="inlineStr">
         <is>
@@ -6272,14 +6272,12 @@
         </is>
       </c>
       <c r="K65" s="5" t="n">
-        <v>5025620.254261787</v>
+        <v>36000000</v>
       </c>
       <c r="L65" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M65" s="5" t="n">
-        <v>4979100.18</v>
-      </c>
+      <c r="M65" s="5" t="inlineStr"/>
       <c r="N65" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -6288,39 +6286,51 @@
       <c r="O65" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P65" s="6" t="n">
-        <v>44859</v>
+      <c r="P65" s="5" t="inlineStr">
+        <is>
+          <t>January 26, 2023</t>
+        </is>
       </c>
       <c r="Q65" s="5" t="inlineStr"/>
       <c r="R65" s="5" t="inlineStr">
         <is>
-          <t>cityofnaga2022-001</t>
+          <t>2022-Infra-001</t>
         </is>
       </c>
       <c r="S65" s="5" t="inlineStr"/>
-      <c r="T65" s="6" t="n">
-        <v>44663</v>
-      </c>
-      <c r="U65" s="6" t="n">
-        <v>44670</v>
-      </c>
-      <c r="V65" s="6" t="n">
-        <v>44685</v>
-      </c>
-      <c r="W65" s="6" t="n">
-        <v>44706</v>
-      </c>
-      <c r="X65" s="6" t="n">
-        <v>44732</v>
+      <c r="T65" s="5" t="inlineStr">
+        <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="U65" s="5" t="inlineStr">
+        <is>
+          <t>June 29, 2022</t>
+        </is>
+      </c>
+      <c r="V65" s="5" t="inlineStr">
+        <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="W65" s="5" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="X65" s="5" t="inlineStr">
+        <is>
+          <t>December 29, 2022</t>
+        </is>
       </c>
       <c r="Y65" s="5" t="inlineStr">
         <is>
-          <t>SB &amp; T Construction OPC</t>
+          <t>MANINGO ENTERPRISES</t>
         </is>
       </c>
       <c r="Z65" s="5" t="inlineStr">
         <is>
-          <t>LOT 2</t>
+          <t>realigned same school change target and scope</t>
         </is>
       </c>
       <c r="AA65" s="7" t="n"/>
@@ -6342,11 +6352,11 @@
         </is>
       </c>
       <c r="D66" s="5" t="n">
-        <v>119954</v>
+        <v>119989</v>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>Caw-oy Elementary School</t>
+          <t>Lapu-Lapu City Central Elementary School</t>
         </is>
       </c>
       <c r="F66" s="5" t="inlineStr">
@@ -6357,11 +6367,9 @@
       <c r="G66" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H66" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H66" s="5" t="inlineStr"/>
       <c r="I66" s="5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J66" s="5" t="inlineStr">
         <is>
@@ -6369,7 +6377,7 @@
         </is>
       </c>
       <c r="K66" s="5" t="n">
-        <v>4351778.22</v>
+        <v>27500000</v>
       </c>
       <c r="L66" s="5" t="n">
         <v>1</v>
@@ -6377,24 +6385,54 @@
       <c r="M66" s="5" t="inlineStr"/>
       <c r="N66" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="O66" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P66" s="5" t="inlineStr"/>
+      <c r="P66" s="5" t="inlineStr">
+        <is>
+          <t>January 26, 2023</t>
+        </is>
+      </c>
       <c r="Q66" s="5" t="inlineStr"/>
-      <c r="R66" s="5" t="n">
-        <v>0</v>
+      <c r="R66" s="5" t="inlineStr">
+        <is>
+          <t>2022-Infra-001</t>
+        </is>
       </c>
       <c r="S66" s="5" t="inlineStr"/>
-      <c r="T66" s="5" t="inlineStr"/>
-      <c r="U66" s="5" t="inlineStr"/>
-      <c r="V66" s="5" t="inlineStr"/>
-      <c r="W66" s="5" t="inlineStr"/>
-      <c r="X66" s="5" t="inlineStr"/>
-      <c r="Y66" s="5" t="inlineStr"/>
+      <c r="T66" s="5" t="inlineStr">
+        <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="U66" s="5" t="inlineStr">
+        <is>
+          <t>June 29, 2022</t>
+        </is>
+      </c>
+      <c r="V66" s="5" t="inlineStr">
+        <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="W66" s="5" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="X66" s="5" t="inlineStr">
+        <is>
+          <t>December 29, 2022</t>
+        </is>
+      </c>
+      <c r="Y66" s="5" t="inlineStr">
+        <is>
+          <t>MANINGO ENTERPRISES</t>
+        </is>
+      </c>
       <c r="Z66" s="5" t="inlineStr">
         <is>
           <t>realigned same school change target and scope</t>
@@ -6415,30 +6453,30 @@
       </c>
       <c r="C67" s="5" t="inlineStr">
         <is>
-          <t>Lapu-Lapu City</t>
+          <t>Talisay City</t>
         </is>
       </c>
       <c r="D67" s="5" t="n">
-        <v>119989</v>
+        <v>322203</v>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>Lapu-Lapu City Central Elementary School</t>
+          <t>Manipis National High School</t>
         </is>
       </c>
       <c r="F67" s="5" t="inlineStr">
         <is>
-          <t>LAPU-LAPU CITY (OPON)</t>
+          <t>CITY OF TALISAY</t>
         </is>
       </c>
       <c r="G67" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H67" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="J67" s="5" t="inlineStr">
         <is>
@@ -6446,7 +6484,7 @@
         </is>
       </c>
       <c r="K67" s="5" t="n">
-        <v>36000000</v>
+        <v>1926214.113590364</v>
       </c>
       <c r="L67" s="5" t="n">
         <v>1</v>
@@ -6460,53 +6498,19 @@
       <c r="O67" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P67" s="5" t="inlineStr">
-        <is>
-          <t>January 26, 2023</t>
-        </is>
-      </c>
+      <c r="P67" s="5" t="inlineStr"/>
       <c r="Q67" s="5" t="inlineStr"/>
-      <c r="R67" s="5" t="inlineStr">
-        <is>
-          <t>2022-Infra-001</t>
-        </is>
+      <c r="R67" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="S67" s="5" t="inlineStr"/>
-      <c r="T67" s="5" t="inlineStr">
-        <is>
-          <t>June 22, 2022</t>
-        </is>
-      </c>
-      <c r="U67" s="5" t="inlineStr">
-        <is>
-          <t>June 29, 2022</t>
-        </is>
-      </c>
-      <c r="V67" s="5" t="inlineStr">
-        <is>
-          <t>July 11, 2022</t>
-        </is>
-      </c>
-      <c r="W67" s="5" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="X67" s="5" t="inlineStr">
-        <is>
-          <t>December 29, 2022</t>
-        </is>
-      </c>
-      <c r="Y67" s="5" t="inlineStr">
-        <is>
-          <t>MANINGO ENTERPRISES</t>
-        </is>
-      </c>
-      <c r="Z67" s="5" t="inlineStr">
-        <is>
-          <t>realigned same school change target and scope</t>
-        </is>
-      </c>
+      <c r="T67" s="5" t="inlineStr"/>
+      <c r="U67" s="5" t="inlineStr"/>
+      <c r="V67" s="5" t="inlineStr"/>
+      <c r="W67" s="5" t="inlineStr"/>
+      <c r="X67" s="5" t="inlineStr"/>
+      <c r="Y67" s="5" t="inlineStr"/>
+      <c r="Z67" s="5" t="inlineStr"/>
       <c r="AA67" s="7" t="n"/>
     </row>
     <row r="68">
@@ -6522,28 +6526,30 @@
       </c>
       <c r="C68" s="5" t="inlineStr">
         <is>
-          <t>Lapu-Lapu City</t>
+          <t>Talisay City</t>
         </is>
       </c>
       <c r="D68" s="5" t="n">
-        <v>119989</v>
+        <v>119803</v>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>Lapu-Lapu City Central Elementary School</t>
+          <t>Tabunoc Central  School</t>
         </is>
       </c>
       <c r="F68" s="5" t="inlineStr">
         <is>
-          <t>LAPU-LAPU CITY (OPON)</t>
+          <t>CITY OF TALISAY</t>
         </is>
       </c>
       <c r="G68" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H68" s="5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I68" s="5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J68" s="5" t="inlineStr">
         <is>
@@ -6551,7 +6557,7 @@
         </is>
       </c>
       <c r="K68" s="5" t="n">
-        <v>27500000</v>
+        <v>1869425.397330974</v>
       </c>
       <c r="L68" s="5" t="n">
         <v>1</v>
@@ -6559,59 +6565,25 @@
       <c r="M68" s="5" t="inlineStr"/>
       <c r="N68" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O68" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P68" s="5" t="inlineStr">
-        <is>
-          <t>January 26, 2023</t>
-        </is>
-      </c>
+      <c r="P68" s="5" t="inlineStr"/>
       <c r="Q68" s="5" t="inlineStr"/>
-      <c r="R68" s="5" t="inlineStr">
-        <is>
-          <t>2022-Infra-001</t>
-        </is>
+      <c r="R68" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="S68" s="5" t="inlineStr"/>
-      <c r="T68" s="5" t="inlineStr">
-        <is>
-          <t>June 22, 2022</t>
-        </is>
-      </c>
-      <c r="U68" s="5" t="inlineStr">
-        <is>
-          <t>June 29, 2022</t>
-        </is>
-      </c>
-      <c r="V68" s="5" t="inlineStr">
-        <is>
-          <t>July 11, 2022</t>
-        </is>
-      </c>
-      <c r="W68" s="5" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="X68" s="5" t="inlineStr">
-        <is>
-          <t>December 29, 2022</t>
-        </is>
-      </c>
-      <c r="Y68" s="5" t="inlineStr">
-        <is>
-          <t>MANINGO ENTERPRISES</t>
-        </is>
-      </c>
-      <c r="Z68" s="5" t="inlineStr">
-        <is>
-          <t>realigned same school change target and scope</t>
-        </is>
-      </c>
+      <c r="T68" s="5" t="inlineStr"/>
+      <c r="U68" s="5" t="inlineStr"/>
+      <c r="V68" s="5" t="inlineStr"/>
+      <c r="W68" s="5" t="inlineStr"/>
+      <c r="X68" s="5" t="inlineStr"/>
+      <c r="Y68" s="5" t="inlineStr"/>
+      <c r="Z68" s="5" t="inlineStr"/>
       <c r="AA68" s="7" t="n"/>
     </row>
     <row r="69">
@@ -6631,11 +6603,11 @@
         </is>
       </c>
       <c r="D69" s="5" t="n">
-        <v>322203</v>
+        <v>119791</v>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>Manipis National High School</t>
+          <t>Talisay City CES</t>
         </is>
       </c>
       <c r="F69" s="5" t="inlineStr">
@@ -6650,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="5" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J69" s="5" t="inlineStr">
         <is>
@@ -6658,7 +6630,7 @@
         </is>
       </c>
       <c r="K69" s="5" t="n">
-        <v>1926214.113590364</v>
+        <v>7433950.412653901</v>
       </c>
       <c r="L69" s="5" t="n">
         <v>1</v>
@@ -6704,11 +6676,11 @@
         </is>
       </c>
       <c r="D70" s="5" t="n">
-        <v>119803</v>
+        <v>119791</v>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>Tabunoc Central  School</t>
+          <t>Talisay City CES</t>
         </is>
       </c>
       <c r="F70" s="5" t="inlineStr">
@@ -6719,19 +6691,17 @@
       <c r="G70" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H70" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="H70" s="5" t="inlineStr"/>
       <c r="I70" s="5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J70" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>NEW CONSTRUCTION</t>
         </is>
       </c>
       <c r="K70" s="5" t="n">
-        <v>1869425.397330974</v>
+        <v>30000000</v>
       </c>
       <c r="L70" s="5" t="n">
         <v>1</v>
@@ -6773,30 +6743,30 @@
       </c>
       <c r="C71" s="5" t="inlineStr">
         <is>
-          <t>Talisay City</t>
+          <t>Toledo City</t>
         </is>
       </c>
       <c r="D71" s="5" t="n">
-        <v>119791</v>
+        <v>120757</v>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>Talisay City CES</t>
+          <t>South City Central ES</t>
         </is>
       </c>
       <c r="F71" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
+          <t>TOLEDO CITY</t>
         </is>
       </c>
       <c r="G71" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I71" s="5" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J71" s="5" t="inlineStr">
         <is>
@@ -6804,7 +6774,7 @@
         </is>
       </c>
       <c r="K71" s="5" t="n">
-        <v>7433950.412653901</v>
+        <v>11050000</v>
       </c>
       <c r="L71" s="5" t="n">
         <v>1</v>
@@ -6836,7 +6806,7 @@
     <row r="72">
       <c r="A72" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B72" s="5" t="inlineStr">
@@ -6846,36 +6816,40 @@
       </c>
       <c r="C72" s="5" t="inlineStr">
         <is>
-          <t>Talisay City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D72" s="5" t="n">
-        <v>119791</v>
+        <v>117968</v>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>Talisay City CES</t>
+          <t>Antequera Central ES</t>
         </is>
       </c>
       <c r="F72" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
-        </is>
-      </c>
-      <c r="G72" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" s="5" t="inlineStr"/>
+          <t>ANTEQUERA</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I72" s="5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J72" s="5" t="inlineStr">
         <is>
-          <t>NEW CONSTRUCTION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K72" s="5" t="n">
-        <v>30000000</v>
+        <v>1412793.43</v>
       </c>
       <c r="L72" s="5" t="n">
         <v>1</v>
@@ -6889,7 +6863,9 @@
       <c r="O72" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P72" s="5" t="inlineStr"/>
+      <c r="P72" s="6" t="n">
+        <v>45154</v>
+      </c>
       <c r="Q72" s="5" t="inlineStr"/>
       <c r="R72" s="5" t="n">
         <v>0</v>
@@ -6907,7 +6883,7 @@
     <row r="73">
       <c r="A73" s="5" t="inlineStr">
         <is>
-          <t>QRF 2022</t>
+          <t>QRF 2022 REPLENISHMENT</t>
         </is>
       </c>
       <c r="B73" s="5" t="inlineStr">
@@ -6917,38 +6893,40 @@
       </c>
       <c r="C73" s="5" t="inlineStr">
         <is>
-          <t>Toledo City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D73" s="5" t="n">
-        <v>120757</v>
+        <v>118171</v>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>South City Central ES</t>
+          <t>Causwagan ES</t>
         </is>
       </c>
       <c r="F73" s="5" t="inlineStr">
         <is>
-          <t>TOLEDO CITY</t>
-        </is>
-      </c>
-      <c r="G73" s="5" t="n">
-        <v>3</v>
+          <t>CATIGBIAN</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="H73" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I73" s="5" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J73" s="5" t="inlineStr">
         <is>
-          <t>REPAIR/ REHABILITATION</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K73" s="5" t="n">
-        <v>11050000</v>
+        <v>212611.341223969</v>
       </c>
       <c r="L73" s="5" t="n">
         <v>1</v>
@@ -6962,7 +6940,9 @@
       <c r="O73" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P73" s="5" t="inlineStr"/>
+      <c r="P73" s="6" t="n">
+        <v>45204</v>
+      </c>
       <c r="Q73" s="5" t="inlineStr"/>
       <c r="R73" s="5" t="n">
         <v>0</v>
@@ -6994,36 +6974,36 @@
         </is>
       </c>
       <c r="D74" s="5" t="n">
-        <v>117968</v>
+        <v>118027</v>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>Antequera Central ES</t>
+          <t>Bien Unido Central ES</t>
         </is>
       </c>
       <c r="F74" s="5" t="inlineStr">
         <is>
-          <t>ANTEQUERA</t>
+          <t>BIEN UNIDO</t>
         </is>
       </c>
       <c r="G74" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="H74" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I74" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J74" s="5" t="inlineStr">
         <is>
-          <t>REPAIR OF CLASSROOMS</t>
+          <t>Replacement</t>
         </is>
       </c>
       <c r="K74" s="5" t="n">
-        <v>1412793.43</v>
+        <v>2500000</v>
       </c>
       <c r="L74" s="5" t="n">
         <v>1</v>
@@ -7038,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>45154</v>
+        <v>45199</v>
       </c>
       <c r="Q74" s="5" t="inlineStr"/>
       <c r="R74" s="5" t="n">
@@ -7071,28 +7051,28 @@
         </is>
       </c>
       <c r="D75" s="5" t="n">
-        <v>118171</v>
+        <v>118027</v>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>Causwagan ES</t>
+          <t>Bien Unido Central ES</t>
         </is>
       </c>
       <c r="F75" s="5" t="inlineStr">
         <is>
-          <t>CATIGBIAN</t>
+          <t>BIEN UNIDO</t>
         </is>
       </c>
       <c r="G75" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="H75" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I75" s="5" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J75" s="5" t="inlineStr">
         <is>
@@ -7100,7 +7080,7 @@
         </is>
       </c>
       <c r="K75" s="5" t="n">
-        <v>212611.341223969</v>
+        <v>8892337.27</v>
       </c>
       <c r="L75" s="5" t="n">
         <v>1</v>
@@ -7115,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>45204</v>
+        <v>45198</v>
       </c>
       <c r="Q75" s="5" t="inlineStr"/>
       <c r="R75" s="5" t="n">
@@ -7148,16 +7128,16 @@
         </is>
       </c>
       <c r="D76" s="5" t="n">
-        <v>118027</v>
+        <v>118223</v>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>Bien Unido Central ES</t>
+          <t>Dagohoy Central Elementary</t>
         </is>
       </c>
       <c r="F76" s="5" t="inlineStr">
         <is>
-          <t>BIEN UNIDO</t>
+          <t>DAGOHOY</t>
         </is>
       </c>
       <c r="G76" s="5" t="inlineStr">
@@ -7169,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" s="5" t="inlineStr">
         <is>
@@ -7177,7 +7157,7 @@
         </is>
       </c>
       <c r="K76" s="5" t="n">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="L76" s="5" t="n">
         <v>1</v>
@@ -7192,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>45199</v>
+        <v>45258</v>
       </c>
       <c r="Q76" s="5" t="inlineStr"/>
       <c r="R76" s="5" t="n">
@@ -7225,16 +7205,16 @@
         </is>
       </c>
       <c r="D77" s="5" t="n">
-        <v>118027</v>
+        <v>118223</v>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>Bien Unido Central ES</t>
+          <t>Dagohoy Central Elementary</t>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
         <is>
-          <t>BIEN UNIDO</t>
+          <t>DAGOHOY</t>
         </is>
       </c>
       <c r="G77" s="5" t="inlineStr">
@@ -7246,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="5" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J77" s="5" t="inlineStr">
         <is>
@@ -7254,7 +7234,7 @@
         </is>
       </c>
       <c r="K77" s="5" t="n">
-        <v>8892337.27</v>
+        <v>7385372.54</v>
       </c>
       <c r="L77" s="5" t="n">
         <v>1</v>
@@ -7269,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>45198</v>
+        <v>45144</v>
       </c>
       <c r="Q77" s="5" t="inlineStr"/>
       <c r="R77" s="5" t="n">
@@ -7302,16 +7282,16 @@
         </is>
       </c>
       <c r="D78" s="5" t="n">
-        <v>118223</v>
+        <v>500209</v>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy Central Elementary</t>
+          <t>Inabanga North Central Integrated School (Elementary)</t>
         </is>
       </c>
       <c r="F78" s="5" t="inlineStr">
         <is>
-          <t>DAGOHOY</t>
+          <t>INABANGA</t>
         </is>
       </c>
       <c r="G78" s="5" t="inlineStr">
@@ -7323,15 +7303,15 @@
         <v>1</v>
       </c>
       <c r="I78" s="5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J78" s="5" t="inlineStr">
         <is>
-          <t>Replacement</t>
+          <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
       <c r="K78" s="5" t="n">
-        <v>5000000</v>
+        <v>3501389.75460645</v>
       </c>
       <c r="L78" s="5" t="n">
         <v>1</v>
@@ -7346,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>45258</v>
+        <v>45229</v>
       </c>
       <c r="Q78" s="5" t="inlineStr"/>
       <c r="R78" s="5" t="n">
@@ -7379,16 +7359,16 @@
         </is>
       </c>
       <c r="D79" s="5" t="n">
-        <v>118223</v>
+        <v>118641</v>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy Central Elementary</t>
+          <t>San Isidro Central ES</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>DAGOHOY</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="G79" s="5" t="inlineStr">
@@ -7400,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="5" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J79" s="5" t="inlineStr">
         <is>
@@ -7408,7 +7388,7 @@
         </is>
       </c>
       <c r="K79" s="5" t="n">
-        <v>7385372.54</v>
+        <v>3191281.8119385</v>
       </c>
       <c r="L79" s="5" t="n">
         <v>1</v>
@@ -7423,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>45144</v>
+        <v>45228</v>
       </c>
       <c r="Q79" s="5" t="inlineStr"/>
       <c r="R79" s="5" t="n">
@@ -7456,28 +7436,28 @@
         </is>
       </c>
       <c r="D80" s="5" t="n">
-        <v>500209</v>
+        <v>117953</v>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>Inabanga North Central Integrated School (Elementary)</t>
+          <t>Anda Central ES</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t>INABANGA</t>
+          <t>ANDA</t>
         </is>
       </c>
       <c r="G80" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H80" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I80" s="5" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J80" s="5" t="inlineStr">
         <is>
@@ -7485,7 +7465,7 @@
         </is>
       </c>
       <c r="K80" s="5" t="n">
-        <v>3501389.75460645</v>
+        <v>336249.7955432701</v>
       </c>
       <c r="L80" s="5" t="n">
         <v>1</v>
@@ -7500,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>45229</v>
+        <v>45240</v>
       </c>
       <c r="Q80" s="5" t="inlineStr"/>
       <c r="R80" s="5" t="n">
@@ -7533,28 +7513,28 @@
         </is>
       </c>
       <c r="D81" s="5" t="n">
-        <v>118641</v>
+        <v>118012</v>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>San Isidro Central ES</t>
+          <t>Batuan Central ES</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>BATUAN</t>
         </is>
       </c>
       <c r="G81" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H81" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I81" s="5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J81" s="5" t="inlineStr">
         <is>
@@ -7562,7 +7542,7 @@
         </is>
       </c>
       <c r="K81" s="5" t="n">
-        <v>3191281.8119385</v>
+        <v>982408.6011014185</v>
       </c>
       <c r="L81" s="5" t="n">
         <v>1</v>
@@ -7577,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>45228</v>
+        <v>45240</v>
       </c>
       <c r="Q81" s="5" t="inlineStr"/>
       <c r="R81" s="5" t="n">
@@ -7610,16 +7590,16 @@
         </is>
       </c>
       <c r="D82" s="5" t="n">
-        <v>117953</v>
+        <v>118193</v>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>Anda Central ES</t>
+          <t>Clarin Central ES</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
         <is>
-          <t>ANDA</t>
+          <t>CLARIN</t>
         </is>
       </c>
       <c r="G82" s="5" t="inlineStr">
@@ -7631,7 +7611,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="5" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J82" s="5" t="inlineStr">
         <is>
@@ -7639,7 +7619,7 @@
         </is>
       </c>
       <c r="K82" s="5" t="n">
-        <v>336249.7955432701</v>
+        <v>4446904.509141677</v>
       </c>
       <c r="L82" s="5" t="n">
         <v>1</v>
@@ -7654,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>45240</v>
+        <v>45229</v>
       </c>
       <c r="Q82" s="5" t="inlineStr"/>
       <c r="R82" s="5" t="n">
@@ -7687,16 +7667,16 @@
         </is>
       </c>
       <c r="D83" s="5" t="n">
-        <v>118012</v>
+        <v>118520</v>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>Batuan Central ES</t>
+          <t>Mabini Central ES</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t>BATUAN</t>
+          <t>MABINI</t>
         </is>
       </c>
       <c r="G83" s="5" t="inlineStr">
@@ -7708,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J83" s="5" t="inlineStr">
         <is>
@@ -7716,7 +7696,7 @@
         </is>
       </c>
       <c r="K83" s="5" t="n">
-        <v>982408.6011014185</v>
+        <v>2450000</v>
       </c>
       <c r="L83" s="5" t="n">
         <v>1</v>
@@ -7731,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>45240</v>
+        <v>45228</v>
       </c>
       <c r="Q83" s="5" t="inlineStr"/>
       <c r="R83" s="5" t="n">
@@ -7764,16 +7744,16 @@
         </is>
       </c>
       <c r="D84" s="5" t="n">
-        <v>118193</v>
+        <v>118581</v>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>Clarin Central ES</t>
+          <t>Pilar Central ES</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t>CLARIN</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="G84" s="5" t="inlineStr">
@@ -7785,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J84" s="5" t="inlineStr">
         <is>
@@ -7793,7 +7773,7 @@
         </is>
       </c>
       <c r="K84" s="5" t="n">
-        <v>4446904.509141677</v>
+        <v>4933014.062481614</v>
       </c>
       <c r="L84" s="5" t="n">
         <v>1</v>
@@ -7808,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>45229</v>
+        <v>45204</v>
       </c>
       <c r="Q84" s="5" t="inlineStr"/>
       <c r="R84" s="5" t="n">
@@ -7837,32 +7817,32 @@
       </c>
       <c r="C85" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D85" s="5" t="n">
-        <v>118520</v>
+        <v>119632</v>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>Mabini Central ES</t>
+          <t>SANGAT CES</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
         <is>
-          <t>MABINI</t>
+          <t>SAN FERNANDO</t>
         </is>
       </c>
       <c r="G85" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H85" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I85" s="5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J85" s="5" t="inlineStr">
         <is>
@@ -7870,34 +7850,54 @@
         </is>
       </c>
       <c r="K85" s="5" t="n">
-        <v>2450000</v>
+        <v>7500000</v>
       </c>
       <c r="L85" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M85" s="5" t="inlineStr"/>
+      <c r="M85" s="5" t="n">
+        <v>5707088.03</v>
+      </c>
       <c r="N85" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>REVERTED</t>
         </is>
       </c>
       <c r="O85" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>45228</v>
+        <v>45175</v>
       </c>
       <c r="Q85" s="5" t="inlineStr"/>
-      <c r="R85" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" s="5" t="inlineStr"/>
-      <c r="T85" s="5" t="inlineStr"/>
-      <c r="U85" s="5" t="inlineStr"/>
-      <c r="V85" s="5" t="inlineStr"/>
+      <c r="R85" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2</t>
+        </is>
+      </c>
+      <c r="S85" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-03</t>
+        </is>
+      </c>
+      <c r="T85" s="6" t="n">
+        <v>44979</v>
+      </c>
+      <c r="U85" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="V85" s="6" t="n">
+        <v>44998</v>
+      </c>
       <c r="W85" s="5" t="inlineStr"/>
-      <c r="X85" s="5" t="inlineStr"/>
-      <c r="Y85" s="5" t="inlineStr"/>
+      <c r="X85" s="6" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y85" s="5" t="inlineStr">
+        <is>
+          <t>GELA CONSTRUCTION</t>
+        </is>
+      </c>
       <c r="Z85" s="5" t="inlineStr"/>
       <c r="AA85" s="7" t="n"/>
     </row>
@@ -7914,32 +7914,32 @@
       </c>
       <c r="C86" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D86" s="5" t="n">
-        <v>118581</v>
+        <v>119722</v>
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>Pilar Central ES</t>
+          <t>Sibonga Central ES</t>
         </is>
       </c>
       <c r="F86" s="5" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>SIBONGA</t>
         </is>
       </c>
       <c r="G86" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H86" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I86" s="5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J86" s="5" t="inlineStr">
         <is>
@@ -7947,12 +7947,14 @@
         </is>
       </c>
       <c r="K86" s="5" t="n">
-        <v>4933014.062481614</v>
+        <v>2074340.37774075</v>
       </c>
       <c r="L86" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M86" s="5" t="inlineStr"/>
+      <c r="M86" s="5" t="n">
+        <v>12305913.39</v>
+      </c>
       <c r="N86" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -7962,19 +7964,37 @@
         <v>1</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>45204</v>
+        <v>45175</v>
       </c>
       <c r="Q86" s="5" t="inlineStr"/>
-      <c r="R86" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S86" s="5" t="inlineStr"/>
-      <c r="T86" s="5" t="inlineStr"/>
-      <c r="U86" s="5" t="inlineStr"/>
-      <c r="V86" s="5" t="inlineStr"/>
+      <c r="R86" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2</t>
+        </is>
+      </c>
+      <c r="S86" s="5" t="inlineStr">
+        <is>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-02</t>
+        </is>
+      </c>
+      <c r="T86" s="6" t="n">
+        <v>44979</v>
+      </c>
+      <c r="U86" s="6" t="n">
+        <v>44986</v>
+      </c>
+      <c r="V86" s="6" t="n">
+        <v>44998</v>
+      </c>
       <c r="W86" s="5" t="inlineStr"/>
-      <c r="X86" s="5" t="inlineStr"/>
-      <c r="Y86" s="5" t="inlineStr"/>
+      <c r="X86" s="6" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Y86" s="5" t="inlineStr">
+        <is>
+          <t>ANIELTHON CONSTRUCTION AND SUPPLY</t>
+        </is>
+      </c>
       <c r="Z86" s="5" t="inlineStr"/>
       <c r="AA86" s="7" t="n"/>
     </row>
@@ -7995,21 +8015,21 @@
         </is>
       </c>
       <c r="D87" s="5" t="n">
-        <v>119632</v>
+        <v>118917</v>
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>SANGAT CES</t>
+          <t>Argao I Central ES</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>ARGAO</t>
         </is>
       </c>
       <c r="G87" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="H87" s="5" t="n">
@@ -8024,21 +8044,21 @@
         </is>
       </c>
       <c r="K87" s="5" t="n">
-        <v>7500000</v>
+        <v>12359157.52</v>
       </c>
       <c r="L87" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>5707088.03</v>
+        <v>693338</v>
       </c>
       <c r="N87" s="5" t="inlineStr">
         <is>
-          <t>REVERTED</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="O87" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" s="6" t="n">
         <v>45175</v>
@@ -8051,7 +8071,7 @@
       </c>
       <c r="S87" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-03</t>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-01</t>
         </is>
       </c>
       <c r="T87" s="6" t="n">
@@ -8092,28 +8112,28 @@
         </is>
       </c>
       <c r="D88" s="5" t="n">
-        <v>119722</v>
+        <v>119298</v>
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>Sibonga Central ES</t>
+          <t>DALAGUETE CENTRAL ES</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
         <is>
-          <t>SIBONGA</t>
+          <t>DALAGUETE</t>
         </is>
       </c>
       <c r="G88" s="5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="H88" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I88" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J88" s="5" t="inlineStr">
         <is>
@@ -8121,13 +8141,13 @@
         </is>
       </c>
       <c r="K88" s="5" t="n">
-        <v>2074340.37774075</v>
+        <v>705637.3957815001</v>
       </c>
       <c r="L88" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M88" s="5" t="n">
-        <v>12305913.39</v>
+        <v>3560851.53</v>
       </c>
       <c r="N88" s="5" t="inlineStr">
         <is>
@@ -8148,7 +8168,7 @@
       </c>
       <c r="S88" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-02</t>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-04</t>
         </is>
       </c>
       <c r="T88" s="6" t="n">
@@ -8166,7 +8186,7 @@
       </c>
       <c r="Y88" s="5" t="inlineStr">
         <is>
-          <t>ANIELTHON CONSTRUCTION AND SUPPLY</t>
+          <t>SB &amp; T CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z88" s="5" t="inlineStr"/>
@@ -8189,28 +8209,28 @@
         </is>
       </c>
       <c r="D89" s="5" t="n">
-        <v>118917</v>
+        <v>118900</v>
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>Argao I Central ES</t>
+          <t>Aloguinsan Central ES</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
-          <t>ARGAO</t>
+          <t>ALOGUINSAN</t>
         </is>
       </c>
       <c r="G89" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H89" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I89" s="5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J89" s="5" t="inlineStr">
         <is>
@@ -8218,13 +8238,13 @@
         </is>
       </c>
       <c r="K89" s="5" t="n">
-        <v>12359157.52</v>
+        <v>5745235.56</v>
       </c>
       <c r="L89" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>693338</v>
+        <v>2491050.24</v>
       </c>
       <c r="N89" s="5" t="inlineStr">
         <is>
@@ -8245,7 +8265,7 @@
       </c>
       <c r="S89" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-01</t>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-05</t>
         </is>
       </c>
       <c r="T89" s="6" t="n">
@@ -8263,7 +8283,7 @@
       </c>
       <c r="Y89" s="5" t="inlineStr">
         <is>
-          <t>GELA CONSTRUCTION</t>
+          <t>HERO CONTRUCTION AND DEVELOPMENT CORP.</t>
         </is>
       </c>
       <c r="Z89" s="5" t="inlineStr"/>
@@ -8286,28 +8306,28 @@
         </is>
       </c>
       <c r="D90" s="5" t="n">
-        <v>119298</v>
+        <v>119572</v>
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>DALAGUETE CENTRAL ES</t>
+          <t>Tajao Central School</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>DALAGUETE</t>
+          <t>PINAMUNGAHAN</t>
         </is>
       </c>
       <c r="G90" s="5" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H90" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I90" s="5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J90" s="5" t="inlineStr">
         <is>
@@ -8315,7 +8335,7 @@
         </is>
       </c>
       <c r="K90" s="5" t="n">
-        <v>705637.3957815001</v>
+        <v>3599380.52</v>
       </c>
       <c r="L90" s="5" t="n">
         <v>1</v>
@@ -8363,7 +8383,11 @@
           <t>SB &amp; T CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z90" s="5" t="inlineStr"/>
+      <c r="Z90" s="5" t="inlineStr">
+        <is>
+          <t>for procurement;revised pow</t>
+        </is>
+      </c>
       <c r="AA90" s="7" t="n"/>
     </row>
     <row r="91">
@@ -8383,16 +8407,16 @@
         </is>
       </c>
       <c r="D91" s="5" t="n">
-        <v>118900</v>
+        <v>119566</v>
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>Aloguinsan Central ES</t>
+          <t>PINAMUNGAJAN CES</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>ALOGUINSAN</t>
+          <t>PINAMUNGAJAN</t>
         </is>
       </c>
       <c r="G91" s="5" t="inlineStr">
@@ -8404,7 +8428,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J91" s="5" t="inlineStr">
         <is>
@@ -8412,13 +8436,13 @@
         </is>
       </c>
       <c r="K91" s="5" t="n">
-        <v>5745235.56</v>
+        <v>2706993.5847465</v>
       </c>
       <c r="L91" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>2491050.24</v>
+        <v>2073549.03</v>
       </c>
       <c r="N91" s="5" t="inlineStr">
         <is>
@@ -8439,7 +8463,7 @@
       </c>
       <c r="S91" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-05</t>
+          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-01</t>
         </is>
       </c>
       <c r="T91" s="6" t="n">
@@ -8457,7 +8481,7 @@
       </c>
       <c r="Y91" s="5" t="inlineStr">
         <is>
-          <t>HERO CONTRUCTION AND DEVELOPMENT CORP.</t>
+          <t>GELA CONSTRUCTION</t>
         </is>
       </c>
       <c r="Z91" s="5" t="inlineStr"/>
@@ -8476,92 +8500,88 @@
       </c>
       <c r="C92" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Tagbilaran City</t>
         </is>
       </c>
       <c r="D92" s="5" t="n">
-        <v>119572</v>
+        <v>118713</v>
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>Tajao Central School</t>
+          <t>Tagbilaran City Central Elementary School</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
-          <t>PINAMUNGAHAN</t>
+          <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
       <c r="G92" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H92" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I92" s="5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J92" s="5" t="inlineStr">
         <is>
-          <t>REPAIR OF CLASSROOMS</t>
+          <t>Replacement</t>
         </is>
       </c>
       <c r="K92" s="5" t="n">
-        <v>3599380.52</v>
+        <v>17000000</v>
       </c>
       <c r="L92" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>3560851.53</v>
+        <v>16952019.97</v>
       </c>
       <c r="N92" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="O92" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>45175</v>
-      </c>
-      <c r="Q92" s="5" t="inlineStr"/>
+        <v>45198</v>
+      </c>
+      <c r="Q92" s="5" t="inlineStr">
+        <is>
+          <t>February 10, 2024</t>
+        </is>
+      </c>
       <c r="R92" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2</t>
-        </is>
-      </c>
-      <c r="S92" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-04</t>
-        </is>
-      </c>
+          <t>2023-003-Infra</t>
+        </is>
+      </c>
+      <c r="S92" s="5" t="inlineStr"/>
       <c r="T92" s="6" t="n">
-        <v>44979</v>
-      </c>
-      <c r="U92" s="6" t="n">
-        <v>44986</v>
-      </c>
+        <v>44995</v>
+      </c>
+      <c r="U92" s="5" t="inlineStr"/>
       <c r="V92" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="W92" s="5" t="inlineStr"/>
+        <v>45016</v>
+      </c>
+      <c r="W92" s="6" t="n">
+        <v>45021</v>
+      </c>
       <c r="X92" s="6" t="n">
-        <v>45078</v>
+        <v>45036</v>
       </c>
       <c r="Y92" s="5" t="inlineStr">
         <is>
-          <t>SB &amp; T CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="Z92" s="5" t="inlineStr">
-        <is>
-          <t>for procurement;revised pow</t>
-        </is>
-      </c>
+          <t>DOLCI Construction and General Merchandise</t>
+        </is>
+      </c>
+      <c r="Z92" s="5" t="inlineStr"/>
       <c r="AA92" s="7" t="n"/>
     </row>
     <row r="93">
@@ -8577,25 +8597,25 @@
       </c>
       <c r="C93" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Tagbilaran City</t>
         </is>
       </c>
       <c r="D93" s="5" t="n">
-        <v>119566</v>
+        <v>118713</v>
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>PINAMUNGAJAN CES</t>
+          <t>Tagbilaran City Central Elementary School</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
         <is>
-          <t>PINAMUNGAJAN</t>
+          <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
       <c r="G93" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="H93" s="5" t="n">
@@ -8610,13 +8630,13 @@
         </is>
       </c>
       <c r="K93" s="5" t="n">
-        <v>2706993.5847465</v>
+        <v>3600000</v>
       </c>
       <c r="L93" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>2073549.03</v>
+        <v>16952019.97</v>
       </c>
       <c r="N93" s="5" t="inlineStr">
         <is>
@@ -8627,35 +8647,33 @@
         <v>1</v>
       </c>
       <c r="P93" s="6" t="n">
-        <v>45175</v>
-      </c>
-      <c r="Q93" s="5" t="inlineStr"/>
+        <v>45111</v>
+      </c>
+      <c r="Q93" s="6" t="n">
+        <v>45071</v>
+      </c>
       <c r="R93" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2</t>
-        </is>
-      </c>
-      <c r="S93" s="5" t="inlineStr">
-        <is>
-          <t>CY 2022 QRF BATCH 2-DEPED-R7-CEBU-01</t>
-        </is>
-      </c>
+          <t>2023-001-Infra</t>
+        </is>
+      </c>
+      <c r="S93" s="5" t="inlineStr"/>
       <c r="T93" s="6" t="n">
-        <v>44979</v>
-      </c>
-      <c r="U93" s="6" t="n">
-        <v>44986</v>
-      </c>
+        <v>44981</v>
+      </c>
+      <c r="U93" s="5" t="inlineStr"/>
       <c r="V93" s="6" t="n">
-        <v>44998</v>
-      </c>
-      <c r="W93" s="5" t="inlineStr"/>
+        <v>45002</v>
+      </c>
+      <c r="W93" s="6" t="n">
+        <v>45006</v>
+      </c>
       <c r="X93" s="6" t="n">
-        <v>45078</v>
+        <v>45019</v>
       </c>
       <c r="Y93" s="5" t="inlineStr">
         <is>
-          <t>GELA CONSTRUCTION</t>
+          <t>C.Jansen Construction and General Merchandise</t>
         </is>
       </c>
       <c r="Z93" s="5" t="inlineStr"/>
@@ -8674,20 +8692,20 @@
       </c>
       <c r="C94" s="5" t="inlineStr">
         <is>
-          <t>Guihulngan City</t>
+          <t>Tagbilaran City</t>
         </is>
       </c>
       <c r="D94" s="5" t="n">
-        <v>120642</v>
+        <v>233001</v>
       </c>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>Vallehermoso Central Elementary School</t>
+          <t>Tagbilaran City Central School SPED Center</t>
         </is>
       </c>
       <c r="F94" s="5" t="inlineStr">
         <is>
-          <t>VALLEHERMOSO</t>
+          <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
       <c r="G94" s="5" t="inlineStr">
@@ -8699,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94" s="5" t="inlineStr">
         <is>
@@ -8707,16 +8725,12 @@
         </is>
       </c>
       <c r="K94" s="5" t="n">
-        <v>1477590.79</v>
+        <v>900000</v>
       </c>
       <c r="L94" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M94" s="5" t="inlineStr">
-        <is>
-          <t>PHP 1,472,159.77</t>
-        </is>
-      </c>
+      <c r="M94" s="5" t="inlineStr"/>
       <c r="N94" s="5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8726,405 +8740,41 @@
         <v>1</v>
       </c>
       <c r="P94" s="6" t="n">
-        <v>45160</v>
-      </c>
-      <c r="Q94" s="5" t="inlineStr"/>
+        <v>45111</v>
+      </c>
+      <c r="Q94" s="6" t="n">
+        <v>45071</v>
+      </c>
       <c r="R94" s="5" t="inlineStr">
         <is>
-          <t>CY 2022 QRF BATCH 2</t>
-        </is>
-      </c>
-      <c r="S94" s="5" t="inlineStr">
-        <is>
-          <t>ITB 2023-002</t>
-        </is>
-      </c>
+          <t>2023-002-Infra</t>
+        </is>
+      </c>
+      <c r="S94" s="5" t="inlineStr"/>
       <c r="T94" s="6" t="n">
-        <v>44988</v>
-      </c>
-      <c r="U94" s="6" t="n">
-        <v>44995</v>
-      </c>
+        <v>44981</v>
+      </c>
+      <c r="U94" s="5" t="inlineStr"/>
       <c r="V94" s="6" t="n">
-        <v>45007</v>
+        <v>45002</v>
       </c>
       <c r="W94" s="6" t="n">
-        <v>45030</v>
+        <v>45006</v>
       </c>
       <c r="X94" s="6" t="n">
-        <v>45035</v>
+        <v>45019</v>
       </c>
       <c r="Y94" s="5" t="inlineStr">
         <is>
-          <t>TRIPLE JO CONSTRUCTION SERVICES</t>
+          <t>C.Jansen Construction and General Merchandise</t>
         </is>
       </c>
       <c r="Z94" s="5" t="inlineStr"/>
       <c r="AA94" s="7" t="n"/>
     </row>
-    <row r="95">
-      <c r="A95" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B95" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C95" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City</t>
-        </is>
-      </c>
-      <c r="D95" s="5" t="n">
-        <v>118713</v>
-      </c>
-      <c r="E95" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City Central Elementary School</t>
-        </is>
-      </c>
-      <c r="F95" s="5" t="inlineStr">
-        <is>
-          <t>TAGBILARAN CITY (Capital)</t>
-        </is>
-      </c>
-      <c r="G95" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H95" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" s="5" t="inlineStr">
-        <is>
-          <t>Replacement</t>
-        </is>
-      </c>
-      <c r="K95" s="5" t="n">
-        <v>17000000</v>
-      </c>
-      <c r="L95" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" s="5" t="n">
-        <v>16952019.97</v>
-      </c>
-      <c r="N95" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="O95" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P95" s="6" t="n">
-        <v>45198</v>
-      </c>
-      <c r="Q95" s="5" t="inlineStr">
-        <is>
-          <t>February 10, 2024</t>
-        </is>
-      </c>
-      <c r="R95" s="5" t="inlineStr">
-        <is>
-          <t>2023-003-Infra</t>
-        </is>
-      </c>
-      <c r="S95" s="5" t="inlineStr"/>
-      <c r="T95" s="6" t="n">
-        <v>44995</v>
-      </c>
-      <c r="U95" s="5" t="inlineStr"/>
-      <c r="V95" s="6" t="n">
-        <v>45016</v>
-      </c>
-      <c r="W95" s="6" t="n">
-        <v>45021</v>
-      </c>
-      <c r="X95" s="6" t="n">
-        <v>45036</v>
-      </c>
-      <c r="Y95" s="5" t="inlineStr">
-        <is>
-          <t>DOLCI Construction and General Merchandise</t>
-        </is>
-      </c>
-      <c r="Z95" s="5" t="inlineStr"/>
-      <c r="AA95" s="7" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B96" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C96" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City</t>
-        </is>
-      </c>
-      <c r="D96" s="5" t="n">
-        <v>118713</v>
-      </c>
-      <c r="E96" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City Central Elementary School</t>
-        </is>
-      </c>
-      <c r="F96" s="5" t="inlineStr">
-        <is>
-          <t>TAGBILARAN CITY (Capital)</t>
-        </is>
-      </c>
-      <c r="G96" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H96" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J96" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K96" s="5" t="n">
-        <v>3600000</v>
-      </c>
-      <c r="L96" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" s="5" t="n">
-        <v>16952019.97</v>
-      </c>
-      <c r="N96" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O96" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P96" s="6" t="n">
-        <v>45111</v>
-      </c>
-      <c r="Q96" s="6" t="n">
-        <v>45071</v>
-      </c>
-      <c r="R96" s="5" t="inlineStr">
-        <is>
-          <t>2023-001-Infra</t>
-        </is>
-      </c>
-      <c r="S96" s="5" t="inlineStr"/>
-      <c r="T96" s="6" t="n">
-        <v>44981</v>
-      </c>
-      <c r="U96" s="5" t="inlineStr"/>
-      <c r="V96" s="6" t="n">
-        <v>45002</v>
-      </c>
-      <c r="W96" s="6" t="n">
-        <v>45006</v>
-      </c>
-      <c r="X96" s="6" t="n">
-        <v>45019</v>
-      </c>
-      <c r="Y96" s="5" t="inlineStr">
-        <is>
-          <t>C.Jansen Construction and General Merchandise</t>
-        </is>
-      </c>
-      <c r="Z96" s="5" t="inlineStr"/>
-      <c r="AA96" s="7" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B97" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C97" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City</t>
-        </is>
-      </c>
-      <c r="D97" s="5" t="n">
-        <v>233001</v>
-      </c>
-      <c r="E97" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City Central School SPED Center</t>
-        </is>
-      </c>
-      <c r="F97" s="5" t="inlineStr">
-        <is>
-          <t>TAGBILARAN CITY (Capital)</t>
-        </is>
-      </c>
-      <c r="G97" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H97" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K97" s="5" t="n">
-        <v>900000</v>
-      </c>
-      <c r="L97" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" s="5" t="inlineStr"/>
-      <c r="N97" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O97" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P97" s="6" t="n">
-        <v>45111</v>
-      </c>
-      <c r="Q97" s="6" t="n">
-        <v>45071</v>
-      </c>
-      <c r="R97" s="5" t="inlineStr">
-        <is>
-          <t>2023-002-Infra</t>
-        </is>
-      </c>
-      <c r="S97" s="5" t="inlineStr"/>
-      <c r="T97" s="6" t="n">
-        <v>44981</v>
-      </c>
-      <c r="U97" s="5" t="inlineStr"/>
-      <c r="V97" s="6" t="n">
-        <v>45002</v>
-      </c>
-      <c r="W97" s="6" t="n">
-        <v>45006</v>
-      </c>
-      <c r="X97" s="6" t="n">
-        <v>45019</v>
-      </c>
-      <c r="Y97" s="5" t="inlineStr">
-        <is>
-          <t>C.Jansen Construction and General Merchandise</t>
-        </is>
-      </c>
-      <c r="Z97" s="5" t="inlineStr"/>
-      <c r="AA97" s="7" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="inlineStr">
-        <is>
-          <t>QRF 2022 REPLENISHMENT</t>
-        </is>
-      </c>
-      <c r="B98" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C98" s="5" t="inlineStr">
-        <is>
-          <t>Tanjay City</t>
-        </is>
-      </c>
-      <c r="D98" s="5" t="n">
-        <v>120563</v>
-      </c>
-      <c r="E98" s="5" t="inlineStr">
-        <is>
-          <t>Sta. Cruz CES</t>
-        </is>
-      </c>
-      <c r="F98" s="5" t="inlineStr">
-        <is>
-          <t>CITY OF TANJAY</t>
-        </is>
-      </c>
-      <c r="G98" s="5" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="H98" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" s="5" t="inlineStr">
-        <is>
-          <t>REPAIR OF CLASSROOMS</t>
-        </is>
-      </c>
-      <c r="K98" s="5" t="n">
-        <v>2520000</v>
-      </c>
-      <c r="L98" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" s="5" t="inlineStr"/>
-      <c r="N98" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O98" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P98" s="5" t="inlineStr"/>
-      <c r="Q98" s="5" t="inlineStr"/>
-      <c r="R98" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S98" s="5" t="inlineStr"/>
-      <c r="T98" s="5" t="inlineStr"/>
-      <c r="U98" s="5" t="inlineStr"/>
-      <c r="V98" s="5" t="inlineStr"/>
-      <c r="W98" s="5" t="inlineStr"/>
-      <c r="X98" s="5" t="inlineStr"/>
-      <c r="Y98" s="5" t="inlineStr"/>
-      <c r="Z98" s="5" t="inlineStr"/>
-      <c r="AA98" s="7" t="n"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA98" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA94" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
